--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_2_15.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_2_15.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>435891.5357155567</v>
+        <v>436110.2619151903</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11465356.14162198</v>
+        <v>11821355.91763807</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9814017.5104373</v>
+        <v>10162932.89091066</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6442551.222469399</v>
+        <v>6273294.992720635</v>
       </c>
     </row>
     <row r="11">
@@ -659,25 +661,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>46.09470047395167</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -716,16 +718,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W2" t="n">
-        <v>379.9226978561831</v>
+        <v>331.0080936746681</v>
       </c>
       <c r="X2" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -795,7 +797,7 @@
         <v>195.3773027531635</v>
       </c>
       <c r="V3" t="n">
-        <v>211.5744117368965</v>
+        <v>211.5744117368963</v>
       </c>
       <c r="W3" t="n">
         <v>211.1008365810345</v>
@@ -814,25 +816,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>164.5175082466428</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I4" t="n">
         <v>115.1825854367171</v>
@@ -862,28 +864,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W4" t="n">
-        <v>119.2158337902828</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -899,7 +901,7 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -908,13 +910,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H5" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -953,13 +955,13 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>77.32784835135612</v>
+        <v>11.89439304893054</v>
       </c>
       <c r="Y5" t="n">
         <v>396.9273063213908</v>
@@ -1051,28 +1053,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,28 +1101,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X7" t="n">
-        <v>27.35334490128912</v>
+        <v>180.6077930059085</v>
       </c>
       <c r="Y7" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,10 +1132,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C8" t="n">
-        <v>193.855473155756</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D8" t="n">
         <v>400.41929060787</v>
@@ -1142,10 +1144,10 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>6.338580986754317</v>
       </c>
       <c r="G8" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1184,7 +1186,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1306,10 +1308,10 @@
         <v>165.577887163712</v>
       </c>
       <c r="H10" t="n">
-        <v>148.1113806425979</v>
+        <v>106.1194605417152</v>
       </c>
       <c r="I10" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,10 +1338,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1357,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>165.4216953850578</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="11">
@@ -1373,19 +1375,19 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D11" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>19.89843046229006</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>278.3854192029605</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -1433,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>396.9273063213908</v>
@@ -1546,7 +1548,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>184.5278504388888</v>
@@ -1591,7 +1593,7 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X13" t="n">
-        <v>180.6077930059085</v>
+        <v>149.8451987105457</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1607,7 +1609,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>393.9470907639073</v>
+        <v>393.9470907639069</v>
       </c>
       <c r="D14" t="n">
         <v>400.41929060787</v>
@@ -1810,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>237.1532516330649</v>
+        <v>228.2601210751802</v>
       </c>
       <c r="U16" t="n">
         <v>279.9701659793371</v>
@@ -1828,10 +1830,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X16" t="n">
-        <v>180.6077930059085</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="17">
@@ -1841,13 +1843,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>406.1189678678446</v>
+        <v>388.3430365919143</v>
       </c>
       <c r="C17" t="n">
         <v>406.0233447798626</v>
       </c>
       <c r="D17" t="n">
-        <v>386.8650699901663</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>410.1968133282722</v>
@@ -1856,7 +1858,7 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -2090,7 +2092,7 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F20" t="n">
-        <v>121.621013371371</v>
+        <v>403.2658873081451</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -2144,10 +2146,10 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2236,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>185.8227093301039</v>
+        <v>114.0911530820968</v>
       </c>
       <c r="C22" t="n">
         <v>169.3824387139007</v>
@@ -2284,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -2302,10 +2304,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>27.35334490128957</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2315,13 +2317,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>410.1968133282722</v>
@@ -2330,7 +2332,7 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G23" t="n">
-        <v>404.6410012660961</v>
+        <v>25.52041460756234</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2369,10 +2371,10 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>214.3576947652749</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -2476,7 +2478,7 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D25" t="n">
         <v>157.8996982303191</v>
@@ -2485,13 +2487,13 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G25" t="n">
-        <v>127.0488513668547</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H25" t="n">
-        <v>148.1113806425979</v>
+        <v>106.1194605417152</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2524,10 +2526,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T25" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -2536,7 +2538,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2552,22 +2554,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D26" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E26" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>401.6607857086126</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2609,19 +2611,19 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>396.9273063213908</v>
+        <v>179.0501159571496</v>
       </c>
     </row>
     <row r="27">
@@ -2719,19 +2721,19 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F28" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H28" t="n">
-        <v>68.10104966859244</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -2770,16 +2772,16 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>222.4883416251229</v>
+        <v>65.31383608752412</v>
       </c>
     </row>
     <row r="29">
@@ -2795,16 +2797,16 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E29" t="n">
-        <v>410.1968133282722</v>
+        <v>19.89843046228963</v>
       </c>
       <c r="F29" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>6.942372133983372</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2852,13 +2854,13 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="30">
@@ -2953,7 +2955,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>61.29526474944497</v>
       </c>
       <c r="E31" t="n">
         <v>159.3017069803637</v>
@@ -2962,13 +2964,13 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G31" t="n">
-        <v>70.90884974000087</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H31" t="n">
         <v>148.1113806425979</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3007,7 +3009,7 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V31" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -3026,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>406.1189678678446</v>
+        <v>392.5647472501403</v>
       </c>
       <c r="C32" t="n">
         <v>406.0233447798626</v>
@@ -3038,7 +3040,7 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -3092,10 +3094,10 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>6.338580986754886</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3193,16 +3195,16 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,19 +3234,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>228.2601210751802</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W34" t="n">
         <v>276.2789678462144</v>
@@ -3253,7 +3255,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y34" t="n">
-        <v>96.94188529208202</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="35">
@@ -3263,16 +3265,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>89.37804881895093</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F35" t="n">
         <v>416.8201079258493</v>
@@ -3323,16 +3325,16 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>396.636963852737</v>
+        <v>386.8650699901659</v>
       </c>
       <c r="Y35" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3427,22 +3429,22 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D37" t="n">
-        <v>157.8996982303191</v>
+        <v>153.0251390105128</v>
       </c>
       <c r="E37" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>27.35334490128979</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -3481,13 +3483,13 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y37" t="n">
         <v>222.4883416251229</v>
@@ -3500,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>392.5647472501408</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>406.0233447798626</v>
@@ -3509,19 +3511,19 @@
         <v>400.41929060787</v>
       </c>
       <c r="E38" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>21.37639706403803</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3566,10 +3568,10 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="39">
@@ -3670,16 +3672,16 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>156.4446412108738</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>29.06736062834963</v>
       </c>
       <c r="S40" t="n">
         <v>184.5278504388888</v>
@@ -3715,13 +3717,13 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V40" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X40" t="n">
         <v>235.9604235189134</v>
@@ -3737,28 +3739,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>6.338580986754753</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>112.9104992901431</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3797,13 +3799,13 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y41" t="n">
         <v>396.9273063213908</v>
@@ -3895,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,25 +3948,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>237.1532516330649</v>
+        <v>70.36042284486109</v>
       </c>
       <c r="U43" t="n">
         <v>279.9701659793371</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y43" t="n">
-        <v>34.77426239970482</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="44">
@@ -3977,13 +3979,13 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -3992,7 +3994,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>294.7228925766556</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,22 +4027,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V44" t="n">
-        <v>343.6465684039911</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -4110,13 +4112,13 @@
         <v>157.7484451748619</v>
       </c>
       <c r="U45" t="n">
-        <v>106.1331548337414</v>
+        <v>195.3773027531635</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>211.5744117368965</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>211.1008365810345</v>
       </c>
       <c r="X45" t="n">
         <v>174.5627220424961</v>
@@ -4147,10 +4149,10 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>148.1113806425979</v>
+        <v>113.0775356384632</v>
       </c>
       <c r="I46" t="n">
         <v>115.1825854367171</v>
@@ -4180,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>279.9701659793371</v>
@@ -4195,13 +4197,13 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W46" t="n">
-        <v>28.01490760909623</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>902.9139097323135</v>
+        <v>1268.784041838291</v>
       </c>
       <c r="C2" t="n">
-        <v>492.7893190455836</v>
+        <v>1268.784041838291</v>
       </c>
       <c r="D2" t="n">
-        <v>88.32538913864414</v>
+        <v>1268.784041838291</v>
       </c>
       <c r="E2" t="n">
-        <v>41.76508562960205</v>
+        <v>1268.784041838291</v>
       </c>
       <c r="F2" t="n">
-        <v>41.76508562960205</v>
+        <v>847.7536297919787</v>
       </c>
       <c r="G2" t="n">
-        <v>41.76508562960205</v>
+        <v>439.0253456848109</v>
       </c>
       <c r="H2" t="n">
-        <v>41.76508562960205</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="I2" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J2" t="n">
-        <v>41.76508562960205</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K2" t="n">
-        <v>41.76508562960205</v>
+        <v>812.7934917636815</v>
       </c>
       <c r="L2" t="n">
-        <v>537.7254774811266</v>
+        <v>812.7934917636815</v>
       </c>
       <c r="M2" t="n">
-        <v>1054.568412147452</v>
+        <v>812.7934917636815</v>
       </c>
       <c r="N2" t="n">
-        <v>1571.411346813777</v>
+        <v>1014.011766457887</v>
       </c>
       <c r="O2" t="n">
-        <v>1571.411346813777</v>
+        <v>1530.854701124212</v>
       </c>
       <c r="P2" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="Q2" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="R2" t="n">
         <v>2088.254281480102</v>
       </c>
       <c r="S2" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T2" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="U2" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="V2" t="n">
-        <v>2088.254281480102</v>
+        <v>1603.135651610683</v>
       </c>
       <c r="W2" t="n">
-        <v>1704.493980615271</v>
+        <v>1268.784041838291</v>
       </c>
       <c r="X2" t="n">
-        <v>1303.850582784223</v>
+        <v>1268.784041838291</v>
       </c>
       <c r="Y2" t="n">
-        <v>902.9139097323135</v>
+        <v>1268.784041838291</v>
       </c>
     </row>
     <row r="3">
@@ -4383,46 +4385,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>720.5959275161366</v>
+        <v>720.5959275161365</v>
       </c>
       <c r="C3" t="n">
-        <v>586.6008562650824</v>
+        <v>586.6008562650821</v>
       </c>
       <c r="D3" t="n">
-        <v>469.7036984844747</v>
+        <v>469.7036984844746</v>
       </c>
       <c r="E3" t="n">
-        <v>349.2108824768027</v>
+        <v>349.2108824768026</v>
       </c>
       <c r="F3" t="n">
-        <v>240.2510026593072</v>
+        <v>240.2510026593071</v>
       </c>
       <c r="G3" t="n">
-        <v>133.260889973646</v>
+        <v>133.2608899736458</v>
       </c>
       <c r="H3" t="n">
-        <v>62.51367700936203</v>
+        <v>62.51367700936186</v>
       </c>
       <c r="I3" t="n">
-        <v>41.76508562960225</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J3" t="n">
-        <v>234.5779431922355</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K3" t="n">
-        <v>690.3841994575342</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="L3" t="n">
-        <v>1207.22713412386</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="M3" t="n">
-        <v>1724.070068790185</v>
+        <v>751.4208778585604</v>
       </c>
       <c r="N3" t="n">
-        <v>1724.070068790185</v>
+        <v>1025.008892784821</v>
       </c>
       <c r="O3" t="n">
-        <v>2058.694762117472</v>
+        <v>1541.851827451147</v>
       </c>
       <c r="P3" t="n">
         <v>2058.694762117472</v>
@@ -4440,19 +4442,19 @@
         <v>1820.922407781419</v>
       </c>
       <c r="U3" t="n">
-        <v>1623.571596919638</v>
+        <v>1623.571596919637</v>
       </c>
       <c r="V3" t="n">
-        <v>1409.860069912672</v>
+        <v>1409.860069912671</v>
       </c>
       <c r="W3" t="n">
-        <v>1196.626901649001</v>
+        <v>1196.626901649</v>
       </c>
       <c r="X3" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y3" t="n">
-        <v>860.8989601517233</v>
+        <v>860.8989601517231</v>
       </c>
     </row>
     <row r="4">
@@ -4462,34 +4464,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>158.1111315252759</v>
+        <v>1131.098935930739</v>
       </c>
       <c r="C4" t="n">
-        <v>158.1111315252759</v>
+        <v>960.0055634924552</v>
       </c>
       <c r="D4" t="n">
-        <v>158.1111315252759</v>
+        <v>800.5109188153651</v>
       </c>
       <c r="E4" t="n">
-        <v>158.1111315252759</v>
+        <v>639.6001036836846</v>
       </c>
       <c r="F4" t="n">
-        <v>158.1111315252759</v>
+        <v>474.9689777942758</v>
       </c>
       <c r="G4" t="n">
-        <v>158.1111315252759</v>
+        <v>307.7185867198192</v>
       </c>
       <c r="H4" t="n">
         <v>158.1111315252759</v>
       </c>
       <c r="I4" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J4" t="n">
-        <v>55.84763503481257</v>
+        <v>55.84763503481255</v>
       </c>
       <c r="K4" t="n">
-        <v>210.3999627570506</v>
+        <v>210.3999627570505</v>
       </c>
       <c r="L4" t="n">
         <v>470.2970630371111</v>
@@ -4510,28 +4512,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R4" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S4" t="n">
-        <v>1299.499495805762</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T4" t="n">
-        <v>1059.950756782464</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="U4" t="n">
-        <v>777.1526093285881</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="V4" t="n">
-        <v>503.2668642681101</v>
+        <v>1297.278237189974</v>
       </c>
       <c r="W4" t="n">
-        <v>382.8468301365112</v>
+        <v>1297.278237189974</v>
       </c>
       <c r="X4" t="n">
-        <v>382.8468301365112</v>
+        <v>1297.278237189974</v>
       </c>
       <c r="Y4" t="n">
-        <v>158.1111315252759</v>
+        <v>1297.278237189974</v>
       </c>
     </row>
     <row r="5">
@@ -4541,52 +4543,52 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>849.1499363715408</v>
+        <v>1265.081890330439</v>
       </c>
       <c r="C5" t="n">
-        <v>439.0253456848109</v>
+        <v>854.9572996437093</v>
       </c>
       <c r="D5" t="n">
-        <v>439.0253456848109</v>
+        <v>450.4933697367699</v>
       </c>
       <c r="E5" t="n">
-        <v>439.0253456848109</v>
+        <v>450.4933697367699</v>
       </c>
       <c r="F5" t="n">
-        <v>439.0253456848109</v>
+        <v>450.4933697367699</v>
       </c>
       <c r="G5" t="n">
-        <v>439.0253456848109</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="H5" t="n">
-        <v>128.1168483125289</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="I5" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J5" t="n">
         <v>295.9505570973564</v>
       </c>
       <c r="K5" t="n">
-        <v>295.9505570973564</v>
+        <v>812.7934917636815</v>
       </c>
       <c r="L5" t="n">
-        <v>812.7934917636817</v>
+        <v>1014.011766457887</v>
       </c>
       <c r="M5" t="n">
-        <v>1329.636426430007</v>
+        <v>1014.011766457887</v>
       </c>
       <c r="N5" t="n">
-        <v>1571.411346813777</v>
+        <v>1530.854701124212</v>
       </c>
       <c r="O5" t="n">
-        <v>1571.411346813777</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="P5" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="Q5" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="R5" t="n">
         <v>2088.254281480102</v>
@@ -4601,16 +4603,16 @@
         <v>2088.254281480102</v>
       </c>
       <c r="V5" t="n">
-        <v>1738.416726816583</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="W5" t="n">
-        <v>1738.416726816583</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="X5" t="n">
-        <v>1660.30778908794</v>
+        <v>2076.239743046839</v>
       </c>
       <c r="Y5" t="n">
-        <v>1259.37111603603</v>
+        <v>1675.303069994929</v>
       </c>
     </row>
     <row r="6">
@@ -4620,16 +4622,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>720.5959275161365</v>
+        <v>720.5959275161363</v>
       </c>
       <c r="C6" t="n">
-        <v>586.6008562650821</v>
+        <v>586.600856265082</v>
       </c>
       <c r="D6" t="n">
-        <v>469.7036984844746</v>
+        <v>469.7036984844745</v>
       </c>
       <c r="E6" t="n">
-        <v>349.2108824768026</v>
+        <v>349.2108824768025</v>
       </c>
       <c r="F6" t="n">
         <v>240.2510026593071</v>
@@ -4638,22 +4640,22 @@
         <v>133.2608899736458</v>
       </c>
       <c r="H6" t="n">
-        <v>62.51367700936187</v>
+        <v>62.51367700936186</v>
       </c>
       <c r="I6" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J6" t="n">
         <v>234.5779431922353</v>
       </c>
       <c r="K6" t="n">
-        <v>234.5779431922353</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L6" t="n">
-        <v>751.4208778585605</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="M6" t="n">
-        <v>1268.263812524886</v>
+        <v>1541.851827451147</v>
       </c>
       <c r="N6" t="n">
         <v>1541.851827451147</v>
@@ -4689,7 +4691,7 @@
         <v>1020.300919787893</v>
       </c>
       <c r="Y6" t="n">
-        <v>860.8989601517231</v>
+        <v>860.8989601517229</v>
       </c>
     </row>
     <row r="7">
@@ -4699,34 +4701,34 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1131.098935930739</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="C7" t="n">
-        <v>960.0055634924552</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="D7" t="n">
-        <v>800.5109188153651</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="E7" t="n">
-        <v>639.6001036836846</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="F7" t="n">
-        <v>474.9689777942758</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="G7" t="n">
-        <v>307.7185867198193</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="H7" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="I7" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J7" t="n">
-        <v>55.84763503481257</v>
+        <v>55.84763503481255</v>
       </c>
       <c r="K7" t="n">
-        <v>210.3999627570506</v>
+        <v>210.3999627570505</v>
       </c>
       <c r="L7" t="n">
         <v>470.2970630371111</v>
@@ -4747,28 +4749,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R7" t="n">
-        <v>1571.163982250452</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="S7" t="n">
-        <v>1571.163982250452</v>
+        <v>1299.499495805762</v>
       </c>
       <c r="T7" t="n">
-        <v>1571.163982250452</v>
+        <v>1059.950756782464</v>
       </c>
       <c r="U7" t="n">
-        <v>1571.163982250452</v>
+        <v>777.1526093285881</v>
       </c>
       <c r="V7" t="n">
-        <v>1571.163982250452</v>
+        <v>503.2668642681101</v>
       </c>
       <c r="W7" t="n">
-        <v>1571.163982250452</v>
+        <v>224.1971997769844</v>
       </c>
       <c r="X7" t="n">
-        <v>1543.534340936018</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="Y7" t="n">
-        <v>1318.798642324783</v>
+        <v>41.76508562960203</v>
       </c>
     </row>
     <row r="8">
@@ -4778,52 +4780,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1465.111124375051</v>
+        <v>1277.096428763702</v>
       </c>
       <c r="C8" t="n">
-        <v>1269.297515126813</v>
+        <v>866.9718380769724</v>
       </c>
       <c r="D8" t="n">
-        <v>864.8335852198732</v>
+        <v>462.5079081700329</v>
       </c>
       <c r="E8" t="n">
-        <v>450.4933697367699</v>
+        <v>48.16769268692963</v>
       </c>
       <c r="F8" t="n">
-        <v>450.4933697367699</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="G8" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="H8" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="I8" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J8" t="n">
-        <v>295.9505570973564</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="K8" t="n">
-        <v>497.1688317915616</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="L8" t="n">
-        <v>1014.011766457887</v>
+        <v>558.6080202959272</v>
       </c>
       <c r="M8" t="n">
-        <v>1530.854701124212</v>
+        <v>1075.450954962252</v>
       </c>
       <c r="N8" t="n">
-        <v>2047.697635790537</v>
+        <v>1592.293889628578</v>
       </c>
       <c r="O8" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="P8" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q8" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R8" t="n">
         <v>2088.254281480102</v>
@@ -4832,22 +4834,22 @@
         <v>2088.254281480102</v>
       </c>
       <c r="T8" t="n">
-        <v>1866.047797426961</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="U8" t="n">
-        <v>1866.047797426961</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="V8" t="n">
-        <v>1866.047797426961</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="W8" t="n">
-        <v>1866.047797426961</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="X8" t="n">
-        <v>1866.047797426961</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Y8" t="n">
-        <v>1465.111124375051</v>
+        <v>1687.317608428192</v>
       </c>
     </row>
     <row r="9">
@@ -4857,52 +4859,52 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>720.5959275161366</v>
+        <v>720.5959275161365</v>
       </c>
       <c r="C9" t="n">
-        <v>586.6008562650824</v>
+        <v>586.6008562650821</v>
       </c>
       <c r="D9" t="n">
-        <v>469.7036984844747</v>
+        <v>469.7036984844746</v>
       </c>
       <c r="E9" t="n">
-        <v>349.2108824768027</v>
+        <v>349.2108824768026</v>
       </c>
       <c r="F9" t="n">
-        <v>240.2510026593072</v>
+        <v>240.2510026593071</v>
       </c>
       <c r="G9" t="n">
-        <v>133.260889973646</v>
+        <v>133.2608899736458</v>
       </c>
       <c r="H9" t="n">
-        <v>62.51367700936203</v>
+        <v>62.51367700936186</v>
       </c>
       <c r="I9" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J9" t="n">
-        <v>234.5779431922353</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="K9" t="n">
-        <v>234.5779431922353</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="L9" t="n">
-        <v>234.5779431922353</v>
+        <v>558.6080202959272</v>
       </c>
       <c r="M9" t="n">
-        <v>751.4208778585605</v>
+        <v>1075.450954962252</v>
       </c>
       <c r="N9" t="n">
-        <v>751.4208778585605</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="O9" t="n">
-        <v>1192.007362767164</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="P9" t="n">
-        <v>1708.850297433489</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q9" t="n">
-        <v>2058.694762117472</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R9" t="n">
         <v>2088.254281480102</v>
@@ -4917,16 +4919,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V9" t="n">
-        <v>1409.860069912672</v>
+        <v>1409.860069912671</v>
       </c>
       <c r="W9" t="n">
-        <v>1196.626901649001</v>
+        <v>1196.626901649</v>
       </c>
       <c r="X9" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y9" t="n">
-        <v>860.8989601517233</v>
+        <v>860.8989601517231</v>
       </c>
     </row>
     <row r="10">
@@ -4936,34 +4938,34 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1131.098935930739</v>
+        <v>972.3368091250823</v>
       </c>
       <c r="C10" t="n">
-        <v>960.0055634924552</v>
+        <v>801.2434366867988</v>
       </c>
       <c r="D10" t="n">
-        <v>800.5109188153651</v>
+        <v>641.7487920097087</v>
       </c>
       <c r="E10" t="n">
-        <v>639.6001036836846</v>
+        <v>480.8379768780282</v>
       </c>
       <c r="F10" t="n">
-        <v>474.9689777942758</v>
+        <v>316.2068509886195</v>
       </c>
       <c r="G10" t="n">
-        <v>307.7185867198193</v>
+        <v>148.9564599141629</v>
       </c>
       <c r="H10" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="I10" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J10" t="n">
-        <v>55.84763503481257</v>
+        <v>55.84763503481255</v>
       </c>
       <c r="K10" t="n">
-        <v>210.3999627570506</v>
+        <v>210.3999627570505</v>
       </c>
       <c r="L10" t="n">
         <v>470.2970630371111</v>
@@ -4984,28 +4986,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R10" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S10" t="n">
-        <v>1485.891263925851</v>
+        <v>1384.772214130362</v>
       </c>
       <c r="T10" t="n">
-        <v>1485.891263925851</v>
+        <v>1384.772214130362</v>
       </c>
       <c r="U10" t="n">
-        <v>1485.891263925851</v>
+        <v>1384.772214130362</v>
       </c>
       <c r="V10" t="n">
-        <v>1485.891263925851</v>
+        <v>1384.772214130362</v>
       </c>
       <c r="W10" t="n">
-        <v>1485.891263925851</v>
+        <v>1384.772214130362</v>
       </c>
       <c r="X10" t="n">
-        <v>1485.891263925851</v>
+        <v>1384.772214130362</v>
       </c>
       <c r="Y10" t="n">
-        <v>1318.798642324783</v>
+        <v>1160.036515519127</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>876.4530309326553</v>
+        <v>1141.815353557803</v>
       </c>
       <c r="C11" t="n">
-        <v>466.3284402459254</v>
+        <v>731.6907628710734</v>
       </c>
       <c r="D11" t="n">
-        <v>61.86451033898595</v>
+        <v>731.6907628710734</v>
       </c>
       <c r="E11" t="n">
-        <v>41.76508562960205</v>
+        <v>731.6907628710734</v>
       </c>
       <c r="F11" t="n">
-        <v>41.76508562960205</v>
+        <v>731.6907628710734</v>
       </c>
       <c r="G11" t="n">
-        <v>41.76508562960205</v>
+        <v>322.9624787639056</v>
       </c>
       <c r="H11" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="I11" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J11" t="n">
-        <v>41.76508562960205</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K11" t="n">
-        <v>41.76508562960205</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="L11" t="n">
-        <v>558.6080202959273</v>
+        <v>812.7934917636815</v>
       </c>
       <c r="M11" t="n">
-        <v>1075.450954962253</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="N11" t="n">
-        <v>1592.293889628578</v>
+        <v>1846.479361096332</v>
       </c>
       <c r="O11" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="P11" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q11" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R11" t="n">
         <v>2088.254281480102</v>
       </c>
       <c r="S11" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T11" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="U11" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="V11" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="W11" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="X11" t="n">
-        <v>1687.610883649055</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="Y11" t="n">
-        <v>1286.674210597145</v>
+        <v>1552.036533222293</v>
       </c>
     </row>
     <row r="12">
@@ -5112,34 +5114,34 @@
         <v>133.2608899736458</v>
       </c>
       <c r="H12" t="n">
-        <v>62.51367700936187</v>
+        <v>62.51367700936186</v>
       </c>
       <c r="I12" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J12" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="K12" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="L12" t="n">
-        <v>41.76508562960205</v>
+        <v>558.6080202959272</v>
       </c>
       <c r="M12" t="n">
-        <v>558.6080202959273</v>
+        <v>1025.008892784821</v>
       </c>
       <c r="N12" t="n">
-        <v>1075.450954962253</v>
+        <v>1541.851827451147</v>
       </c>
       <c r="O12" t="n">
-        <v>1592.293889628578</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="P12" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="Q12" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R12" t="n">
         <v>2088.254281480102</v>
@@ -5173,34 +5175,34 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>41.76508562960205</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="C13" t="n">
-        <v>41.76508562960205</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="D13" t="n">
-        <v>41.76508562960205</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="E13" t="n">
-        <v>41.76508562960205</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="F13" t="n">
-        <v>41.76508562960205</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="G13" t="n">
-        <v>41.76508562960205</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="H13" t="n">
-        <v>41.76508562960205</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="I13" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J13" t="n">
-        <v>55.84763503481257</v>
+        <v>55.84763503481255</v>
       </c>
       <c r="K13" t="n">
-        <v>210.3999627570506</v>
+        <v>210.3999627570505</v>
       </c>
       <c r="L13" t="n">
         <v>470.2970630371111</v>
@@ -5221,28 +5223,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R13" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S13" t="n">
-        <v>1299.499495805762</v>
+        <v>1384.772214130362</v>
       </c>
       <c r="T13" t="n">
-        <v>1059.950756782464</v>
+        <v>1145.223475107064</v>
       </c>
       <c r="U13" t="n">
-        <v>777.1526093285881</v>
+        <v>862.4253276531883</v>
       </c>
       <c r="V13" t="n">
-        <v>503.2668642681101</v>
+        <v>588.5395825927103</v>
       </c>
       <c r="W13" t="n">
-        <v>224.1971997769844</v>
+        <v>309.4699181015847</v>
       </c>
       <c r="X13" t="n">
-        <v>41.76508562960205</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="Y13" t="n">
-        <v>41.76508562960205</v>
+        <v>158.1111315252759</v>
       </c>
     </row>
     <row r="14">
@@ -5267,37 +5269,37 @@
         <v>450.4933697367699</v>
       </c>
       <c r="G14" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="H14" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="I14" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J14" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="K14" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="L14" t="n">
-        <v>558.6080202959273</v>
+        <v>558.6080202959272</v>
       </c>
       <c r="M14" t="n">
-        <v>1075.450954962253</v>
+        <v>1075.450954962252</v>
       </c>
       <c r="N14" t="n">
         <v>1592.293889628578</v>
       </c>
       <c r="O14" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="P14" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="Q14" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="R14" t="n">
         <v>2088.254281480102</v>
@@ -5331,52 +5333,52 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>720.5959275161366</v>
+        <v>720.5959275161365</v>
       </c>
       <c r="C15" t="n">
-        <v>586.6008562650824</v>
+        <v>586.6008562650821</v>
       </c>
       <c r="D15" t="n">
-        <v>469.7036984844747</v>
+        <v>469.7036984844746</v>
       </c>
       <c r="E15" t="n">
-        <v>349.2108824768027</v>
+        <v>349.2108824768026</v>
       </c>
       <c r="F15" t="n">
-        <v>240.2510026593072</v>
+        <v>240.2510026593071</v>
       </c>
       <c r="G15" t="n">
-        <v>133.260889973646</v>
+        <v>133.2608899736458</v>
       </c>
       <c r="H15" t="n">
-        <v>62.51367700936203</v>
+        <v>62.51367700936187</v>
       </c>
       <c r="I15" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J15" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="K15" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="L15" t="n">
-        <v>41.76508562960205</v>
+        <v>508.1659581184963</v>
       </c>
       <c r="M15" t="n">
-        <v>558.6080202959273</v>
+        <v>1025.008892784821</v>
       </c>
       <c r="N15" t="n">
-        <v>1075.450954962253</v>
+        <v>1541.851827451147</v>
       </c>
       <c r="O15" t="n">
-        <v>1221.566882129794</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="P15" t="n">
-        <v>1738.409816796119</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="Q15" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R15" t="n">
         <v>2088.254281480102</v>
@@ -5391,16 +5393,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V15" t="n">
-        <v>1409.860069912672</v>
+        <v>1409.860069912671</v>
       </c>
       <c r="W15" t="n">
-        <v>1196.626901649001</v>
+        <v>1196.626901649</v>
       </c>
       <c r="X15" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y15" t="n">
-        <v>860.8989601517233</v>
+        <v>860.8989601517231</v>
       </c>
     </row>
     <row r="16">
@@ -5410,34 +5412,34 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="C16" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="D16" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="E16" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="F16" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="G16" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="H16" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="I16" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J16" t="n">
-        <v>55.84763503481257</v>
+        <v>55.84763503481255</v>
       </c>
       <c r="K16" t="n">
-        <v>210.3999627570506</v>
+        <v>210.3999627570505</v>
       </c>
       <c r="L16" t="n">
         <v>470.2970630371111</v>
@@ -5458,28 +5460,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R16" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S16" t="n">
-        <v>1299.499495805762</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T16" t="n">
-        <v>1059.950756782464</v>
+        <v>1340.598203386633</v>
       </c>
       <c r="U16" t="n">
-        <v>777.1526093285881</v>
+        <v>1057.800055932758</v>
       </c>
       <c r="V16" t="n">
-        <v>503.2668642681101</v>
+        <v>783.9143108722797</v>
       </c>
       <c r="W16" t="n">
-        <v>224.1971997769844</v>
+        <v>504.844646381154</v>
       </c>
       <c r="X16" t="n">
-        <v>41.76508562960205</v>
+        <v>266.5007842408373</v>
       </c>
       <c r="Y16" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
     </row>
     <row r="17">
@@ -5489,40 +5491,40 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1678.033101815613</v>
+        <v>1695.988587952916</v>
       </c>
       <c r="C17" t="n">
-        <v>1267.908511128883</v>
+        <v>1285.863997266186</v>
       </c>
       <c r="D17" t="n">
-        <v>877.1357131590178</v>
+        <v>1285.863997266186</v>
       </c>
       <c r="E17" t="n">
-        <v>462.7954976759145</v>
+        <v>871.5237817830823</v>
       </c>
       <c r="F17" t="n">
-        <v>41.76508562960205</v>
+        <v>450.4933697367699</v>
       </c>
       <c r="G17" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="H17" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="I17" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J17" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="K17" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="L17" t="n">
-        <v>558.6080202959273</v>
+        <v>558.6080202959272</v>
       </c>
       <c r="M17" t="n">
-        <v>1075.450954962253</v>
+        <v>1075.450954962252</v>
       </c>
       <c r="N17" t="n">
         <v>1592.293889628578</v>
@@ -5568,46 +5570,46 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>720.5959275161366</v>
+        <v>720.5959275161365</v>
       </c>
       <c r="C18" t="n">
-        <v>586.6008562650823</v>
+        <v>586.6008562650821</v>
       </c>
       <c r="D18" t="n">
-        <v>469.7036984844747</v>
+        <v>469.7036984844746</v>
       </c>
       <c r="E18" t="n">
-        <v>349.2108824768027</v>
+        <v>349.2108824768026</v>
       </c>
       <c r="F18" t="n">
-        <v>240.2510026593073</v>
+        <v>240.2510026593071</v>
       </c>
       <c r="G18" t="n">
-        <v>133.260889973646</v>
+        <v>133.2608899736458</v>
       </c>
       <c r="H18" t="n">
-        <v>62.51367700936201</v>
+        <v>62.51367700936186</v>
       </c>
       <c r="I18" t="n">
-        <v>41.76508562960218</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J18" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="K18" t="n">
-        <v>41.76508562960205</v>
+        <v>497.5713418949007</v>
       </c>
       <c r="L18" t="n">
-        <v>537.7254774811266</v>
+        <v>1014.414276561226</v>
       </c>
       <c r="M18" t="n">
-        <v>1054.568412147452</v>
+        <v>1014.414276561226</v>
       </c>
       <c r="N18" t="n">
+        <v>1054.568412147451</v>
+      </c>
+      <c r="O18" t="n">
         <v>1571.411346813777</v>
-      </c>
-      <c r="O18" t="n">
-        <v>2088.254281480102</v>
       </c>
       <c r="P18" t="n">
         <v>2088.254281480102</v>
@@ -5628,16 +5630,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V18" t="n">
-        <v>1409.860069912672</v>
+        <v>1409.860069912671</v>
       </c>
       <c r="W18" t="n">
-        <v>1196.626901649001</v>
+        <v>1196.626901649</v>
       </c>
       <c r="X18" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y18" t="n">
-        <v>860.8989601517233</v>
+        <v>860.8989601517231</v>
       </c>
     </row>
     <row r="19">
@@ -5647,34 +5649,34 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="C19" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="D19" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="E19" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="F19" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="G19" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="H19" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="I19" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J19" t="n">
-        <v>55.84763503481257</v>
+        <v>55.84763503481255</v>
       </c>
       <c r="K19" t="n">
-        <v>210.3999627570506</v>
+        <v>210.3999627570505</v>
       </c>
       <c r="L19" t="n">
         <v>470.2970630371111</v>
@@ -5716,7 +5718,7 @@
         <v>257.5178240813579</v>
       </c>
       <c r="Y19" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1404.09619341189</v>
+        <v>1678.033101815612</v>
       </c>
       <c r="C20" t="n">
-        <v>993.9716027251599</v>
+        <v>1267.908511128882</v>
       </c>
       <c r="D20" t="n">
-        <v>589.5076728182204</v>
+        <v>863.4445812219428</v>
       </c>
       <c r="E20" t="n">
-        <v>175.1674573351171</v>
+        <v>449.1043657388395</v>
       </c>
       <c r="F20" t="n">
-        <v>52.31794887918674</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="G20" t="n">
-        <v>52.31794887918674</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="H20" t="n">
-        <v>52.31794887918674</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="I20" t="n">
-        <v>52.31794887918674</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J20" t="n">
-        <v>52.31794887918674</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="K20" t="n">
-        <v>590.4774499882262</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="L20" t="n">
-        <v>1237.912067368162</v>
+        <v>558.6080202959272</v>
       </c>
       <c r="M20" t="n">
-        <v>1443.10988962308</v>
+        <v>1054.568412147451</v>
       </c>
       <c r="N20" t="n">
-        <v>1443.10988962308</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="O20" t="n">
-        <v>2086.740746040185</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="P20" t="n">
-        <v>2615.897443959337</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q20" t="n">
-        <v>2615.897443959337</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R20" t="n">
-        <v>2615.897443959337</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="S20" t="n">
-        <v>2615.897443959337</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="T20" t="n">
-        <v>2615.897443959337</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="U20" t="n">
-        <v>2615.897443959337</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="V20" t="n">
-        <v>2615.897443959337</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="W20" t="n">
-        <v>2615.897443959337</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="X20" t="n">
-        <v>2215.254046128289</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Y20" t="n">
-        <v>1814.317373076379</v>
+        <v>2088.254281480102</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>731.1487907657211</v>
+        <v>720.5959275161365</v>
       </c>
       <c r="C21" t="n">
-        <v>597.1537195146668</v>
+        <v>586.6008562650821</v>
       </c>
       <c r="D21" t="n">
-        <v>480.2565617340592</v>
+        <v>469.7036984844746</v>
       </c>
       <c r="E21" t="n">
-        <v>359.7637457263872</v>
+        <v>349.2108824768026</v>
       </c>
       <c r="F21" t="n">
-        <v>250.8038659088918</v>
+        <v>240.2510026593071</v>
       </c>
       <c r="G21" t="n">
-        <v>143.8137532232305</v>
+        <v>133.2608899736458</v>
       </c>
       <c r="H21" t="n">
-        <v>73.06654025894656</v>
+        <v>62.51367700936186</v>
       </c>
       <c r="I21" t="n">
-        <v>52.31794887918674</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J21" t="n">
-        <v>52.31794887918674</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K21" t="n">
-        <v>508.1242051444855</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L21" t="n">
-        <v>803.9379099698149</v>
+        <v>690.384199457534</v>
       </c>
       <c r="M21" t="n">
-        <v>1451.372527349751</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="N21" t="n">
-        <v>2098.807144729687</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="O21" t="n">
-        <v>2098.807144729687</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="P21" t="n">
-        <v>2098.807144729687</v>
+        <v>1724.070068790184</v>
       </c>
       <c r="Q21" t="n">
-        <v>2098.807144729687</v>
+        <v>2073.914533474168</v>
       </c>
       <c r="R21" t="n">
-        <v>2098.807144729687</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="S21" t="n">
-        <v>1990.817134843996</v>
+        <v>1980.264271594411</v>
       </c>
       <c r="T21" t="n">
-        <v>1831.475271031004</v>
+        <v>1820.922407781419</v>
       </c>
       <c r="U21" t="n">
-        <v>1634.124460169222</v>
+        <v>1623.571596919638</v>
       </c>
       <c r="V21" t="n">
-        <v>1420.412933162256</v>
+        <v>1409.860069912671</v>
       </c>
       <c r="W21" t="n">
-        <v>1207.179764898585</v>
+        <v>1196.626901649</v>
       </c>
       <c r="X21" t="n">
-        <v>1030.853783037478</v>
+        <v>1020.300919787893</v>
       </c>
       <c r="Y21" t="n">
-        <v>871.4518234013077</v>
+        <v>860.8989601517231</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1141.651799180323</v>
+        <v>1131.098935930739</v>
       </c>
       <c r="C22" t="n">
-        <v>970.5584267420397</v>
+        <v>960.0055634924552</v>
       </c>
       <c r="D22" t="n">
-        <v>811.0637820649497</v>
+        <v>800.5109188153651</v>
       </c>
       <c r="E22" t="n">
-        <v>650.1529669332692</v>
+        <v>639.6001036836846</v>
       </c>
       <c r="F22" t="n">
-        <v>485.5218410438605</v>
+        <v>474.9689777942758</v>
       </c>
       <c r="G22" t="n">
-        <v>318.2714499694039</v>
+        <v>307.7185867198192</v>
       </c>
       <c r="H22" t="n">
-        <v>168.6639947748606</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="I22" t="n">
-        <v>52.31794887918674</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J22" t="n">
-        <v>66.40049828439726</v>
+        <v>55.84763503481255</v>
       </c>
       <c r="K22" t="n">
-        <v>220.9528260066352</v>
+        <v>210.3999627570505</v>
       </c>
       <c r="L22" t="n">
-        <v>480.8499262866958</v>
+        <v>470.2970630371111</v>
       </c>
       <c r="M22" t="n">
-        <v>770.1139827271891</v>
+        <v>759.5611194776044</v>
       </c>
       <c r="N22" t="n">
-        <v>1050.952765121439</v>
+        <v>1040.399901871855</v>
       </c>
       <c r="O22" t="n">
-        <v>1310.513375447913</v>
+        <v>1299.960512198329</v>
       </c>
       <c r="P22" t="n">
-        <v>1516.188815697526</v>
+        <v>1505.635952447941</v>
       </c>
       <c r="Q22" t="n">
-        <v>1581.716845500037</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="R22" t="n">
-        <v>1581.716845500037</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="S22" t="n">
-        <v>1581.716845500037</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="T22" t="n">
-        <v>1581.716845500037</v>
+        <v>1246.342524902554</v>
       </c>
       <c r="U22" t="n">
-        <v>1581.716845500037</v>
+        <v>1246.342524902554</v>
       </c>
       <c r="V22" t="n">
-        <v>1581.716845500037</v>
+        <v>1246.342524902554</v>
       </c>
       <c r="W22" t="n">
-        <v>1581.716845500037</v>
+        <v>1246.342524902554</v>
       </c>
       <c r="X22" t="n">
-        <v>1554.087204185603</v>
+        <v>1246.342524902554</v>
       </c>
       <c r="Y22" t="n">
-        <v>1329.351505574368</v>
+        <v>1246.342524902554</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2142.217603489457</v>
+        <v>902.9139097323131</v>
       </c>
       <c r="C23" t="n">
-        <v>1732.093012802727</v>
+        <v>902.9139097323131</v>
       </c>
       <c r="D23" t="n">
-        <v>1327.629082895788</v>
+        <v>902.9139097323131</v>
       </c>
       <c r="E23" t="n">
-        <v>913.2888674126843</v>
+        <v>488.5736942492098</v>
       </c>
       <c r="F23" t="n">
-        <v>492.2584553663719</v>
+        <v>67.54328220289733</v>
       </c>
       <c r="G23" t="n">
-        <v>83.5301712592041</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="H23" t="n">
-        <v>83.5301712592041</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="I23" t="n">
-        <v>83.5301712592041</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J23" t="n">
-        <v>83.5301712592041</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="K23" t="n">
-        <v>621.6896723682436</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="L23" t="n">
-        <v>1334.281072180482</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="M23" t="n">
-        <v>2110.599663172236</v>
+        <v>558.6080202959272</v>
       </c>
       <c r="N23" t="n">
-        <v>2863.780679810854</v>
+        <v>692.8507596625946</v>
       </c>
       <c r="O23" t="n">
-        <v>3507.411536227959</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="P23" t="n">
-        <v>4036.56823414711</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="Q23" t="n">
-        <v>4176.508562960204</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="R23" t="n">
-        <v>4176.508562960204</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="S23" t="n">
-        <v>4176.508562960204</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="T23" t="n">
-        <v>3954.302078907063</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="U23" t="n">
-        <v>3737.779154901735</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="V23" t="n">
-        <v>3737.779154901735</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="W23" t="n">
-        <v>3354.018854036904</v>
+        <v>1704.49398061527</v>
       </c>
       <c r="X23" t="n">
-        <v>2953.375456205856</v>
+        <v>1303.850582784223</v>
       </c>
       <c r="Y23" t="n">
-        <v>2552.438783153946</v>
+        <v>902.9139097323131</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>762.3610131457385</v>
+        <v>720.5959275161365</v>
       </c>
       <c r="C24" t="n">
-        <v>628.3659418946842</v>
+        <v>586.6008562650821</v>
       </c>
       <c r="D24" t="n">
-        <v>511.4687841140766</v>
+        <v>469.7036984844746</v>
       </c>
       <c r="E24" t="n">
-        <v>390.9759681064046</v>
+        <v>349.2108824768026</v>
       </c>
       <c r="F24" t="n">
-        <v>282.0160882889091</v>
+        <v>240.2510026593071</v>
       </c>
       <c r="G24" t="n">
-        <v>175.0259756032479</v>
+        <v>133.2608899736458</v>
       </c>
       <c r="H24" t="n">
-        <v>104.2787626389639</v>
+        <v>62.51367700936186</v>
       </c>
       <c r="I24" t="n">
-        <v>83.5301712592041</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J24" t="n">
-        <v>276.3430288218373</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="K24" t="n">
-        <v>732.149285087136</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="L24" t="n">
-        <v>1393.237457006424</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="M24" t="n">
-        <v>1393.237457006424</v>
+        <v>558.6080202959272</v>
       </c>
       <c r="N24" t="n">
-        <v>1393.237457006424</v>
+        <v>1075.450954962252</v>
       </c>
       <c r="O24" t="n">
-        <v>1393.237457006424</v>
+        <v>1592.293889628578</v>
       </c>
       <c r="P24" t="n">
-        <v>1780.174902425721</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q24" t="n">
-        <v>2130.019367109704</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R24" t="n">
-        <v>2130.019367109704</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="S24" t="n">
-        <v>2022.029357224013</v>
+        <v>1980.264271594411</v>
       </c>
       <c r="T24" t="n">
-        <v>1862.687493411021</v>
+        <v>1820.922407781419</v>
       </c>
       <c r="U24" t="n">
-        <v>1665.33668254924</v>
+        <v>1623.571596919638</v>
       </c>
       <c r="V24" t="n">
-        <v>1451.625155542274</v>
+        <v>1409.860069912671</v>
       </c>
       <c r="W24" t="n">
-        <v>1238.391987278602</v>
+        <v>1196.626901649</v>
       </c>
       <c r="X24" t="n">
-        <v>1062.066005417495</v>
+        <v>1020.300919787893</v>
       </c>
       <c r="Y24" t="n">
-        <v>902.6640457813252</v>
+        <v>860.8989601517231</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>681.8752593603509</v>
+        <v>972.3368091250823</v>
       </c>
       <c r="C25" t="n">
-        <v>681.8752593603509</v>
+        <v>801.2434366867988</v>
       </c>
       <c r="D25" t="n">
-        <v>522.380614683261</v>
+        <v>641.7487920097087</v>
       </c>
       <c r="E25" t="n">
-        <v>361.4697995515805</v>
+        <v>480.8379768780282</v>
       </c>
       <c r="F25" t="n">
-        <v>361.4697995515805</v>
+        <v>316.2068509886195</v>
       </c>
       <c r="G25" t="n">
-        <v>233.1376264537474</v>
+        <v>148.9564599141629</v>
       </c>
       <c r="H25" t="n">
-        <v>83.5301712592041</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="I25" t="n">
-        <v>83.5301712592041</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J25" t="n">
-        <v>97.61272066441461</v>
+        <v>55.84763503481255</v>
       </c>
       <c r="K25" t="n">
-        <v>252.1650483866526</v>
+        <v>210.3999627570505</v>
       </c>
       <c r="L25" t="n">
-        <v>512.0621486667131</v>
+        <v>470.2970630371111</v>
       </c>
       <c r="M25" t="n">
-        <v>801.3262051072064</v>
+        <v>759.5611194776044</v>
       </c>
       <c r="N25" t="n">
-        <v>1082.164987501457</v>
+        <v>1040.399901871855</v>
       </c>
       <c r="O25" t="n">
-        <v>1341.725597827931</v>
+        <v>1299.960512198329</v>
       </c>
       <c r="P25" t="n">
-        <v>1547.401038077543</v>
+        <v>1505.635952447941</v>
       </c>
       <c r="Q25" t="n">
-        <v>1612.929067880054</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="R25" t="n">
-        <v>1612.929067880054</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S25" t="n">
-        <v>1612.929067880054</v>
+        <v>1384.772214130362</v>
       </c>
       <c r="T25" t="n">
-        <v>1373.380328856756</v>
+        <v>1384.772214130362</v>
       </c>
       <c r="U25" t="n">
-        <v>1373.380328856756</v>
+        <v>1384.772214130362</v>
       </c>
       <c r="V25" t="n">
-        <v>1373.380328856756</v>
+        <v>1384.772214130362</v>
       </c>
       <c r="W25" t="n">
-        <v>1094.310664365631</v>
+        <v>1384.772214130362</v>
       </c>
       <c r="X25" t="n">
-        <v>1094.310664365631</v>
+        <v>1384.772214130362</v>
       </c>
       <c r="Y25" t="n">
-        <v>869.5749657543953</v>
+        <v>1160.036515519127</v>
       </c>
     </row>
     <row r="26">
@@ -6200,46 +6202,46 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1687.317608428192</v>
+        <v>856.3536062232714</v>
       </c>
       <c r="C26" t="n">
-        <v>1687.317608428192</v>
+        <v>446.2290155365415</v>
       </c>
       <c r="D26" t="n">
-        <v>1282.853678521253</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="E26" t="n">
-        <v>868.5134630381494</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="F26" t="n">
-        <v>447.483050991837</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="G26" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="H26" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="I26" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J26" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="K26" t="n">
-        <v>558.6080202959273</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="L26" t="n">
-        <v>558.6080202959273</v>
+        <v>558.6080202959272</v>
       </c>
       <c r="M26" t="n">
-        <v>558.6080202959273</v>
+        <v>1075.450954962252</v>
       </c>
       <c r="N26" t="n">
-        <v>1075.450954962253</v>
+        <v>1592.293889628578</v>
       </c>
       <c r="O26" t="n">
-        <v>1592.293889628578</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="P26" t="n">
         <v>2047.697635790537</v>
@@ -6257,19 +6259,19 @@
         <v>2088.254281480102</v>
       </c>
       <c r="U26" t="n">
-        <v>2088.254281480102</v>
+        <v>1831.193789739612</v>
       </c>
       <c r="V26" t="n">
-        <v>2088.254281480102</v>
+        <v>1831.193789739612</v>
       </c>
       <c r="W26" t="n">
-        <v>2088.254281480102</v>
+        <v>1447.433488874781</v>
       </c>
       <c r="X26" t="n">
-        <v>2088.254281480102</v>
+        <v>1447.433488874781</v>
       </c>
       <c r="Y26" t="n">
-        <v>1687.317608428192</v>
+        <v>1266.574785887761</v>
       </c>
     </row>
     <row r="27">
@@ -6300,31 +6302,31 @@
         <v>62.51367700936187</v>
       </c>
       <c r="I27" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J27" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="K27" t="n">
-        <v>41.76508562960205</v>
+        <v>497.5713418949007</v>
       </c>
       <c r="L27" t="n">
-        <v>537.7254774811262</v>
+        <v>1014.414276561226</v>
       </c>
       <c r="M27" t="n">
-        <v>1054.568412147451</v>
+        <v>1014.414276561226</v>
       </c>
       <c r="N27" t="n">
-        <v>1571.411346813777</v>
+        <v>1014.414276561226</v>
       </c>
       <c r="O27" t="n">
-        <v>2088.254281480102</v>
+        <v>1192.007362767163</v>
       </c>
       <c r="P27" t="n">
-        <v>2088.254281480102</v>
+        <v>1708.850297433488</v>
       </c>
       <c r="Q27" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R27" t="n">
         <v>2088.254281480102</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>605.7731676935686</v>
+        <v>1648.189235160388</v>
       </c>
       <c r="C28" t="n">
-        <v>434.6797952552851</v>
+        <v>1477.095862722104</v>
       </c>
       <c r="D28" t="n">
-        <v>275.1851505781951</v>
+        <v>1317.601218045014</v>
       </c>
       <c r="E28" t="n">
-        <v>275.1851505781951</v>
+        <v>1156.690402913334</v>
       </c>
       <c r="F28" t="n">
-        <v>110.5540246887863</v>
+        <v>992.0592770239252</v>
       </c>
       <c r="G28" t="n">
-        <v>110.5540246887863</v>
+        <v>824.8088859494686</v>
       </c>
       <c r="H28" t="n">
-        <v>41.76508562960205</v>
+        <v>675.2014307549252</v>
       </c>
       <c r="I28" t="n">
-        <v>41.76508562960205</v>
+        <v>558.8553848592514</v>
       </c>
       <c r="J28" t="n">
-        <v>55.84763503481257</v>
+        <v>572.937934264462</v>
       </c>
       <c r="K28" t="n">
-        <v>210.3999627570506</v>
+        <v>727.4902619867</v>
       </c>
       <c r="L28" t="n">
-        <v>470.2970630371111</v>
+        <v>987.3873622667606</v>
       </c>
       <c r="M28" t="n">
-        <v>759.5611194776044</v>
+        <v>1276.651418707254</v>
       </c>
       <c r="N28" t="n">
-        <v>1040.399901871855</v>
+        <v>1557.490201101504</v>
       </c>
       <c r="O28" t="n">
-        <v>1299.960512198329</v>
+        <v>1817.050811427978</v>
       </c>
       <c r="P28" t="n">
-        <v>1505.635952447941</v>
+        <v>2022.726251677591</v>
       </c>
       <c r="Q28" t="n">
-        <v>1571.163982250452</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R28" t="n">
-        <v>1571.163982250452</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="S28" t="n">
-        <v>1571.163982250452</v>
+        <v>1901.862513360012</v>
       </c>
       <c r="T28" t="n">
-        <v>1571.163982250452</v>
+        <v>1901.862513360012</v>
       </c>
       <c r="U28" t="n">
-        <v>1571.163982250452</v>
+        <v>1901.862513360012</v>
       </c>
       <c r="V28" t="n">
-        <v>1297.278237189974</v>
+        <v>1901.862513360012</v>
       </c>
       <c r="W28" t="n">
-        <v>1018.208572698848</v>
+        <v>1901.862513360012</v>
       </c>
       <c r="X28" t="n">
-        <v>1018.208572698848</v>
+        <v>1901.862513360012</v>
       </c>
       <c r="Y28" t="n">
-        <v>793.4728740876129</v>
+        <v>1835.888941554432</v>
       </c>
     </row>
     <row r="29">
@@ -6437,52 +6439,52 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1294.272800950781</v>
+        <v>876.4530309326549</v>
       </c>
       <c r="C29" t="n">
-        <v>884.1482102640515</v>
+        <v>466.328440245925</v>
       </c>
       <c r="D29" t="n">
-        <v>884.1482102640515</v>
+        <v>61.8645103389855</v>
       </c>
       <c r="E29" t="n">
-        <v>469.8079947809482</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="F29" t="n">
-        <v>48.77758273463576</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="G29" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="H29" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="I29" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J29" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="K29" t="n">
-        <v>216.5644706858345</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="L29" t="n">
-        <v>733.4074053521598</v>
+        <v>558.6080202959272</v>
       </c>
       <c r="M29" t="n">
-        <v>733.4074053521598</v>
+        <v>1075.450954962252</v>
       </c>
       <c r="N29" t="n">
-        <v>733.4074053521598</v>
+        <v>1592.293889628578</v>
       </c>
       <c r="O29" t="n">
-        <v>1250.250340018485</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="P29" t="n">
-        <v>1767.09327468481</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="Q29" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="R29" t="n">
         <v>2088.254281480102</v>
@@ -6500,13 +6502,13 @@
         <v>2088.254281480102</v>
       </c>
       <c r="W29" t="n">
-        <v>1704.493980615271</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="X29" t="n">
-        <v>1704.493980615271</v>
+        <v>1687.610883649054</v>
       </c>
       <c r="Y29" t="n">
-        <v>1704.493980615271</v>
+        <v>1286.674210597144</v>
       </c>
     </row>
     <row r="30">
@@ -6534,28 +6536,28 @@
         <v>133.2608899736458</v>
       </c>
       <c r="H30" t="n">
-        <v>62.51367700936187</v>
+        <v>62.51367700936186</v>
       </c>
       <c r="I30" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J30" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="K30" t="n">
-        <v>497.5713418949007</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="L30" t="n">
-        <v>1014.414276561226</v>
+        <v>558.6080202959272</v>
       </c>
       <c r="M30" t="n">
-        <v>1014.414276561226</v>
+        <v>558.6080202959272</v>
       </c>
       <c r="N30" t="n">
-        <v>1054.568412147451</v>
+        <v>1075.450954962252</v>
       </c>
       <c r="O30" t="n">
-        <v>1571.411346813777</v>
+        <v>1592.293889628578</v>
       </c>
       <c r="P30" t="n">
         <v>2088.254281480102</v>
@@ -6595,34 +6597,34 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>588.5395825927103</v>
+        <v>862.4253276531883</v>
       </c>
       <c r="C31" t="n">
-        <v>588.5395825927103</v>
+        <v>862.4253276531883</v>
       </c>
       <c r="D31" t="n">
-        <v>588.5395825927103</v>
+        <v>800.5109188153651</v>
       </c>
       <c r="E31" t="n">
-        <v>427.6287674610298</v>
+        <v>639.6001036836846</v>
       </c>
       <c r="F31" t="n">
-        <v>262.997641571621</v>
+        <v>474.9689777942758</v>
       </c>
       <c r="G31" t="n">
-        <v>191.3725408241454</v>
+        <v>307.7185867198192</v>
       </c>
       <c r="H31" t="n">
-        <v>41.76508562960205</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="I31" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J31" t="n">
-        <v>55.84763503481257</v>
+        <v>55.84763503481255</v>
       </c>
       <c r="K31" t="n">
-        <v>210.3999627570506</v>
+        <v>210.3999627570505</v>
       </c>
       <c r="L31" t="n">
         <v>470.2970630371111</v>
@@ -6655,16 +6657,16 @@
         <v>862.4253276531883</v>
       </c>
       <c r="V31" t="n">
-        <v>588.5395825927103</v>
+        <v>862.4253276531883</v>
       </c>
       <c r="W31" t="n">
-        <v>588.5395825927103</v>
+        <v>862.4253276531883</v>
       </c>
       <c r="X31" t="n">
-        <v>588.5395825927103</v>
+        <v>862.4253276531883</v>
       </c>
       <c r="Y31" t="n">
-        <v>588.5395825927103</v>
+        <v>862.4253276531883</v>
       </c>
     </row>
     <row r="32">
@@ -6674,52 +6676,52 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1270.693821706375</v>
+        <v>1691.724233752687</v>
       </c>
       <c r="C32" t="n">
-        <v>860.5692310196448</v>
+        <v>1281.599643065957</v>
       </c>
       <c r="D32" t="n">
-        <v>456.1053011127053</v>
+        <v>877.1357131590178</v>
       </c>
       <c r="E32" t="n">
-        <v>41.76508562960205</v>
+        <v>462.7954976759145</v>
       </c>
       <c r="F32" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="G32" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="H32" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="I32" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J32" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="K32" t="n">
-        <v>216.5644706858345</v>
+        <v>497.1688317915614</v>
       </c>
       <c r="L32" t="n">
-        <v>733.4074053521598</v>
+        <v>497.1688317915614</v>
       </c>
       <c r="M32" t="n">
-        <v>733.4074053521598</v>
+        <v>1014.011766457887</v>
       </c>
       <c r="N32" t="n">
-        <v>733.4074053521598</v>
+        <v>1014.011766457887</v>
       </c>
       <c r="O32" t="n">
-        <v>1250.250340018485</v>
+        <v>1530.854701124212</v>
       </c>
       <c r="P32" t="n">
-        <v>1767.09327468481</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="Q32" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="R32" t="n">
         <v>2088.254281480102</v>
@@ -6740,10 +6742,10 @@
         <v>2088.254281480102</v>
       </c>
       <c r="X32" t="n">
-        <v>2081.851674422774</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Y32" t="n">
-        <v>1680.915001370864</v>
+        <v>2088.254281480102</v>
       </c>
     </row>
     <row r="33">
@@ -6771,28 +6773,28 @@
         <v>133.2608899736458</v>
       </c>
       <c r="H33" t="n">
-        <v>62.51367700936187</v>
+        <v>62.51367700936186</v>
       </c>
       <c r="I33" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J33" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="K33" t="n">
-        <v>497.5713418949007</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="L33" t="n">
-        <v>1014.414276561226</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="M33" t="n">
-        <v>1014.414276561226</v>
+        <v>558.6080202959272</v>
       </c>
       <c r="N33" t="n">
-        <v>1054.568412147451</v>
+        <v>1075.450954962252</v>
       </c>
       <c r="O33" t="n">
-        <v>1571.411346813777</v>
+        <v>1592.293889628578</v>
       </c>
       <c r="P33" t="n">
         <v>2088.254281480102</v>
@@ -6832,34 +6834,34 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>684.1648729196913</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="C34" t="n">
-        <v>684.1648729196913</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="D34" t="n">
-        <v>684.1648729196913</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="E34" t="n">
-        <v>523.2540577880108</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="F34" t="n">
-        <v>358.622931898602</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="G34" t="n">
-        <v>191.3725408241454</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="H34" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="I34" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J34" t="n">
-        <v>55.84763503481257</v>
+        <v>55.84763503481255</v>
       </c>
       <c r="K34" t="n">
-        <v>210.3999627570506</v>
+        <v>210.3999627570505</v>
       </c>
       <c r="L34" t="n">
         <v>470.2970630371111</v>
@@ -6880,28 +6882,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R34" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S34" t="n">
-        <v>1299.499495805762</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T34" t="n">
-        <v>1299.499495805762</v>
+        <v>1340.598203386633</v>
       </c>
       <c r="U34" t="n">
-        <v>1299.499495805762</v>
+        <v>1057.800055932758</v>
       </c>
       <c r="V34" t="n">
-        <v>1299.499495805762</v>
+        <v>783.9143108722797</v>
       </c>
       <c r="W34" t="n">
-        <v>1020.429831314636</v>
+        <v>504.844646381154</v>
       </c>
       <c r="X34" t="n">
-        <v>782.0859691743196</v>
+        <v>266.5007842408373</v>
       </c>
       <c r="Y34" t="n">
-        <v>684.1648729196913</v>
+        <v>41.76508562960203</v>
       </c>
     </row>
     <row r="35">
@@ -6911,52 +6913,52 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>462.7954976759145</v>
+        <v>1287.260303845748</v>
       </c>
       <c r="C35" t="n">
-        <v>462.7954976759145</v>
+        <v>877.1357131590178</v>
       </c>
       <c r="D35" t="n">
-        <v>462.7954976759145</v>
+        <v>877.1357131590178</v>
       </c>
       <c r="E35" t="n">
         <v>462.7954976759145</v>
       </c>
       <c r="F35" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="G35" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="H35" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="I35" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J35" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="K35" t="n">
-        <v>558.6080202959273</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="L35" t="n">
-        <v>558.6080202959273</v>
+        <v>497.1688317915614</v>
       </c>
       <c r="M35" t="n">
-        <v>558.6080202959273</v>
+        <v>1014.011766457887</v>
       </c>
       <c r="N35" t="n">
-        <v>1075.450954962253</v>
+        <v>1530.854701124212</v>
       </c>
       <c r="O35" t="n">
-        <v>1592.293889628578</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="P35" t="n">
-        <v>1767.09327468481</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="Q35" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="R35" t="n">
         <v>2088.254281480102</v>
@@ -6971,16 +6973,16 @@
         <v>2088.254281480102</v>
       </c>
       <c r="V35" t="n">
-        <v>1738.416726816583</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="W35" t="n">
-        <v>1354.656425951752</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="X35" t="n">
-        <v>954.0130281207041</v>
+        <v>1697.481483510237</v>
       </c>
       <c r="Y35" t="n">
-        <v>553.0763550687942</v>
+        <v>1697.481483510237</v>
       </c>
     </row>
     <row r="36">
@@ -7008,31 +7010,31 @@
         <v>133.2608899736458</v>
       </c>
       <c r="H36" t="n">
-        <v>62.51367700936187</v>
+        <v>62.51367700936186</v>
       </c>
       <c r="I36" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J36" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="K36" t="n">
-        <v>497.5713418949007</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="L36" t="n">
-        <v>1014.414276561226</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="M36" t="n">
-        <v>1531.257211227551</v>
+        <v>558.6080202959272</v>
       </c>
       <c r="N36" t="n">
-        <v>1531.257211227551</v>
+        <v>1075.450954962252</v>
       </c>
       <c r="O36" t="n">
-        <v>1531.257211227551</v>
+        <v>1592.293889628578</v>
       </c>
       <c r="P36" t="n">
-        <v>1738.409816796118</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q36" t="n">
         <v>2088.254281480102</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1648.189235160388</v>
+        <v>367.429305553252</v>
       </c>
       <c r="C37" t="n">
-        <v>1477.095862722105</v>
+        <v>196.3359331149685</v>
       </c>
       <c r="D37" t="n">
-        <v>1317.601218045015</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="E37" t="n">
-        <v>1156.690402913334</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="F37" t="n">
-        <v>992.0592770239257</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="G37" t="n">
-        <v>824.8088859494691</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="H37" t="n">
-        <v>675.2014307549257</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="I37" t="n">
-        <v>558.8553848592519</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J37" t="n">
-        <v>572.9379342644625</v>
+        <v>55.84763503481255</v>
       </c>
       <c r="K37" t="n">
-        <v>727.4902619867005</v>
+        <v>210.3999627570505</v>
       </c>
       <c r="L37" t="n">
-        <v>987.3873622667611</v>
+        <v>470.2970630371111</v>
       </c>
       <c r="M37" t="n">
-        <v>1276.651418707254</v>
+        <v>759.5611194776044</v>
       </c>
       <c r="N37" t="n">
-        <v>1557.490201101505</v>
+        <v>1040.399901871855</v>
       </c>
       <c r="O37" t="n">
-        <v>1817.050811427979</v>
+        <v>1299.960512198329</v>
       </c>
       <c r="P37" t="n">
-        <v>2022.726251677591</v>
+        <v>1505.635952447941</v>
       </c>
       <c r="Q37" t="n">
-        <v>2088.254281480102</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="R37" t="n">
-        <v>2060.624640165668</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S37" t="n">
-        <v>2060.624640165668</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T37" t="n">
-        <v>2060.624640165668</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="U37" t="n">
-        <v>2060.624640165668</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="V37" t="n">
-        <v>2060.624640165668</v>
+        <v>1297.278237189974</v>
       </c>
       <c r="W37" t="n">
-        <v>2060.624640165668</v>
+        <v>1018.208572698848</v>
       </c>
       <c r="X37" t="n">
-        <v>2060.624640165668</v>
+        <v>779.8647105585317</v>
       </c>
       <c r="Y37" t="n">
-        <v>1835.888941554433</v>
+        <v>555.1290119472964</v>
       </c>
     </row>
     <row r="38">
@@ -7148,43 +7150,43 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1691.724233752687</v>
+        <v>1286.674210597144</v>
       </c>
       <c r="C38" t="n">
-        <v>1281.599643065957</v>
+        <v>876.5496199104144</v>
       </c>
       <c r="D38" t="n">
-        <v>877.1357131590178</v>
+        <v>472.085690003475</v>
       </c>
       <c r="E38" t="n">
-        <v>462.7954976759145</v>
+        <v>472.085690003475</v>
       </c>
       <c r="F38" t="n">
-        <v>41.76508562960205</v>
+        <v>472.085690003475</v>
       </c>
       <c r="G38" t="n">
-        <v>41.76508562960205</v>
+        <v>63.35740589630711</v>
       </c>
       <c r="H38" t="n">
-        <v>41.76508562960205</v>
+        <v>63.35740589630711</v>
       </c>
       <c r="I38" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J38" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="K38" t="n">
-        <v>216.5644706858345</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="L38" t="n">
-        <v>733.4074053521598</v>
+        <v>216.5644706858343</v>
       </c>
       <c r="M38" t="n">
-        <v>733.4074053521598</v>
+        <v>733.4074053521595</v>
       </c>
       <c r="N38" t="n">
-        <v>733.4074053521598</v>
+        <v>733.4074053521595</v>
       </c>
       <c r="O38" t="n">
         <v>1250.250340018485</v>
@@ -7214,10 +7216,10 @@
         <v>2088.254281480102</v>
       </c>
       <c r="X38" t="n">
-        <v>2088.254281480102</v>
+        <v>1687.610883649054</v>
       </c>
       <c r="Y38" t="n">
-        <v>2088.254281480102</v>
+        <v>1286.674210597144</v>
       </c>
     </row>
     <row r="39">
@@ -7227,46 +7229,46 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>720.5959275161366</v>
+        <v>720.5959275161365</v>
       </c>
       <c r="C39" t="n">
-        <v>586.6008562650824</v>
+        <v>586.6008562650821</v>
       </c>
       <c r="D39" t="n">
-        <v>469.7036984844747</v>
+        <v>469.7036984844746</v>
       </c>
       <c r="E39" t="n">
-        <v>349.2108824768027</v>
+        <v>349.2108824768026</v>
       </c>
       <c r="F39" t="n">
-        <v>240.2510026593072</v>
+        <v>240.2510026593071</v>
       </c>
       <c r="G39" t="n">
-        <v>133.260889973646</v>
+        <v>133.2608899736458</v>
       </c>
       <c r="H39" t="n">
-        <v>62.51367700936203</v>
+        <v>62.51367700936186</v>
       </c>
       <c r="I39" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J39" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="K39" t="n">
-        <v>41.76508562960205</v>
+        <v>497.5713418949007</v>
       </c>
       <c r="L39" t="n">
-        <v>537.7254774811266</v>
+        <v>1014.414276561226</v>
       </c>
       <c r="M39" t="n">
-        <v>537.7254774811266</v>
+        <v>1531.257211227551</v>
       </c>
       <c r="N39" t="n">
-        <v>1054.568412147452</v>
+        <v>2048.100145893876</v>
       </c>
       <c r="O39" t="n">
-        <v>1571.411346813777</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="P39" t="n">
         <v>2088.254281480102</v>
@@ -7287,16 +7289,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V39" t="n">
-        <v>1409.860069912672</v>
+        <v>1409.860069912671</v>
       </c>
       <c r="W39" t="n">
-        <v>1196.626901649001</v>
+        <v>1196.626901649</v>
       </c>
       <c r="X39" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y39" t="n">
-        <v>860.8989601517233</v>
+        <v>860.8989601517231</v>
       </c>
     </row>
     <row r="40">
@@ -7306,34 +7308,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>632.9938679062695</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="C40" t="n">
-        <v>632.9938679062695</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="D40" t="n">
-        <v>632.9938679062695</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="E40" t="n">
-        <v>632.9938679062695</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="F40" t="n">
-        <v>474.9689777942758</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="G40" t="n">
-        <v>307.7185867198193</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="H40" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="I40" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J40" t="n">
-        <v>55.84763503481257</v>
+        <v>55.84763503481255</v>
       </c>
       <c r="K40" t="n">
-        <v>210.3999627570506</v>
+        <v>210.3999627570505</v>
       </c>
       <c r="L40" t="n">
         <v>470.2970630371111</v>
@@ -7354,28 +7356,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R40" t="n">
-        <v>1571.163982250452</v>
+        <v>1541.803011918786</v>
       </c>
       <c r="S40" t="n">
-        <v>1384.772214130362</v>
+        <v>1355.411243798696</v>
       </c>
       <c r="T40" t="n">
-        <v>1145.223475107064</v>
+        <v>1115.862504775398</v>
       </c>
       <c r="U40" t="n">
-        <v>1145.223475107064</v>
+        <v>833.0643573215223</v>
       </c>
       <c r="V40" t="n">
-        <v>871.3377300465861</v>
+        <v>559.1786122610442</v>
       </c>
       <c r="W40" t="n">
-        <v>871.3377300465861</v>
+        <v>280.1089477699186</v>
       </c>
       <c r="X40" t="n">
-        <v>632.9938679062695</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="Y40" t="n">
-        <v>632.9938679062695</v>
+        <v>41.76508562960203</v>
       </c>
     </row>
     <row r="41">
@@ -7385,43 +7387,43 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1277.096428763703</v>
+        <v>553.0763550687938</v>
       </c>
       <c r="C41" t="n">
-        <v>866.9718380769729</v>
+        <v>553.0763550687938</v>
       </c>
       <c r="D41" t="n">
-        <v>462.5079081700334</v>
+        <v>553.0763550687938</v>
       </c>
       <c r="E41" t="n">
-        <v>48.16769268693008</v>
+        <v>553.0763550687938</v>
       </c>
       <c r="F41" t="n">
-        <v>41.76508562960205</v>
+        <v>553.0763550687938</v>
       </c>
       <c r="G41" t="n">
-        <v>41.76508562960205</v>
+        <v>439.0253456848109</v>
       </c>
       <c r="H41" t="n">
-        <v>41.76508562960205</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="I41" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J41" t="n">
-        <v>295.9505570973564</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="K41" t="n">
-        <v>812.7934917636817</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="L41" t="n">
-        <v>1209.69369432892</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="M41" t="n">
-        <v>1209.69369432892</v>
+        <v>176.0078249962694</v>
       </c>
       <c r="N41" t="n">
-        <v>1209.69369432892</v>
+        <v>692.8507596625946</v>
       </c>
       <c r="O41" t="n">
         <v>1209.69369432892</v>
@@ -7445,16 +7447,16 @@
         <v>2088.254281480102</v>
       </c>
       <c r="V41" t="n">
-        <v>2088.254281480102</v>
+        <v>1738.416726816582</v>
       </c>
       <c r="W41" t="n">
-        <v>2088.254281480102</v>
+        <v>1354.656425951751</v>
       </c>
       <c r="X41" t="n">
-        <v>2088.254281480102</v>
+        <v>954.0130281207037</v>
       </c>
       <c r="Y41" t="n">
-        <v>1687.317608428192</v>
+        <v>553.0763550687938</v>
       </c>
     </row>
     <row r="42">
@@ -7485,28 +7487,28 @@
         <v>62.51367700936187</v>
       </c>
       <c r="I42" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960204</v>
       </c>
       <c r="J42" t="n">
         <v>234.5779431922353</v>
       </c>
       <c r="K42" t="n">
-        <v>690.384199457534</v>
+        <v>537.7254774811263</v>
       </c>
       <c r="L42" t="n">
-        <v>704.7239474634679</v>
+        <v>537.7254774811263</v>
       </c>
       <c r="M42" t="n">
-        <v>1221.566882129793</v>
+        <v>1054.568412147451</v>
       </c>
       <c r="N42" t="n">
-        <v>1738.409816796118</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="O42" t="n">
-        <v>1738.409816796118</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="P42" t="n">
-        <v>1738.409816796118</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q42" t="n">
         <v>2088.254281480102</v>
@@ -7543,34 +7545,34 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>639.6001036836846</v>
+        <v>201.259730306692</v>
       </c>
       <c r="C43" t="n">
-        <v>639.6001036836846</v>
+        <v>201.259730306692</v>
       </c>
       <c r="D43" t="n">
-        <v>639.6001036836846</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="E43" t="n">
-        <v>639.6001036836846</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="F43" t="n">
-        <v>474.9689777942758</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="G43" t="n">
-        <v>307.7185867198193</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="H43" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="I43" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J43" t="n">
-        <v>55.84763503481257</v>
+        <v>55.84763503481255</v>
       </c>
       <c r="K43" t="n">
-        <v>210.3999627570506</v>
+        <v>210.3999627570505</v>
       </c>
       <c r="L43" t="n">
         <v>470.2970630371111</v>
@@ -7594,25 +7596,25 @@
         <v>1571.163982250452</v>
       </c>
       <c r="S43" t="n">
-        <v>1384.772214130362</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T43" t="n">
-        <v>1145.223475107064</v>
+        <v>1500.092848063724</v>
       </c>
       <c r="U43" t="n">
-        <v>862.4253276531883</v>
+        <v>1217.294700609848</v>
       </c>
       <c r="V43" t="n">
-        <v>862.4253276531883</v>
+        <v>943.4089555493696</v>
       </c>
       <c r="W43" t="n">
-        <v>862.4253276531883</v>
+        <v>664.3392910582439</v>
       </c>
       <c r="X43" t="n">
-        <v>862.4253276531883</v>
+        <v>425.9954289179273</v>
       </c>
       <c r="Y43" t="n">
-        <v>827.2998100777289</v>
+        <v>201.259730306692</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1213.49337313825</v>
+        <v>339.4649771211734</v>
       </c>
       <c r="C44" t="n">
-        <v>819.3996562188394</v>
+        <v>339.4649771211734</v>
       </c>
       <c r="D44" t="n">
-        <v>425.3059392994284</v>
+        <v>339.4649771211734</v>
       </c>
       <c r="E44" t="n">
-        <v>31.21222238001735</v>
+        <v>339.4649771211734</v>
       </c>
       <c r="F44" t="n">
-        <v>31.21222238001735</v>
+        <v>339.4649771211734</v>
       </c>
       <c r="G44" t="n">
-        <v>31.21222238001735</v>
+        <v>339.4649771211734</v>
       </c>
       <c r="H44" t="n">
-        <v>31.21222238001735</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="I44" t="n">
-        <v>31.21222238001735</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J44" t="n">
-        <v>31.21222238001735</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K44" t="n">
-        <v>361.3007174531585</v>
+        <v>812.7934917636815</v>
       </c>
       <c r="L44" t="n">
-        <v>747.5519694058733</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="M44" t="n">
-        <v>1133.803221358588</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="N44" t="n">
-        <v>1520.054473311303</v>
+        <v>1767.09327468481</v>
       </c>
       <c r="O44" t="n">
-        <v>1520.054473311303</v>
+        <v>1767.09327468481</v>
       </c>
       <c r="P44" t="n">
-        <v>1520.054473311303</v>
+        <v>1767.09327468481</v>
       </c>
       <c r="Q44" t="n">
-        <v>1520.054473311303</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R44" t="n">
-        <v>1560.611119000868</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="S44" t="n">
-        <v>1560.611119000868</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T44" t="n">
-        <v>1560.611119000868</v>
+        <v>1730.766722221061</v>
       </c>
       <c r="U44" t="n">
-        <v>1560.611119000868</v>
+        <v>1473.706230480572</v>
       </c>
       <c r="V44" t="n">
-        <v>1213.49337313825</v>
+        <v>1123.868675817052</v>
       </c>
       <c r="W44" t="n">
-        <v>1213.49337313825</v>
+        <v>740.1083749522209</v>
       </c>
       <c r="X44" t="n">
-        <v>1213.49337313825</v>
+        <v>339.4649771211734</v>
       </c>
       <c r="Y44" t="n">
-        <v>1213.49337313825</v>
+        <v>339.4649771211734</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>710.0430642665517</v>
+        <v>720.5959275161365</v>
       </c>
       <c r="C45" t="n">
-        <v>576.0479930154975</v>
+        <v>586.6008562650821</v>
       </c>
       <c r="D45" t="n">
-        <v>459.1508352348899</v>
+        <v>469.7036984844746</v>
       </c>
       <c r="E45" t="n">
-        <v>338.6580192272179</v>
+        <v>349.2108824768026</v>
       </c>
       <c r="F45" t="n">
-        <v>229.6981394097224</v>
+        <v>240.2510026593071</v>
       </c>
       <c r="G45" t="n">
-        <v>122.7080267240611</v>
+        <v>133.2608899736458</v>
       </c>
       <c r="H45" t="n">
-        <v>51.96081375977718</v>
+        <v>62.51367700936187</v>
       </c>
       <c r="I45" t="n">
-        <v>31.21222238001735</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J45" t="n">
-        <v>31.21222238001735</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K45" t="n">
-        <v>31.21222238001735</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L45" t="n">
-        <v>417.4634743327321</v>
+        <v>1192.007362767163</v>
       </c>
       <c r="M45" t="n">
-        <v>794.9558830015396</v>
+        <v>1192.007362767163</v>
       </c>
       <c r="N45" t="n">
-        <v>1181.207134954254</v>
+        <v>1192.007362767163</v>
       </c>
       <c r="O45" t="n">
-        <v>1181.207134954254</v>
+        <v>1192.007362767163</v>
       </c>
       <c r="P45" t="n">
-        <v>1181.207134954254</v>
+        <v>1708.850297433488</v>
       </c>
       <c r="Q45" t="n">
-        <v>1531.051599638238</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R45" t="n">
-        <v>1560.611119000868</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="S45" t="n">
-        <v>1452.621109115176</v>
+        <v>1980.264271594411</v>
       </c>
       <c r="T45" t="n">
-        <v>1293.279245302185</v>
+        <v>1820.922407781419</v>
       </c>
       <c r="U45" t="n">
-        <v>1186.074038399415</v>
+        <v>1623.571596919638</v>
       </c>
       <c r="V45" t="n">
-        <v>1186.074038399415</v>
+        <v>1409.860069912671</v>
       </c>
       <c r="W45" t="n">
-        <v>1186.074038399415</v>
+        <v>1196.626901649</v>
       </c>
       <c r="X45" t="n">
-        <v>1009.748056538308</v>
+        <v>1020.300919787893</v>
       </c>
       <c r="Y45" t="n">
-        <v>850.3460969021384</v>
+        <v>860.8989601517231</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>464.4161145446911</v>
+        <v>272.3308644934205</v>
       </c>
       <c r="C46" t="n">
-        <v>464.4161145446911</v>
+        <v>272.3308644934205</v>
       </c>
       <c r="D46" t="n">
-        <v>464.4161145446911</v>
+        <v>272.3308644934205</v>
       </c>
       <c r="E46" t="n">
-        <v>464.4161145446911</v>
+        <v>272.3308644934205</v>
       </c>
       <c r="F46" t="n">
-        <v>464.4161145446911</v>
+        <v>272.3308644934205</v>
       </c>
       <c r="G46" t="n">
-        <v>297.1657234702345</v>
+        <v>272.3308644934205</v>
       </c>
       <c r="H46" t="n">
-        <v>147.5582682756912</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="I46" t="n">
-        <v>31.21222238001735</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J46" t="n">
-        <v>45.29477178522787</v>
+        <v>55.84763503481255</v>
       </c>
       <c r="K46" t="n">
-        <v>199.8470995074659</v>
+        <v>210.3999627570505</v>
       </c>
       <c r="L46" t="n">
-        <v>459.7441997875264</v>
+        <v>470.2970630371111</v>
       </c>
       <c r="M46" t="n">
-        <v>749.0082562280197</v>
+        <v>759.5611194776044</v>
       </c>
       <c r="N46" t="n">
-        <v>1029.84703862227</v>
+        <v>1040.399901871855</v>
       </c>
       <c r="O46" t="n">
-        <v>1289.407648948744</v>
+        <v>1299.960512198329</v>
       </c>
       <c r="P46" t="n">
-        <v>1495.083089198357</v>
+        <v>1505.635952447941</v>
       </c>
       <c r="Q46" t="n">
-        <v>1560.611119000868</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="R46" t="n">
-        <v>1475.338400676267</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S46" t="n">
-        <v>1288.946632556178</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T46" t="n">
-        <v>1049.39789353288</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="U46" t="n">
-        <v>766.5997460790038</v>
+        <v>1288.365834796576</v>
       </c>
       <c r="V46" t="n">
-        <v>492.7140010185257</v>
+        <v>1014.480089736098</v>
       </c>
       <c r="W46" t="n">
-        <v>464.4161145446911</v>
+        <v>735.4104252449724</v>
       </c>
       <c r="X46" t="n">
-        <v>464.4161145446911</v>
+        <v>497.0665631046558</v>
       </c>
       <c r="Y46" t="n">
-        <v>464.4161145446911</v>
+        <v>272.3308644934205</v>
       </c>
     </row>
   </sheetData>
@@ -7976,31 +7978,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K2" t="n">
-        <v>89.13638967321712</v>
+        <v>611.1999600432425</v>
       </c>
       <c r="L2" t="n">
-        <v>596.4554908421626</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M2" t="n">
-        <v>615.3537948270711</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N2" t="n">
-        <v>614.9758611266449</v>
+        <v>296.1630732760184</v>
       </c>
       <c r="O2" t="n">
-        <v>93.18977562578313</v>
+        <v>615.2533459958086</v>
       </c>
       <c r="P2" t="n">
-        <v>615.7129336509097</v>
+        <v>615.7129336509096</v>
       </c>
       <c r="Q2" t="n">
         <v>90.03380439915205</v>
       </c>
       <c r="R2" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8058,22 +8060,22 @@
         <v>246.129700984478</v>
       </c>
       <c r="K3" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L3" t="n">
-        <v>578.1780941808746</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M3" t="n">
-        <v>579.627854108443</v>
+        <v>579.6278541084429</v>
       </c>
       <c r="N3" t="n">
-        <v>53.19339339374999</v>
+        <v>329.5449236222965</v>
       </c>
       <c r="O3" t="n">
-        <v>395.7562197346337</v>
+        <v>579.8150493700255</v>
       </c>
       <c r="P3" t="n">
-        <v>54.25963500280375</v>
+        <v>576.3232053728292</v>
       </c>
       <c r="Q3" t="n">
         <v>56.69261850483872</v>
@@ -8216,28 +8218,28 @@
         <v>330.076592815888</v>
       </c>
       <c r="K5" t="n">
-        <v>89.13638967321712</v>
+        <v>611.1999600432425</v>
       </c>
       <c r="L5" t="n">
-        <v>617.5489684328704</v>
+        <v>298.7361805822439</v>
       </c>
       <c r="M5" t="n">
-        <v>615.3537948270711</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N5" t="n">
-        <v>337.1293820533569</v>
+        <v>614.9758611266448</v>
       </c>
       <c r="O5" t="n">
-        <v>93.18977562578313</v>
+        <v>615.2533459958086</v>
       </c>
       <c r="P5" t="n">
-        <v>615.7129336509097</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q5" t="n">
         <v>90.03380439915205</v>
       </c>
       <c r="R5" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8295,19 +8297,19 @@
         <v>246.129700984478</v>
       </c>
       <c r="K6" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L6" t="n">
-        <v>578.1780941808746</v>
+        <v>578.1780941808745</v>
       </c>
       <c r="M6" t="n">
-        <v>579.627854108443</v>
+        <v>395.5690244730511</v>
       </c>
       <c r="N6" t="n">
-        <v>329.5449236222962</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O6" t="n">
-        <v>579.8150493700256</v>
+        <v>579.8150493700255</v>
       </c>
       <c r="P6" t="n">
         <v>54.25963500280375</v>
@@ -8450,22 +8452,22 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>330.076592815888</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K8" t="n">
-        <v>292.3871721926164</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L8" t="n">
-        <v>617.5489684328704</v>
+        <v>617.5489684328703</v>
       </c>
       <c r="M8" t="n">
-        <v>615.3537948270711</v>
+        <v>615.3537948270709</v>
       </c>
       <c r="N8" t="n">
-        <v>614.9758611266449</v>
+        <v>614.9758611266448</v>
       </c>
       <c r="O8" t="n">
-        <v>93.18977562578313</v>
+        <v>594.1598684051006</v>
       </c>
       <c r="P8" t="n">
         <v>93.64936328088416</v>
@@ -8474,7 +8476,7 @@
         <v>90.03380439915205</v>
       </c>
       <c r="R8" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8529,31 +8531,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J9" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K9" t="n">
         <v>55.82578278461539</v>
       </c>
       <c r="L9" t="n">
-        <v>56.11452381084905</v>
+        <v>578.1780941808745</v>
       </c>
       <c r="M9" t="n">
-        <v>579.627854108443</v>
+        <v>579.6278541084429</v>
       </c>
       <c r="N9" t="n">
-        <v>53.19339339374999</v>
+        <v>554.1634861730674</v>
       </c>
       <c r="O9" t="n">
-        <v>502.7883324430334</v>
+        <v>579.8150493700255</v>
       </c>
       <c r="P9" t="n">
-        <v>576.3232053728293</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q9" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R9" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8687,22 +8689,22 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K11" t="n">
         <v>89.13638967321712</v>
       </c>
       <c r="L11" t="n">
-        <v>617.5489684328704</v>
+        <v>617.5489684328703</v>
       </c>
       <c r="M11" t="n">
-        <v>615.3537948270711</v>
+        <v>615.3537948270709</v>
       </c>
       <c r="N11" t="n">
-        <v>614.9758611266449</v>
+        <v>614.9758611266448</v>
       </c>
       <c r="O11" t="n">
-        <v>553.1935596277625</v>
+        <v>337.4068669225205</v>
       </c>
       <c r="P11" t="n">
         <v>93.64936328088416</v>
@@ -8711,7 +8713,7 @@
         <v>90.03380439915205</v>
       </c>
       <c r="R11" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8772,25 +8774,25 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L12" t="n">
-        <v>56.11452381084905</v>
+        <v>578.1780941808745</v>
       </c>
       <c r="M12" t="n">
-        <v>579.627854108443</v>
+        <v>528.6762761514419</v>
       </c>
       <c r="N12" t="n">
-        <v>575.2569637637755</v>
+        <v>575.2569637637754</v>
       </c>
       <c r="O12" t="n">
-        <v>579.8150493700256</v>
+        <v>579.8150493700255</v>
       </c>
       <c r="P12" t="n">
-        <v>555.229727782121</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q12" t="n">
         <v>56.69261850483872</v>
       </c>
       <c r="R12" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8930,16 +8932,16 @@
         <v>89.13638967321712</v>
       </c>
       <c r="L14" t="n">
-        <v>617.5489684328704</v>
+        <v>617.5489684328703</v>
       </c>
       <c r="M14" t="n">
-        <v>615.3537948270711</v>
+        <v>615.3537948270709</v>
       </c>
       <c r="N14" t="n">
-        <v>614.9758611266449</v>
+        <v>614.9758611266448</v>
       </c>
       <c r="O14" t="n">
-        <v>594.1598684051008</v>
+        <v>553.1935596277623</v>
       </c>
       <c r="P14" t="n">
         <v>93.64936328088416</v>
@@ -8948,7 +8950,7 @@
         <v>90.03380439915205</v>
       </c>
       <c r="R14" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9009,25 +9011,25 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L15" t="n">
-        <v>56.11452381084905</v>
+        <v>527.2265162238735</v>
       </c>
       <c r="M15" t="n">
-        <v>579.627854108443</v>
+        <v>579.6278541084429</v>
       </c>
       <c r="N15" t="n">
-        <v>575.2569637637755</v>
+        <v>575.2569637637754</v>
       </c>
       <c r="O15" t="n">
-        <v>205.3433246237788</v>
+        <v>579.8150493700255</v>
       </c>
       <c r="P15" t="n">
-        <v>576.3232053728293</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q15" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R15" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9167,16 +9169,16 @@
         <v>89.13638967321712</v>
       </c>
       <c r="L17" t="n">
-        <v>617.5489684328704</v>
+        <v>617.5489684328703</v>
       </c>
       <c r="M17" t="n">
-        <v>615.3537948270711</v>
+        <v>615.3537948270709</v>
       </c>
       <c r="N17" t="n">
-        <v>614.9758611266449</v>
+        <v>614.9758611266448</v>
       </c>
       <c r="O17" t="n">
-        <v>594.1598684051008</v>
+        <v>594.1598684051006</v>
       </c>
       <c r="P17" t="n">
         <v>93.64936328088416</v>
@@ -9243,22 +9245,22 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K18" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L18" t="n">
-        <v>557.0846165901669</v>
+        <v>578.1780941808745</v>
       </c>
       <c r="M18" t="n">
-        <v>579.627854108443</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N18" t="n">
-        <v>575.2569637637755</v>
+        <v>93.75312630912927</v>
       </c>
       <c r="O18" t="n">
-        <v>579.8150493700256</v>
+        <v>579.8150493700255</v>
       </c>
       <c r="P18" t="n">
-        <v>54.25963500280375</v>
+        <v>576.3232053728292</v>
       </c>
       <c r="Q18" t="n">
         <v>56.69261850483872</v>
@@ -9401,22 +9403,22 @@
         <v>73.32359133330795</v>
       </c>
       <c r="K20" t="n">
-        <v>632.7318453389136</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L20" t="n">
-        <v>749.459759052679</v>
+        <v>617.5489684328703</v>
       </c>
       <c r="M20" t="n">
-        <v>300.5607519872657</v>
+        <v>594.2603172363629</v>
       </c>
       <c r="N20" t="n">
-        <v>92.91229075661933</v>
+        <v>614.9758611266448</v>
       </c>
       <c r="O20" t="n">
-        <v>743.321953824879</v>
+        <v>615.2533459958086</v>
       </c>
       <c r="P20" t="n">
-        <v>628.1510783507341</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q20" t="n">
         <v>90.03380439915205</v>
@@ -9477,31 +9479,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J21" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K21" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L21" t="n">
-        <v>354.9162458566364</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M21" t="n">
-        <v>711.5386447282516</v>
+        <v>579.6278541084429</v>
       </c>
       <c r="N21" t="n">
-        <v>707.1677543835841</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O21" t="n">
         <v>57.751479</v>
       </c>
       <c r="P21" t="n">
-        <v>54.25963500280375</v>
+        <v>576.3232053728292</v>
       </c>
       <c r="Q21" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R21" t="n">
-        <v>59.00019910540541</v>
+        <v>73.48479305079316</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9638,28 +9640,28 @@
         <v>73.32359133330795</v>
       </c>
       <c r="K23" t="n">
-        <v>632.7318453389136</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L23" t="n">
-        <v>815.2746908024792</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M23" t="n">
-        <v>877.4504173780091</v>
+        <v>615.3537948270709</v>
       </c>
       <c r="N23" t="n">
-        <v>853.701196452193</v>
+        <v>228.5110173896167</v>
       </c>
       <c r="O23" t="n">
-        <v>743.321953824879</v>
+        <v>615.2533459958086</v>
       </c>
       <c r="P23" t="n">
-        <v>628.1510783507341</v>
+        <v>615.7129336509096</v>
       </c>
       <c r="Q23" t="n">
-        <v>231.3876718871261</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R23" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9714,28 +9716,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J24" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K24" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L24" t="n">
-        <v>723.8803540323523</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M24" t="n">
-        <v>57.56428373841742</v>
+        <v>579.6278541084429</v>
       </c>
       <c r="N24" t="n">
-        <v>53.19339339374999</v>
+        <v>575.2569637637754</v>
       </c>
       <c r="O24" t="n">
-        <v>57.751479</v>
+        <v>579.8150493700255</v>
       </c>
       <c r="P24" t="n">
-        <v>445.1055394667393</v>
+        <v>555.2297277821212</v>
       </c>
       <c r="Q24" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R24" t="n">
         <v>59.00019910540541</v>
@@ -9875,22 +9877,22 @@
         <v>73.32359133330795</v>
       </c>
       <c r="K26" t="n">
-        <v>611.1999600432426</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L26" t="n">
-        <v>95.48539806284482</v>
+        <v>617.5489684328703</v>
       </c>
       <c r="M26" t="n">
-        <v>93.29022445704545</v>
+        <v>615.3537948270709</v>
       </c>
       <c r="N26" t="n">
-        <v>614.9758611266449</v>
+        <v>614.9758611266448</v>
       </c>
       <c r="O26" t="n">
-        <v>615.2533459958087</v>
+        <v>553.1935596277623</v>
       </c>
       <c r="P26" t="n">
-        <v>553.6531472828635</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q26" t="n">
         <v>90.03380439915205</v>
@@ -9954,28 +9956,28 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K27" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L27" t="n">
-        <v>557.0846165901664</v>
+        <v>578.1780941808745</v>
       </c>
       <c r="M27" t="n">
-        <v>579.627854108443</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N27" t="n">
-        <v>575.2569637637755</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O27" t="n">
-        <v>579.8150493700256</v>
+        <v>237.1384347635729</v>
       </c>
       <c r="P27" t="n">
-        <v>54.25963500280375</v>
+        <v>576.3232053728292</v>
       </c>
       <c r="Q27" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R27" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10112,28 +10114,28 @@
         <v>73.32359133330795</v>
       </c>
       <c r="K29" t="n">
-        <v>265.701425083553</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L29" t="n">
-        <v>617.5489684328704</v>
+        <v>617.5489684328703</v>
       </c>
       <c r="M29" t="n">
-        <v>93.29022445704545</v>
+        <v>615.3537948270709</v>
       </c>
       <c r="N29" t="n">
-        <v>92.91229075661933</v>
+        <v>614.9758611266448</v>
       </c>
       <c r="O29" t="n">
-        <v>615.2533459958087</v>
+        <v>553.1935596277623</v>
       </c>
       <c r="P29" t="n">
-        <v>615.7129336509097</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q29" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R29" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10191,22 +10193,22 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K30" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L30" t="n">
-        <v>578.1780941808746</v>
+        <v>578.1780941808745</v>
       </c>
       <c r="M30" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N30" t="n">
-        <v>93.75312630912927</v>
+        <v>575.2569637637754</v>
       </c>
       <c r="O30" t="n">
-        <v>579.8150493700256</v>
+        <v>579.8150493700255</v>
       </c>
       <c r="P30" t="n">
-        <v>576.3232053728293</v>
+        <v>555.2297277821212</v>
       </c>
       <c r="Q30" t="n">
         <v>56.69261850483872</v>
@@ -10349,28 +10351,28 @@
         <v>73.32359133330795</v>
       </c>
       <c r="K32" t="n">
-        <v>265.701425083553</v>
+        <v>549.1401736751963</v>
       </c>
       <c r="L32" t="n">
-        <v>617.5489684328704</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M32" t="n">
-        <v>93.29022445704545</v>
+        <v>615.3537948270709</v>
       </c>
       <c r="N32" t="n">
         <v>92.91229075661933</v>
       </c>
       <c r="O32" t="n">
-        <v>615.2533459958087</v>
+        <v>615.2533459958086</v>
       </c>
       <c r="P32" t="n">
-        <v>615.7129336509097</v>
+        <v>615.7129336509096</v>
       </c>
       <c r="Q32" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R32" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10428,22 +10430,22 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K33" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L33" t="n">
-        <v>578.1780941808746</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M33" t="n">
-        <v>57.56428373841742</v>
+        <v>579.6278541084429</v>
       </c>
       <c r="N33" t="n">
-        <v>93.75312630912927</v>
+        <v>575.2569637637754</v>
       </c>
       <c r="O33" t="n">
-        <v>579.8150493700256</v>
+        <v>579.8150493700255</v>
       </c>
       <c r="P33" t="n">
-        <v>576.3232053728293</v>
+        <v>555.2297277821212</v>
       </c>
       <c r="Q33" t="n">
         <v>56.69261850483872</v>
@@ -10586,28 +10588,28 @@
         <v>73.32359133330795</v>
       </c>
       <c r="K35" t="n">
-        <v>611.1999600432426</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L35" t="n">
-        <v>95.48539806284482</v>
+        <v>555.489182064824</v>
       </c>
       <c r="M35" t="n">
-        <v>93.29022445704545</v>
+        <v>615.3537948270709</v>
       </c>
       <c r="N35" t="n">
-        <v>614.9758611266449</v>
+        <v>614.9758611266448</v>
       </c>
       <c r="O35" t="n">
-        <v>615.2533459958087</v>
+        <v>615.2533459958086</v>
       </c>
       <c r="P35" t="n">
-        <v>270.21439869122</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q35" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R35" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10665,25 +10667,25 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K36" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L36" t="n">
-        <v>578.1780941808746</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M36" t="n">
-        <v>579.627854108443</v>
+        <v>579.6278541084429</v>
       </c>
       <c r="N36" t="n">
-        <v>53.19339339374999</v>
+        <v>575.2569637637754</v>
       </c>
       <c r="O36" t="n">
-        <v>57.751479</v>
+        <v>579.8150493700255</v>
       </c>
       <c r="P36" t="n">
-        <v>263.5046911326696</v>
+        <v>555.2297277821212</v>
       </c>
       <c r="Q36" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R36" t="n">
         <v>59.00019910540541</v>
@@ -10823,22 +10825,22 @@
         <v>73.32359133330795</v>
       </c>
       <c r="K38" t="n">
-        <v>265.701425083553</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L38" t="n">
-        <v>617.5489684328704</v>
+        <v>272.0504334731805</v>
       </c>
       <c r="M38" t="n">
-        <v>93.29022445704545</v>
+        <v>615.3537948270709</v>
       </c>
       <c r="N38" t="n">
         <v>92.91229075661933</v>
       </c>
       <c r="O38" t="n">
-        <v>615.2533459958087</v>
+        <v>615.2533459958086</v>
       </c>
       <c r="P38" t="n">
-        <v>615.7129336509097</v>
+        <v>615.7129336509096</v>
       </c>
       <c r="Q38" t="n">
         <v>414.4388617681339</v>
@@ -10902,22 +10904,22 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K39" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L39" t="n">
-        <v>557.0846165901669</v>
+        <v>578.1780941808745</v>
       </c>
       <c r="M39" t="n">
-        <v>57.56428373841742</v>
+        <v>579.6278541084429</v>
       </c>
       <c r="N39" t="n">
-        <v>575.2569637637755</v>
+        <v>575.2569637637754</v>
       </c>
       <c r="O39" t="n">
-        <v>579.8150493700256</v>
+        <v>98.31121191537929</v>
       </c>
       <c r="P39" t="n">
-        <v>576.3232053728293</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q39" t="n">
         <v>56.69261850483872</v>
@@ -11057,25 +11059,25 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>330.076592815888</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K41" t="n">
-        <v>611.1999600432426</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L41" t="n">
-        <v>496.3946935832877</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M41" t="n">
-        <v>93.29022445704545</v>
+        <v>228.8889510900428</v>
       </c>
       <c r="N41" t="n">
-        <v>92.91229075661933</v>
+        <v>614.9758611266448</v>
       </c>
       <c r="O41" t="n">
-        <v>93.18977562578313</v>
+        <v>615.2533459958086</v>
       </c>
       <c r="P41" t="n">
-        <v>615.7129336509097</v>
+        <v>615.7129336509096</v>
       </c>
       <c r="Q41" t="n">
         <v>414.4388617681339</v>
@@ -11139,25 +11141,25 @@
         <v>246.129700984478</v>
       </c>
       <c r="K42" t="n">
-        <v>516.2361426485535</v>
+        <v>362.0354133794548</v>
       </c>
       <c r="L42" t="n">
-        <v>70.59911775623679</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M42" t="n">
-        <v>579.627854108443</v>
+        <v>579.6278541084429</v>
       </c>
       <c r="N42" t="n">
-        <v>575.2569637637755</v>
+        <v>575.2569637637754</v>
       </c>
       <c r="O42" t="n">
-        <v>57.751479</v>
+        <v>579.8150493700255</v>
       </c>
       <c r="P42" t="n">
         <v>54.25963500280375</v>
       </c>
       <c r="Q42" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R42" t="n">
         <v>59.00019910540541</v>
@@ -11294,19 +11296,19 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K44" t="n">
-        <v>422.5591119693194</v>
+        <v>611.1999600432425</v>
       </c>
       <c r="L44" t="n">
-        <v>485.6381778130617</v>
+        <v>617.5489684328703</v>
       </c>
       <c r="M44" t="n">
-        <v>483.4430042072623</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N44" t="n">
-        <v>483.0650705068362</v>
+        <v>534.7878950544003</v>
       </c>
       <c r="O44" t="n">
         <v>93.18977562578313</v>
@@ -11315,10 +11317,10 @@
         <v>93.64936328088416</v>
       </c>
       <c r="Q44" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R44" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11373,25 +11375,25 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J45" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K45" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L45" t="n">
-        <v>446.2673035610659</v>
+        <v>562.8045877599694</v>
       </c>
       <c r="M45" t="n">
-        <v>438.8697470402433</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N45" t="n">
-        <v>443.3461731439669</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O45" t="n">
         <v>57.751479</v>
       </c>
       <c r="P45" t="n">
-        <v>54.25963500280375</v>
+        <v>576.3232053728292</v>
       </c>
       <c r="Q45" t="n">
         <v>410.0708656603775</v>
@@ -22547,25 +22549,25 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E2" t="n">
-        <v>364.1021128543206</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F2" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22595,7 +22597,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>219.9844192126098</v>
@@ -22604,16 +22606,16 @@
         <v>254.489886823085</v>
       </c>
       <c r="V2" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>48.91460418151496</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="3">
@@ -22702,25 +22704,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>185.8227093301039</v>
+        <v>21.3052010834611</v>
       </c>
       <c r="C4" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -22750,28 +22752,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>157.0631340559315</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X4" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="5">
@@ -22787,7 +22789,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>410.1968133282722</v>
@@ -22796,13 +22798,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G5" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22841,13 +22843,13 @@
         <v>254.489886823085</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W5" t="n">
         <v>379.9226978561831</v>
       </c>
       <c r="X5" t="n">
-        <v>319.3091155013809</v>
+        <v>384.7425708038065</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -22939,28 +22941,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -22987,28 +22989,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>208.6070786176243</v>
+        <v>55.3526305130049</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="8">
@@ -23018,10 +23020,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>212.1678716241065</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -23030,10 +23032,10 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>416.8201079258493</v>
+        <v>410.481526939095</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H8" t="n">
         <v>307.7994123985592</v>
@@ -23072,7 +23074,7 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U8" t="n">
         <v>254.489886823085</v>
@@ -23194,10 +23196,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>41.99192010088267</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -23224,10 +23226,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S10" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>237.1532516330649</v>
@@ -23245,7 +23247,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y10" t="n">
-        <v>57.06664624006515</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -23261,19 +23263,19 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E11" t="n">
-        <v>390.2983828659822</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F11" t="n">
         <v>416.8201079258493</v>
       </c>
       <c r="G11" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>307.7994123985592</v>
+        <v>29.41399319559872</v>
       </c>
       <c r="I11" t="n">
         <v>85.48824505609757</v>
@@ -23306,7 +23308,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>219.9844192126098</v>
@@ -23321,7 +23323,7 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23434,7 +23436,7 @@
         <v>148.1113806425979</v>
       </c>
       <c r="I13" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23479,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>55.35263051300493</v>
+        <v>86.11522480836777</v>
       </c>
       <c r="Y13" t="n">
         <v>222.4883416251229</v>
@@ -23495,7 +23497,7 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C14" t="n">
-        <v>12.07625401595521</v>
+        <v>12.07625401595567</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23698,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>8.893130557884689</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23716,10 +23718,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>55.35263051300493</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23729,13 +23731,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>17.7759312759303</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>13.55422061770372</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -23744,7 +23746,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>307.7994123985592</v>
@@ -23956,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>8.89313055788466</v>
+        <v>8.893130557884632</v>
       </c>
     </row>
     <row r="20">
@@ -23978,7 +23980,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>295.1990945544783</v>
+        <v>13.55422061770417</v>
       </c>
       <c r="G20" t="n">
         <v>404.6410012660961</v>
@@ -24032,10 +24034,10 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="21">
@@ -24124,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>71.73155624800719</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24172,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T22" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>279.9701659793371</v>
@@ -24190,10 +24192,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X22" t="n">
-        <v>208.6070786176239</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="23">
@@ -24203,13 +24205,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -24218,7 +24220,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>379.1205866585338</v>
       </c>
       <c r="H23" t="n">
         <v>307.7994123985592</v>
@@ -24257,10 +24259,10 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U23" t="n">
-        <v>40.13219205781013</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V23" t="n">
         <v>346.3391791168841</v>
@@ -24364,7 +24366,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -24373,13 +24375,13 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>38.5290357968573</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>41.99192010088267</v>
       </c>
       <c r="I25" t="n">
         <v>115.1825854367171</v>
@@ -24412,10 +24414,10 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S25" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U25" t="n">
         <v>279.9701659793371</v>
@@ -24424,7 +24426,7 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X25" t="n">
         <v>235.9604235189134</v>
@@ -24440,22 +24442,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G26" t="n">
-        <v>2.980215557483518</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H26" t="n">
         <v>307.7994123985592</v>
@@ -24497,19 +24499,19 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U26" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W26" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>217.8771903642412</v>
       </c>
     </row>
     <row r="27">
@@ -24607,19 +24609,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>80.01033097400547</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,7 +24651,7 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S28" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>237.1532516330649</v>
@@ -24658,16 +24660,16 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X28" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>157.1745055375988</v>
       </c>
     </row>
     <row r="29">
@@ -24683,16 +24685,16 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>390.2983828659826</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G29" t="n">
-        <v>397.6986291321127</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H29" t="n">
         <v>307.7994123985592</v>
@@ -24740,13 +24742,13 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X29" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24841,7 +24843,7 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D31" t="n">
-        <v>157.8996982303191</v>
+        <v>96.60443348087411</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24850,13 +24852,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>94.66903742371113</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24895,7 +24897,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W31" t="n">
         <v>276.2789678462144</v>
@@ -24914,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>13.55422061770423</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -24926,7 +24928,7 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>404.6410012660961</v>
@@ -24980,10 +24982,10 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X32" t="n">
-        <v>390.2983828659821</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="33">
@@ -25081,16 +25083,16 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I34" t="n">
         <v>115.1825854367171</v>
@@ -25120,19 +25122,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T34" t="n">
-        <v>237.1532516330649</v>
+        <v>8.893130557884689</v>
       </c>
       <c r="U34" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25141,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>125.5464563330409</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25151,16 +25153,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>316.7409190488936</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E35" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -25211,16 +25213,16 @@
         <v>254.489886823085</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>9.771893862571119</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="36">
@@ -25315,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>4.874559219806287</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>57.06664624006455</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S37" t="n">
         <v>184.5278504388888</v>
@@ -25369,13 +25371,13 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V37" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25388,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>13.55422061770378</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -25397,19 +25399,19 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G38" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>307.7994123985592</v>
       </c>
       <c r="I38" t="n">
-        <v>85.48824505609757</v>
+        <v>64.11184799205954</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25454,10 +25456,10 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X38" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25558,16 +25560,16 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F40" t="n">
-        <v>6.540173419640865</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>84.41999114135434</v>
+        <v>55.35263051300471</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25603,13 +25605,13 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25625,28 +25627,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F41" t="n">
-        <v>410.4815269390945</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G41" t="n">
-        <v>404.6410012660961</v>
+        <v>291.7305019759531</v>
       </c>
       <c r="H41" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25685,13 +25687,13 @@
         <v>254.489886823085</v>
       </c>
       <c r="V41" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25783,28 +25785,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C43" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D43" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25834,25 +25836,25 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>166.7928287882038</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>187.7140792254181</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25865,13 +25867,13 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C44" t="n">
-        <v>15.87056502964566</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D44" t="n">
-        <v>10.26651085765315</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E44" t="n">
-        <v>20.04403357805535</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F44" t="n">
         <v>416.8201079258493</v>
@@ -25880,7 +25882,7 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H44" t="n">
-        <v>307.7994123985592</v>
+        <v>13.07651982190356</v>
       </c>
       <c r="I44" t="n">
         <v>85.48824505609757</v>
@@ -25913,22 +25915,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>2.692610712892986</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>396.9273063213908</v>
@@ -25998,13 +26000,13 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>89.24414791942208</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>211.5744117368965</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>211.1008365810345</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
@@ -26035,10 +26037,10 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>35.03384500413473</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -26068,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26083,13 +26085,13 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>248.2640602371181</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>542526.0140355871</v>
+        <v>542526.014035587</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>542526.0140355868</v>
+        <v>542526.014035587</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>542526.014035587</v>
+        <v>542526.0140355868</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>542526.0140355871</v>
+        <v>542526.0140355868</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>542526.0140355871</v>
+        <v>542526.0140355868</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>600634.3994193552</v>
+        <v>542526.0140355871</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>772501.6740960454</v>
+        <v>542526.014035587</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>542526.0140355868</v>
+        <v>542526.014035587</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>542526.014035587</v>
+        <v>542526.0140355868</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>542526.0140355871</v>
+        <v>542526.0140355868</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>542526.0140355872</v>
+        <v>542526.014035587</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>542526.014035587</v>
+        <v>542526.0140355868</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>453465.4233720225</v>
+        <v>542526.0140355868</v>
       </c>
     </row>
   </sheetData>
@@ -26311,13 +26313,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>142694.2606395789</v>
+        <v>142694.2606395788</v>
       </c>
       <c r="C2" t="n">
         <v>142694.2606395789</v>
       </c>
       <c r="D2" t="n">
-        <v>142694.2606395788</v>
+        <v>142694.2606395789</v>
       </c>
       <c r="E2" t="n">
         <v>142694.2606395789</v>
@@ -26329,31 +26331,31 @@
         <v>142694.2606395789</v>
       </c>
       <c r="H2" t="n">
-        <v>157975.0546172638</v>
+        <v>142694.2606395789</v>
       </c>
       <c r="I2" t="n">
-        <v>203171.086110755</v>
+        <v>142694.2606395789</v>
       </c>
       <c r="J2" t="n">
+        <v>142694.2606395789</v>
+      </c>
+      <c r="K2" t="n">
+        <v>142694.2606395789</v>
+      </c>
+      <c r="L2" t="n">
+        <v>142694.2606395789</v>
+      </c>
+      <c r="M2" t="n">
+        <v>142694.2606395789</v>
+      </c>
+      <c r="N2" t="n">
+        <v>142694.2606395789</v>
+      </c>
+      <c r="O2" t="n">
+        <v>142694.2606395789</v>
+      </c>
+      <c r="P2" t="n">
         <v>142694.2606395788</v>
-      </c>
-      <c r="K2" t="n">
-        <v>142694.2606395788</v>
-      </c>
-      <c r="L2" t="n">
-        <v>142694.2606395788</v>
-      </c>
-      <c r="M2" t="n">
-        <v>142694.2606395788</v>
-      </c>
-      <c r="N2" t="n">
-        <v>142694.2606395788</v>
-      </c>
-      <c r="O2" t="n">
-        <v>142694.2606395788</v>
-      </c>
-      <c r="P2" t="n">
-        <v>119273.94826172</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>174955.5098931141</v>
+        <v>174955.509893114</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26381,13 +26383,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>35590.71850633996</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>103749.8173439574</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>136594.8008058949</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26433,13 +26435,13 @@
         <v>19747.62995624142</v>
       </c>
       <c r="H4" t="n">
-        <v>21888.80164579902</v>
+        <v>19747.62995624141</v>
       </c>
       <c r="I4" t="n">
-        <v>28221.7489557056</v>
+        <v>19747.62995624142</v>
       </c>
       <c r="J4" t="n">
-        <v>19747.62995624142</v>
+        <v>19747.62995624141</v>
       </c>
       <c r="K4" t="n">
         <v>19747.62995624142</v>
@@ -26457,7 +26459,7 @@
         <v>19747.62995624142</v>
       </c>
       <c r="P4" t="n">
-        <v>16465.93465315062</v>
+        <v>19747.62995624142</v>
       </c>
     </row>
     <row r="5">
@@ -26467,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>65369.06507849755</v>
+        <v>65369.06507849754</v>
       </c>
       <c r="C5" t="n">
-        <v>65369.06507849755</v>
+        <v>65369.06507849754</v>
       </c>
       <c r="D5" t="n">
-        <v>65369.06507849755</v>
+        <v>65369.06507849754</v>
       </c>
       <c r="E5" t="n">
         <v>31741.46507849755</v>
@@ -26485,10 +26487,10 @@
         <v>31741.46507849755</v>
       </c>
       <c r="H5" t="n">
-        <v>39761.64114818192</v>
+        <v>31741.46507849755</v>
       </c>
       <c r="I5" t="n">
-        <v>63482.93015699511</v>
+        <v>31741.46507849755</v>
       </c>
       <c r="J5" t="n">
         <v>31741.46507849755</v>
@@ -26509,7 +26511,7 @@
         <v>31741.46507849755</v>
       </c>
       <c r="P5" t="n">
-        <v>23721.28900881319</v>
+        <v>31741.46507849755</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-117377.9442882741</v>
+        <v>-117377.9442882742</v>
       </c>
       <c r="C6" t="n">
-        <v>57577.56560483989</v>
+        <v>57577.5656048399</v>
       </c>
       <c r="D6" t="n">
-        <v>57577.5656048398</v>
+        <v>57577.56560483995</v>
       </c>
       <c r="E6" t="n">
-        <v>91205.16560483992</v>
+        <v>91205.16560483996</v>
       </c>
       <c r="F6" t="n">
+        <v>91205.1656048399</v>
+      </c>
+      <c r="G6" t="n">
+        <v>91205.16560483993</v>
+      </c>
+      <c r="H6" t="n">
+        <v>91205.16560483995</v>
+      </c>
+      <c r="I6" t="n">
+        <v>91205.16560483995</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-45389.635201055</v>
+      </c>
+      <c r="K6" t="n">
+        <v>91205.16560483996</v>
+      </c>
+      <c r="L6" t="n">
+        <v>91205.1656048399</v>
+      </c>
+      <c r="M6" t="n">
+        <v>91205.16560483993</v>
+      </c>
+      <c r="N6" t="n">
         <v>91205.16560483989</v>
       </c>
-      <c r="G6" t="n">
-        <v>91205.16560483989</v>
-      </c>
-      <c r="H6" t="n">
-        <v>60733.89331694291</v>
-      </c>
-      <c r="I6" t="n">
-        <v>7716.58965409681</v>
-      </c>
-      <c r="J6" t="n">
-        <v>91205.16560483986</v>
-      </c>
-      <c r="K6" t="n">
-        <v>91205.16560483983</v>
-      </c>
-      <c r="L6" t="n">
-        <v>91205.16560483983</v>
-      </c>
-      <c r="M6" t="n">
-        <v>91205.16560483986</v>
-      </c>
-      <c r="N6" t="n">
-        <v>91205.16560483983</v>
-      </c>
       <c r="O6" t="n">
-        <v>91205.16560483986</v>
+        <v>91205.1656048399</v>
       </c>
       <c r="P6" t="n">
-        <v>79086.72459975618</v>
+        <v>91205.16560483987</v>
       </c>
     </row>
   </sheetData>
@@ -26787,49 +26789,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="C4" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="D4" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="E4" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="F4" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="G4" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="H4" t="n">
-        <v>653.9743609898342</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="I4" t="n">
-        <v>1044.127140740051</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="J4" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="K4" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="L4" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="M4" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="N4" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="O4" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="P4" t="n">
-        <v>390.1527797502169</v>
+        <v>522.0635703700254</v>
       </c>
     </row>
   </sheetData>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27027,13 +27029,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>131.9107906198087</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>390.152779750217</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27273,7 +27275,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>131.9107906198087</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="L2" t="n">
-        <v>500.9700927793178</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>522.0635703700256</v>
+        <v>203.2507825193991</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="P2" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34778,22 +34780,22 @@
         <v>194.760462184478</v>
       </c>
       <c r="K3" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>276.3515302285465</v>
       </c>
       <c r="O3" t="n">
-        <v>338.0047407346337</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -34936,28 +34938,28 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="L5" t="n">
-        <v>522.0635703700256</v>
+        <v>203.2507825193991</v>
       </c>
       <c r="M5" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>244.2170912967376</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="P5" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35015,19 +35017,19 @@
         <v>194.760462184478</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L6" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="M6" t="n">
-        <v>522.0635703700256</v>
+        <v>338.0047407346337</v>
       </c>
       <c r="N6" t="n">
-        <v>276.3515302285462</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -35170,22 +35172,22 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>256.7530014825801</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>203.2507825193993</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="M8" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="N8" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>500.9700927793174</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
@@ -35194,7 +35196,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,31 +35251,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="M9" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>500.9700927793174</v>
       </c>
       <c r="O9" t="n">
-        <v>445.0368534430334</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="P9" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35407,22 +35409,22 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="M11" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="N11" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="O11" t="n">
-        <v>460.0037840019794</v>
+        <v>244.2170912967374</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -35431,7 +35433,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35492,25 +35494,25 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="M12" t="n">
-        <v>522.0635703700256</v>
+        <v>471.1119924130245</v>
       </c>
       <c r="N12" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="O12" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="P12" t="n">
-        <v>500.9700927793172</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35650,16 +35652,16 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="M14" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="N14" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="O14" t="n">
-        <v>500.9700927793177</v>
+        <v>460.0037840019792</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -35668,7 +35670,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35729,25 +35731,25 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>471.1119924130245</v>
       </c>
       <c r="M15" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="N15" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="O15" t="n">
-        <v>147.5918456237788</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="P15" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35887,16 +35889,16 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="M17" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="N17" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="O17" t="n">
-        <v>500.9700927793177</v>
+        <v>500.9700927793174</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -35963,22 +35965,22 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L18" t="n">
-        <v>500.9700927793178</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="M18" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>522.0635703700256</v>
+        <v>40.55973291537929</v>
       </c>
       <c r="O18" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36121,22 +36123,22 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>543.5954556656965</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>653.9743609898342</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="M20" t="n">
-        <v>207.2705275302202</v>
+        <v>500.9700927793174</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="O20" t="n">
-        <v>650.1321781990958</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="P20" t="n">
-        <v>534.50171506985</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -36197,31 +36199,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K21" t="n">
         <v>460.4103598639381</v>
       </c>
       <c r="L21" t="n">
-        <v>298.8017220457873</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>653.9743609898342</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="N21" t="n">
-        <v>653.9743609898342</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>14.48459394538775</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36358,28 +36360,28 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>543.5954556656965</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>719.7892927396343</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>784.1601929209636</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="N23" t="n">
-        <v>760.7889056955737</v>
+        <v>135.5987266329973</v>
       </c>
       <c r="O23" t="n">
-        <v>650.1321781990958</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="P23" t="n">
-        <v>534.50171506985</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="Q23" t="n">
-        <v>141.353867487974</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>667.7658302215033</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="P24" t="n">
-        <v>390.8459044639355</v>
+        <v>500.9700927793174</v>
       </c>
       <c r="Q24" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36595,22 +36597,22 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="N26" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="O26" t="n">
-        <v>522.0635703700256</v>
+        <v>460.0037840019792</v>
       </c>
       <c r="P26" t="n">
-        <v>460.0037840019794</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -36674,28 +36676,28 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L27" t="n">
-        <v>500.9700927793173</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="M27" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>522.0635703700256</v>
+        <v>179.3869557635729</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36832,28 +36834,28 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>176.5650354103358</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="O29" t="n">
-        <v>522.0635703700256</v>
+        <v>460.0037840019792</v>
       </c>
       <c r="P29" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,22 +36913,22 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>40.55973291537929</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="O30" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="P30" t="n">
-        <v>522.0635703700256</v>
+        <v>500.9700927793174</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37069,28 +37071,28 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>176.5650354103358</v>
+        <v>460.0037840019792</v>
       </c>
       <c r="L32" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="P32" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="Q32" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,22 +37150,22 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="N33" t="n">
-        <v>40.55973291537929</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="O33" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="P33" t="n">
-        <v>522.0635703700256</v>
+        <v>500.9700927793174</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37306,28 +37308,28 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>460.0037840019792</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="N35" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="O35" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="P35" t="n">
-        <v>176.5650354103359</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,25 +37387,25 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="P36" t="n">
-        <v>209.2450561298658</v>
+        <v>500.9700927793174</v>
       </c>
       <c r="Q36" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37543,22 +37545,22 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>176.5650354103358</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>522.0635703700256</v>
+        <v>176.5650354103356</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="P38" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="Q38" t="n">
         <v>324.4050573689818</v>
@@ -37622,22 +37624,22 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L39" t="n">
-        <v>500.9700927793178</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="N39" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="O39" t="n">
-        <v>522.0635703700256</v>
+        <v>40.55973291537929</v>
       </c>
       <c r="P39" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37777,25 +37779,25 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>256.7530014825801</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>400.9092955204429</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>135.5987266329973</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="P41" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="Q41" t="n">
         <v>324.4050573689818</v>
@@ -37859,25 +37861,25 @@
         <v>194.760462184478</v>
       </c>
       <c r="K42" t="n">
-        <v>460.4103598639381</v>
+        <v>306.2096305948394</v>
       </c>
       <c r="L42" t="n">
-        <v>14.48459394538775</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="N42" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38014,19 +38016,19 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K44" t="n">
-        <v>333.4227222961022</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="L44" t="n">
-        <v>390.1527797502169</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="M44" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>390.1527797502169</v>
+        <v>441.875604297781</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
@@ -38035,10 +38037,10 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R44" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,25 +38095,25 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L45" t="n">
-        <v>390.1527797502169</v>
+        <v>506.6900639491204</v>
       </c>
       <c r="M45" t="n">
-        <v>381.3054633018259</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="Q45" t="n">
         <v>353.3782471555388</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_2_15.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_2_15.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>436110.2619151903</v>
+        <v>430380.8660839627</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11821355.91763807</v>
+        <v>11821355.91763804</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10162932.89091066</v>
+        <v>10162932.89091065</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6273294.992720635</v>
+        <v>6273294.992720637</v>
       </c>
     </row>
     <row r="11">
@@ -658,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>404.6410012660961</v>
+        <v>62.62271064857725</v>
       </c>
       <c r="H2" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,22 +712,22 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>331.0080936746681</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="3">
@@ -758,7 +758,7 @@
         <v>70.03974083464111</v>
       </c>
       <c r="I3" t="n">
-        <v>20.54110546596223</v>
+        <v>20.54110546596236</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -797,7 +797,7 @@
         <v>195.3773027531635</v>
       </c>
       <c r="V3" t="n">
-        <v>211.5744117368963</v>
+        <v>211.5744117368965</v>
       </c>
       <c r="W3" t="n">
         <v>211.1008365810345</v>
@@ -816,28 +816,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>164.5175082466428</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C4" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D4" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -867,19 +867,19 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>146.9758877363231</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V4" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>406.1189678678446</v>
+        <v>72.10471466368477</v>
       </c>
       <c r="C5" t="n">
         <v>406.0233447798626</v>
@@ -910,7 +910,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -946,10 +946,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -961,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>11.89439304893054</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y5" t="n">
         <v>396.9273063213908</v>
@@ -1101,10 +1101,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>237.1532516330649</v>
@@ -1119,10 +1119,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X7" t="n">
-        <v>180.6077930059085</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>213.5952110672383</v>
       </c>
     </row>
     <row r="8">
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>400.41929060787</v>
+        <v>47.16604025067073</v>
       </c>
       <c r="E8" t="n">
         <v>410.1968133282722</v>
       </c>
       <c r="F8" t="n">
-        <v>6.338580986754317</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,10 +1183,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1293,22 +1293,22 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C10" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>106.1194605417152</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1344,19 +1344,19 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>177.0054434986738</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y10" t="n">
         <v>222.4883416251229</v>
@@ -1369,13 +1369,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>406.0233447798626</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -1384,10 +1384,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>278.3854192029605</v>
+        <v>72.10471466368475</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1423,7 +1423,7 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -1435,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y11" t="n">
         <v>396.9273063213908</v>
@@ -1548,7 +1548,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>237.1532516330649</v>
@@ -1590,13 +1590,13 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W13" t="n">
-        <v>276.2789678462144</v>
+        <v>267.3858372883298</v>
       </c>
       <c r="X13" t="n">
-        <v>149.8451987105457</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="14">
@@ -1609,22 +1609,22 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>393.9470907639069</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>416.8201079258493</v>
       </c>
       <c r="G14" t="n">
-        <v>404.6410012660961</v>
+        <v>346.6630339611676</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,16 +1657,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1818,7 +1818,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>228.2601210751802</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U16" t="n">
         <v>279.9701659793371</v>
@@ -1833,7 +1833,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y16" t="n">
-        <v>222.4883416251229</v>
+        <v>213.5952110672383</v>
       </c>
     </row>
     <row r="17">
@@ -1843,10 +1843,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>388.3430365919143</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C17" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -1858,13 +1858,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G17" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1897,7 +1897,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -1906,10 +1906,10 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>107.4930526451387</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2052,10 +2052,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T19" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>279.9701659793371</v>
@@ -2064,13 +2064,13 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W19" t="n">
-        <v>276.2789678462144</v>
+        <v>134.1885291524017</v>
       </c>
       <c r="X19" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y19" t="n">
-        <v>213.5952110672383</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="20">
@@ -2080,28 +2080,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>410.1968133282722</v>
       </c>
       <c r="F20" t="n">
-        <v>403.2658873081451</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>36.81096634743668</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2134,16 +2134,16 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -2238,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>114.0911530820968</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -2295,19 +2295,19 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>213.5952110672383</v>
       </c>
     </row>
     <row r="23">
@@ -2317,13 +2317,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>392.5647472501408</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E23" t="n">
         <v>410.1968133282722</v>
@@ -2332,7 +2332,7 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G23" t="n">
-        <v>25.52041460756234</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2380,13 +2380,13 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2475,25 +2475,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>106.1194605417152</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2526,25 +2526,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y25" t="n">
-        <v>222.4883416251229</v>
+        <v>213.5952110672383</v>
       </c>
     </row>
     <row r="26">
@@ -2557,25 +2557,25 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C26" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>10.37737086292159</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,25 +2605,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W26" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>179.0501159571496</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,28 +2760,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S28" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y28" t="n">
-        <v>65.31383608752412</v>
+        <v>129.1752199258839</v>
       </c>
     </row>
     <row r="29">
@@ -2791,16 +2791,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>19.89843046228963</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -2809,7 +2809,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2845,16 +2845,16 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>358.3370229898143</v>
       </c>
       <c r="X29" t="n">
         <v>396.636963852737</v>
@@ -2955,22 +2955,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>61.29526474944497</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>237.1532516330649</v>
@@ -3009,16 +3009,16 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>213.5952110672383</v>
       </c>
     </row>
     <row r="32">
@@ -3028,13 +3028,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>392.5647472501403</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C32" t="n">
         <v>406.0233447798626</v>
       </c>
       <c r="D32" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>410.1968133282722</v>
@@ -3043,7 +3043,7 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>32.95238632371646</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3079,10 +3079,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -3316,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>32.95238632371637</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -3331,7 +3331,7 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>386.8650699901659</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3423,13 +3423,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>153.0251390105128</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3477,10 +3477,10 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V37" t="n">
         <v>271.1468876098733</v>
@@ -3492,7 +3492,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y37" t="n">
-        <v>222.4883416251229</v>
+        <v>213.5952110672383</v>
       </c>
     </row>
     <row r="38">
@@ -3505,10 +3505,10 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>400.41929060787</v>
+        <v>120.5614021632833</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -3517,13 +3517,13 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I38" t="n">
-        <v>21.37639706403803</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3556,19 +3556,19 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X38" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>396.9273063213908</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>29.06736062834963</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>237.1532516330649</v>
@@ -3729,7 +3729,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>213.5952110672383</v>
       </c>
     </row>
     <row r="41">
@@ -3748,19 +3748,19 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G41" t="n">
-        <v>112.9104992901431</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H41" t="n">
         <v>307.7994123985592</v>
       </c>
       <c r="I41" t="n">
-        <v>85.48824505609757</v>
+        <v>12.09266293752358</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3793,22 +3793,22 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V41" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3903,7 +3903,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3951,7 +3951,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>70.36042284486109</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U43" t="n">
         <v>279.9701659793371</v>
@@ -3966,7 +3966,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y43" t="n">
-        <v>222.4883416251229</v>
+        <v>213.5952110672383</v>
       </c>
     </row>
     <row r="44">
@@ -3988,16 +3988,16 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H44" t="n">
-        <v>294.7228925766556</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>75.95029714891172</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>219.9844192126098</v>
@@ -4039,10 +4039,10 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W44" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -4140,22 +4140,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>44.2511305839636</v>
       </c>
       <c r="H46" t="n">
-        <v>113.0775356384632</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U46" t="n">
         <v>279.9701659793371</v>
@@ -4200,10 +4200,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X46" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,49 +4306,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1268.784041838291</v>
+        <v>919.6088695046626</v>
       </c>
       <c r="C2" t="n">
-        <v>1268.784041838291</v>
+        <v>509.4842788179327</v>
       </c>
       <c r="D2" t="n">
-        <v>1268.784041838291</v>
+        <v>105.0203489109932</v>
       </c>
       <c r="E2" t="n">
-        <v>1268.784041838291</v>
+        <v>105.0203489109932</v>
       </c>
       <c r="F2" t="n">
-        <v>847.7536297919787</v>
+        <v>105.0203489109932</v>
       </c>
       <c r="G2" t="n">
-        <v>439.0253456848109</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H2" t="n">
-        <v>128.1168483125289</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J2" t="n">
         <v>295.9505570973564</v>
       </c>
       <c r="K2" t="n">
-        <v>812.7934917636815</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="L2" t="n">
-        <v>812.7934917636815</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="M2" t="n">
-        <v>812.7934917636815</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="N2" t="n">
-        <v>1014.011766457887</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="O2" t="n">
-        <v>1530.854701124212</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="P2" t="n">
-        <v>2047.697635790537</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="Q2" t="n">
         <v>2047.697635790537</v>
@@ -4360,22 +4360,22 @@
         <v>1952.973206274203</v>
       </c>
       <c r="T2" t="n">
-        <v>1952.973206274203</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="U2" t="n">
-        <v>1952.973206274203</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="V2" t="n">
-        <v>1603.135651610683</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="W2" t="n">
-        <v>1268.784041838291</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="X2" t="n">
-        <v>1268.784041838291</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="Y2" t="n">
-        <v>1268.784041838291</v>
+        <v>1329.830049169152</v>
       </c>
     </row>
     <row r="3">
@@ -4385,52 +4385,52 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>720.5959275161365</v>
+        <v>720.5959275161366</v>
       </c>
       <c r="C3" t="n">
-        <v>586.6008562650821</v>
+        <v>586.6008562650823</v>
       </c>
       <c r="D3" t="n">
-        <v>469.7036984844746</v>
+        <v>469.7036984844747</v>
       </c>
       <c r="E3" t="n">
-        <v>349.2108824768026</v>
+        <v>349.2108824768027</v>
       </c>
       <c r="F3" t="n">
-        <v>240.2510026593071</v>
+        <v>240.2510026593073</v>
       </c>
       <c r="G3" t="n">
-        <v>133.2608899736458</v>
+        <v>133.260889973646</v>
       </c>
       <c r="H3" t="n">
-        <v>62.51367700936186</v>
+        <v>62.51367700936201</v>
       </c>
       <c r="I3" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J3" t="n">
         <v>234.5779431922353</v>
       </c>
       <c r="K3" t="n">
-        <v>234.5779431922353</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L3" t="n">
-        <v>234.5779431922353</v>
+        <v>690.384199457534</v>
       </c>
       <c r="M3" t="n">
-        <v>751.4208778585604</v>
+        <v>704.7239474634683</v>
       </c>
       <c r="N3" t="n">
-        <v>1025.008892784821</v>
+        <v>1221.566882129794</v>
       </c>
       <c r="O3" t="n">
-        <v>1541.851827451147</v>
+        <v>1221.566882129794</v>
       </c>
       <c r="P3" t="n">
-        <v>2058.694762117472</v>
+        <v>1738.409816796119</v>
       </c>
       <c r="Q3" t="n">
-        <v>2058.694762117472</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R3" t="n">
         <v>2088.254281480102</v>
@@ -4442,19 +4442,19 @@
         <v>1820.922407781419</v>
       </c>
       <c r="U3" t="n">
-        <v>1623.571596919637</v>
+        <v>1623.571596919638</v>
       </c>
       <c r="V3" t="n">
-        <v>1409.860069912671</v>
+        <v>1409.860069912672</v>
       </c>
       <c r="W3" t="n">
-        <v>1196.626901649</v>
+        <v>1196.626901649001</v>
       </c>
       <c r="X3" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y3" t="n">
-        <v>860.8989601517231</v>
+        <v>860.8989601517233</v>
       </c>
     </row>
     <row r="4">
@@ -4464,34 +4464,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1131.098935930739</v>
+        <v>212.8584580678856</v>
       </c>
       <c r="C4" t="n">
-        <v>960.0055634924552</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D4" t="n">
-        <v>800.5109188153651</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E4" t="n">
-        <v>639.6001036836846</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F4" t="n">
-        <v>474.9689777942758</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G4" t="n">
-        <v>307.7185867198192</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H4" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I4" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J4" t="n">
-        <v>55.84763503481255</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K4" t="n">
-        <v>210.3999627570505</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L4" t="n">
         <v>470.2970630371111</v>
@@ -4515,25 +4515,25 @@
         <v>1571.163982250452</v>
       </c>
       <c r="S4" t="n">
-        <v>1571.163982250452</v>
+        <v>1384.772214130362</v>
       </c>
       <c r="T4" t="n">
-        <v>1571.163982250452</v>
+        <v>1236.311721467409</v>
       </c>
       <c r="U4" t="n">
-        <v>1571.163982250452</v>
+        <v>953.5135740135336</v>
       </c>
       <c r="V4" t="n">
-        <v>1297.278237189974</v>
+        <v>679.6278289530555</v>
       </c>
       <c r="W4" t="n">
-        <v>1297.278237189974</v>
+        <v>400.5581644619299</v>
       </c>
       <c r="X4" t="n">
-        <v>1297.278237189974</v>
+        <v>400.5581644619299</v>
       </c>
       <c r="Y4" t="n">
-        <v>1297.278237189974</v>
+        <v>400.5581644619299</v>
       </c>
     </row>
     <row r="5">
@@ -4543,43 +4543,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1265.081890330439</v>
+        <v>856.3536062232714</v>
       </c>
       <c r="C5" t="n">
-        <v>854.9572996437093</v>
+        <v>446.2290155365415</v>
       </c>
       <c r="D5" t="n">
-        <v>450.4933697367699</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E5" t="n">
-        <v>450.4933697367699</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F5" t="n">
-        <v>450.4933697367699</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G5" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H5" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J5" t="n">
         <v>295.9505570973564</v>
       </c>
       <c r="K5" t="n">
-        <v>812.7934917636815</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="L5" t="n">
-        <v>1014.011766457887</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="M5" t="n">
-        <v>1014.011766457887</v>
+        <v>1846.479361096332</v>
       </c>
       <c r="N5" t="n">
-        <v>1530.854701124212</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="O5" t="n">
         <v>2047.697635790537</v>
@@ -4594,25 +4594,25 @@
         <v>2088.254281480102</v>
       </c>
       <c r="S5" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T5" t="n">
-        <v>2088.254281480102</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="U5" t="n">
-        <v>2088.254281480102</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="V5" t="n">
-        <v>2088.254281480102</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="W5" t="n">
-        <v>2088.254281480102</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="X5" t="n">
-        <v>2076.239743046839</v>
+        <v>1330.123324390014</v>
       </c>
       <c r="Y5" t="n">
-        <v>1675.303069994929</v>
+        <v>929.1866513381045</v>
       </c>
     </row>
     <row r="6">
@@ -4622,28 +4622,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>720.5959275161363</v>
+        <v>720.5959275161366</v>
       </c>
       <c r="C6" t="n">
-        <v>586.600856265082</v>
+        <v>586.6008562650824</v>
       </c>
       <c r="D6" t="n">
-        <v>469.7036984844745</v>
+        <v>469.7036984844747</v>
       </c>
       <c r="E6" t="n">
-        <v>349.2108824768025</v>
+        <v>349.2108824768027</v>
       </c>
       <c r="F6" t="n">
-        <v>240.2510026593071</v>
+        <v>240.2510026593072</v>
       </c>
       <c r="G6" t="n">
-        <v>133.2608899736458</v>
+        <v>133.260889973646</v>
       </c>
       <c r="H6" t="n">
-        <v>62.51367700936186</v>
+        <v>62.51367700936203</v>
       </c>
       <c r="I6" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J6" t="n">
         <v>234.5779431922353</v>
@@ -4652,19 +4652,19 @@
         <v>690.384199457534</v>
       </c>
       <c r="L6" t="n">
-        <v>1207.227134123859</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="M6" t="n">
-        <v>1541.851827451147</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="N6" t="n">
-        <v>1541.851827451147</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="O6" t="n">
-        <v>2058.694762117472</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="P6" t="n">
-        <v>2058.694762117472</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="Q6" t="n">
         <v>2058.694762117472</v>
@@ -4682,16 +4682,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V6" t="n">
-        <v>1409.860069912671</v>
+        <v>1409.860069912672</v>
       </c>
       <c r="W6" t="n">
-        <v>1196.626901649</v>
+        <v>1196.626901649001</v>
       </c>
       <c r="X6" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y6" t="n">
-        <v>860.8989601517229</v>
+        <v>860.8989601517233</v>
       </c>
     </row>
     <row r="7">
@@ -4701,34 +4701,34 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="C7" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D7" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E7" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F7" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G7" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H7" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I7" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J7" t="n">
-        <v>55.84763503481255</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K7" t="n">
-        <v>210.3999627570505</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L7" t="n">
         <v>470.2970630371111</v>
@@ -4749,28 +4749,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R7" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S7" t="n">
-        <v>1299.499495805762</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T7" t="n">
-        <v>1059.950756782464</v>
+        <v>1331.615243227154</v>
       </c>
       <c r="U7" t="n">
-        <v>777.1526093285881</v>
+        <v>1048.817095773278</v>
       </c>
       <c r="V7" t="n">
-        <v>503.2668642681101</v>
+        <v>774.9313507128002</v>
       </c>
       <c r="W7" t="n">
-        <v>224.1971997769844</v>
+        <v>495.8616862216745</v>
       </c>
       <c r="X7" t="n">
-        <v>41.76508562960203</v>
+        <v>257.5178240813579</v>
       </c>
       <c r="Y7" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
     </row>
     <row r="8">
@@ -4780,49 +4780,49 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1277.096428763702</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="C8" t="n">
-        <v>866.9718380769724</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="D8" t="n">
-        <v>462.5079081700329</v>
+        <v>1683.124257321394</v>
       </c>
       <c r="E8" t="n">
-        <v>48.16769268692963</v>
+        <v>1268.784041838291</v>
       </c>
       <c r="F8" t="n">
-        <v>41.76508562960203</v>
+        <v>847.7536297919787</v>
       </c>
       <c r="G8" t="n">
-        <v>41.76508562960203</v>
+        <v>439.0253456848109</v>
       </c>
       <c r="H8" t="n">
-        <v>41.76508562960203</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="I8" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J8" t="n">
-        <v>41.76508562960203</v>
+        <v>216.5644706858345</v>
       </c>
       <c r="K8" t="n">
-        <v>41.76508562960203</v>
+        <v>733.4074053521598</v>
       </c>
       <c r="L8" t="n">
-        <v>558.6080202959272</v>
+        <v>1250.250340018485</v>
       </c>
       <c r="M8" t="n">
-        <v>1075.450954962252</v>
+        <v>1250.250340018485</v>
       </c>
       <c r="N8" t="n">
-        <v>1592.293889628578</v>
+        <v>1250.250340018485</v>
       </c>
       <c r="O8" t="n">
-        <v>2088.254281480102</v>
+        <v>1250.250340018485</v>
       </c>
       <c r="P8" t="n">
-        <v>2088.254281480102</v>
+        <v>1767.09327468481</v>
       </c>
       <c r="Q8" t="n">
         <v>2088.254281480102</v>
@@ -4831,25 +4831,25 @@
         <v>2088.254281480102</v>
       </c>
       <c r="S8" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T8" t="n">
-        <v>2088.254281480102</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="U8" t="n">
-        <v>2088.254281480102</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="V8" t="n">
-        <v>2088.254281480102</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="W8" t="n">
-        <v>2088.254281480102</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="X8" t="n">
-        <v>2088.254281480102</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="Y8" t="n">
-        <v>1687.317608428192</v>
+        <v>1730.766722221062</v>
       </c>
     </row>
     <row r="9">
@@ -4877,34 +4877,34 @@
         <v>133.2608899736458</v>
       </c>
       <c r="H9" t="n">
-        <v>62.51367700936186</v>
+        <v>62.51367700936187</v>
       </c>
       <c r="I9" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J9" t="n">
-        <v>41.76508562960203</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K9" t="n">
-        <v>41.76508562960203</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L9" t="n">
-        <v>558.6080202959272</v>
+        <v>1192.007362767163</v>
       </c>
       <c r="M9" t="n">
-        <v>1075.450954962252</v>
+        <v>1192.007362767163</v>
       </c>
       <c r="N9" t="n">
-        <v>1571.411346813777</v>
+        <v>1192.007362767163</v>
       </c>
       <c r="O9" t="n">
-        <v>2088.254281480102</v>
+        <v>1192.007362767163</v>
       </c>
       <c r="P9" t="n">
-        <v>2088.254281480102</v>
+        <v>1708.850297433488</v>
       </c>
       <c r="Q9" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R9" t="n">
         <v>2088.254281480102</v>
@@ -4938,34 +4938,34 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>972.3368091250823</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="C10" t="n">
-        <v>801.2434366867988</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D10" t="n">
-        <v>641.7487920097087</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E10" t="n">
-        <v>480.8379768780282</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F10" t="n">
-        <v>316.2068509886195</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G10" t="n">
-        <v>148.9564599141629</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H10" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I10" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J10" t="n">
-        <v>55.84763503481255</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K10" t="n">
-        <v>210.3999627570505</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L10" t="n">
         <v>470.2970630371111</v>
@@ -4992,22 +4992,22 @@
         <v>1384.772214130362</v>
       </c>
       <c r="T10" t="n">
-        <v>1384.772214130362</v>
+        <v>1145.223475107064</v>
       </c>
       <c r="U10" t="n">
-        <v>1384.772214130362</v>
+        <v>1145.223475107064</v>
       </c>
       <c r="V10" t="n">
-        <v>1384.772214130362</v>
+        <v>871.3377300465861</v>
       </c>
       <c r="W10" t="n">
-        <v>1384.772214130362</v>
+        <v>692.5443527751984</v>
       </c>
       <c r="X10" t="n">
-        <v>1384.772214130362</v>
+        <v>454.2004906348818</v>
       </c>
       <c r="Y10" t="n">
-        <v>1160.036515519127</v>
+        <v>229.4647920236465</v>
       </c>
     </row>
     <row r="11">
@@ -5017,43 +5017,43 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1141.815353557803</v>
+        <v>929.1866513381045</v>
       </c>
       <c r="C11" t="n">
-        <v>731.6907628710734</v>
+        <v>519.0620606513746</v>
       </c>
       <c r="D11" t="n">
-        <v>731.6907628710734</v>
+        <v>114.5981307444351</v>
       </c>
       <c r="E11" t="n">
-        <v>731.6907628710734</v>
+        <v>114.5981307444351</v>
       </c>
       <c r="F11" t="n">
-        <v>731.6907628710734</v>
+        <v>114.5981307444351</v>
       </c>
       <c r="G11" t="n">
-        <v>322.9624787639056</v>
+        <v>114.5981307444351</v>
       </c>
       <c r="H11" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I11" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J11" t="n">
-        <v>295.9505570973564</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K11" t="n">
-        <v>295.9505570973564</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="L11" t="n">
-        <v>812.7934917636815</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="M11" t="n">
-        <v>1329.636426430007</v>
+        <v>1054.568412147452</v>
       </c>
       <c r="N11" t="n">
-        <v>1846.479361096332</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="O11" t="n">
         <v>2088.254281480102</v>
@@ -5071,22 +5071,22 @@
         <v>1952.973206274203</v>
       </c>
       <c r="T11" t="n">
-        <v>1952.973206274203</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="U11" t="n">
-        <v>1952.973206274203</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="V11" t="n">
-        <v>1952.973206274203</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="W11" t="n">
-        <v>1952.973206274203</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="X11" t="n">
-        <v>1952.973206274203</v>
+        <v>1330.123324390014</v>
       </c>
       <c r="Y11" t="n">
-        <v>1552.036533222293</v>
+        <v>929.1866513381045</v>
       </c>
     </row>
     <row r="12">
@@ -5114,31 +5114,31 @@
         <v>133.2608899736458</v>
       </c>
       <c r="H12" t="n">
-        <v>62.51367700936186</v>
+        <v>62.51367700936187</v>
       </c>
       <c r="I12" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J12" t="n">
-        <v>41.76508562960203</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K12" t="n">
-        <v>41.76508562960203</v>
+        <v>675.1644281008379</v>
       </c>
       <c r="L12" t="n">
-        <v>558.6080202959272</v>
+        <v>675.1644281008379</v>
       </c>
       <c r="M12" t="n">
-        <v>1025.008892784821</v>
+        <v>1192.007362767163</v>
       </c>
       <c r="N12" t="n">
-        <v>1541.851827451147</v>
+        <v>1192.007362767163</v>
       </c>
       <c r="O12" t="n">
-        <v>2058.694762117472</v>
+        <v>1192.007362767163</v>
       </c>
       <c r="P12" t="n">
-        <v>2058.694762117472</v>
+        <v>1708.850297433488</v>
       </c>
       <c r="Q12" t="n">
         <v>2058.694762117472</v>
@@ -5175,34 +5175,34 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="C13" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D13" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E13" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F13" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G13" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H13" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I13" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J13" t="n">
-        <v>55.84763503481255</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K13" t="n">
-        <v>210.3999627570505</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L13" t="n">
         <v>470.2970630371111</v>
@@ -5226,25 +5226,25 @@
         <v>1571.163982250452</v>
       </c>
       <c r="S13" t="n">
-        <v>1384.772214130362</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T13" t="n">
-        <v>1145.223475107064</v>
+        <v>1331.615243227154</v>
       </c>
       <c r="U13" t="n">
-        <v>862.4253276531883</v>
+        <v>1048.817095773278</v>
       </c>
       <c r="V13" t="n">
-        <v>588.5395825927103</v>
+        <v>774.9313507128002</v>
       </c>
       <c r="W13" t="n">
-        <v>309.4699181015847</v>
+        <v>504.844646381154</v>
       </c>
       <c r="X13" t="n">
-        <v>158.1111315252759</v>
+        <v>266.5007842408373</v>
       </c>
       <c r="Y13" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
     </row>
     <row r="14">
@@ -5254,49 +5254,49 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2088.254281480102</v>
+        <v>1123.868675817053</v>
       </c>
       <c r="C14" t="n">
-        <v>1690.327927173125</v>
+        <v>1123.868675817053</v>
       </c>
       <c r="D14" t="n">
-        <v>1285.863997266186</v>
+        <v>1123.868675817053</v>
       </c>
       <c r="E14" t="n">
-        <v>871.5237817830823</v>
+        <v>1123.868675817053</v>
       </c>
       <c r="F14" t="n">
-        <v>450.4933697367699</v>
+        <v>702.8382637707402</v>
       </c>
       <c r="G14" t="n">
-        <v>41.76508562960203</v>
+        <v>352.673583001884</v>
       </c>
       <c r="H14" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I14" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J14" t="n">
-        <v>41.76508562960203</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K14" t="n">
-        <v>41.76508562960203</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="L14" t="n">
-        <v>558.6080202959272</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="M14" t="n">
-        <v>1075.450954962252</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="N14" t="n">
-        <v>1592.293889628578</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="O14" t="n">
-        <v>2047.697635790537</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="P14" t="n">
-        <v>2047.697635790537</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="Q14" t="n">
         <v>2047.697635790537</v>
@@ -5305,25 +5305,25 @@
         <v>2088.254281480102</v>
       </c>
       <c r="S14" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T14" t="n">
-        <v>2088.254281480102</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="U14" t="n">
-        <v>2088.254281480102</v>
+        <v>1473.706230480572</v>
       </c>
       <c r="V14" t="n">
-        <v>2088.254281480102</v>
+        <v>1123.868675817053</v>
       </c>
       <c r="W14" t="n">
-        <v>2088.254281480102</v>
+        <v>1123.868675817053</v>
       </c>
       <c r="X14" t="n">
-        <v>2088.254281480102</v>
+        <v>1123.868675817053</v>
       </c>
       <c r="Y14" t="n">
-        <v>2088.254281480102</v>
+        <v>1123.868675817053</v>
       </c>
     </row>
     <row r="15">
@@ -5354,28 +5354,28 @@
         <v>62.51367700936187</v>
       </c>
       <c r="I15" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J15" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K15" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="L15" t="n">
-        <v>508.1659581184963</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="M15" t="n">
-        <v>1025.008892784821</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="N15" t="n">
-        <v>1541.851827451147</v>
+        <v>675.1644281008379</v>
       </c>
       <c r="O15" t="n">
-        <v>2058.694762117472</v>
+        <v>1192.007362767163</v>
       </c>
       <c r="P15" t="n">
-        <v>2058.694762117472</v>
+        <v>1708.850297433488</v>
       </c>
       <c r="Q15" t="n">
         <v>2058.694762117472</v>
@@ -5412,34 +5412,34 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="C16" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D16" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E16" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F16" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G16" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H16" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I16" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J16" t="n">
-        <v>55.84763503481255</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K16" t="n">
-        <v>210.3999627570505</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L16" t="n">
         <v>470.2970630371111</v>
@@ -5466,22 +5466,22 @@
         <v>1571.163982250452</v>
       </c>
       <c r="T16" t="n">
-        <v>1340.598203386633</v>
+        <v>1331.615243227154</v>
       </c>
       <c r="U16" t="n">
-        <v>1057.800055932758</v>
+        <v>1048.817095773278</v>
       </c>
       <c r="V16" t="n">
-        <v>783.9143108722797</v>
+        <v>774.9313507128002</v>
       </c>
       <c r="W16" t="n">
-        <v>504.844646381154</v>
+        <v>495.8616862216745</v>
       </c>
       <c r="X16" t="n">
-        <v>266.5007842408373</v>
+        <v>257.5178240813579</v>
       </c>
       <c r="Y16" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
     </row>
     <row r="17">
@@ -5491,43 +5491,43 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1695.988587952916</v>
+        <v>963.4874758419446</v>
       </c>
       <c r="C17" t="n">
-        <v>1285.863997266186</v>
+        <v>963.4874758419446</v>
       </c>
       <c r="D17" t="n">
-        <v>1285.863997266186</v>
+        <v>963.4874758419446</v>
       </c>
       <c r="E17" t="n">
-        <v>871.5237817830823</v>
+        <v>549.1472603588413</v>
       </c>
       <c r="F17" t="n">
-        <v>450.4933697367699</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="G17" t="n">
-        <v>41.76508562960203</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="H17" t="n">
-        <v>41.76508562960203</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="I17" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J17" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K17" t="n">
-        <v>41.76508562960203</v>
+        <v>537.7254774811266</v>
       </c>
       <c r="L17" t="n">
-        <v>558.6080202959272</v>
+        <v>1054.568412147452</v>
       </c>
       <c r="M17" t="n">
-        <v>1075.450954962252</v>
+        <v>1054.568412147452</v>
       </c>
       <c r="N17" t="n">
-        <v>1592.293889628578</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="O17" t="n">
         <v>2088.254281480102</v>
@@ -5545,22 +5545,22 @@
         <v>2088.254281480102</v>
       </c>
       <c r="T17" t="n">
-        <v>2088.254281480102</v>
+        <v>1866.047797426961</v>
       </c>
       <c r="U17" t="n">
-        <v>2088.254281480102</v>
+        <v>1866.047797426961</v>
       </c>
       <c r="V17" t="n">
-        <v>2088.254281480102</v>
+        <v>1866.047797426961</v>
       </c>
       <c r="W17" t="n">
-        <v>2088.254281480102</v>
+        <v>1482.28749656213</v>
       </c>
       <c r="X17" t="n">
-        <v>2088.254281480102</v>
+        <v>1373.708655506434</v>
       </c>
       <c r="Y17" t="n">
-        <v>2088.254281480102</v>
+        <v>1373.708655506434</v>
       </c>
     </row>
     <row r="18">
@@ -5570,52 +5570,52 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>720.5959275161365</v>
+        <v>720.5959275161366</v>
       </c>
       <c r="C18" t="n">
-        <v>586.6008562650821</v>
+        <v>586.6008562650824</v>
       </c>
       <c r="D18" t="n">
-        <v>469.7036984844746</v>
+        <v>469.7036984844747</v>
       </c>
       <c r="E18" t="n">
-        <v>349.2108824768026</v>
+        <v>349.2108824768027</v>
       </c>
       <c r="F18" t="n">
-        <v>240.2510026593071</v>
+        <v>240.2510026593072</v>
       </c>
       <c r="G18" t="n">
-        <v>133.2608899736458</v>
+        <v>133.260889973646</v>
       </c>
       <c r="H18" t="n">
-        <v>62.51367700936186</v>
+        <v>62.51367700936203</v>
       </c>
       <c r="I18" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J18" t="n">
-        <v>41.76508562960203</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K18" t="n">
-        <v>497.5713418949007</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L18" t="n">
-        <v>1014.414276561226</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="M18" t="n">
-        <v>1014.414276561226</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="N18" t="n">
-        <v>1054.568412147451</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="O18" t="n">
-        <v>1571.411346813777</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="P18" t="n">
-        <v>2088.254281480102</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="Q18" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R18" t="n">
         <v>2088.254281480102</v>
@@ -5630,16 +5630,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V18" t="n">
-        <v>1409.860069912671</v>
+        <v>1409.860069912672</v>
       </c>
       <c r="W18" t="n">
-        <v>1196.626901649</v>
+        <v>1196.626901649001</v>
       </c>
       <c r="X18" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y18" t="n">
-        <v>860.8989601517231</v>
+        <v>860.8989601517233</v>
       </c>
     </row>
     <row r="19">
@@ -5649,34 +5649,34 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="C19" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D19" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E19" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F19" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G19" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H19" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I19" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J19" t="n">
-        <v>55.84763503481255</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K19" t="n">
-        <v>210.3999627570505</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L19" t="n">
         <v>470.2970630371111</v>
@@ -5700,25 +5700,25 @@
         <v>1571.163982250452</v>
       </c>
       <c r="S19" t="n">
-        <v>1571.163982250452</v>
+        <v>1384.772214130362</v>
       </c>
       <c r="T19" t="n">
-        <v>1331.615243227154</v>
+        <v>1384.772214130362</v>
       </c>
       <c r="U19" t="n">
-        <v>1048.817095773278</v>
+        <v>1101.974066676486</v>
       </c>
       <c r="V19" t="n">
-        <v>774.9313507128002</v>
+        <v>828.0883216160082</v>
       </c>
       <c r="W19" t="n">
-        <v>495.8616862216745</v>
+        <v>692.5443527751984</v>
       </c>
       <c r="X19" t="n">
-        <v>257.5178240813579</v>
+        <v>454.2004906348818</v>
       </c>
       <c r="Y19" t="n">
-        <v>41.76508562960203</v>
+        <v>229.4647920236465</v>
       </c>
     </row>
     <row r="20">
@@ -5728,52 +5728,52 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1678.033101815612</v>
+        <v>1225.22700482164</v>
       </c>
       <c r="C20" t="n">
-        <v>1267.908511128882</v>
+        <v>1225.22700482164</v>
       </c>
       <c r="D20" t="n">
-        <v>863.4445812219428</v>
+        <v>1225.22700482164</v>
       </c>
       <c r="E20" t="n">
-        <v>449.1043657388395</v>
+        <v>810.8867893385366</v>
       </c>
       <c r="F20" t="n">
-        <v>41.76508562960203</v>
+        <v>389.8563772922241</v>
       </c>
       <c r="G20" t="n">
-        <v>41.76508562960203</v>
+        <v>389.8563772922241</v>
       </c>
       <c r="H20" t="n">
-        <v>41.76508562960203</v>
+        <v>78.94787991994212</v>
       </c>
       <c r="I20" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J20" t="n">
-        <v>41.76508562960203</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K20" t="n">
-        <v>41.76508562960203</v>
+        <v>692.8507596625949</v>
       </c>
       <c r="L20" t="n">
-        <v>558.6080202959272</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="M20" t="n">
-        <v>1054.568412147451</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="N20" t="n">
-        <v>1571.411346813777</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="O20" t="n">
-        <v>2088.254281480102</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="P20" t="n">
-        <v>2088.254281480102</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="Q20" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="R20" t="n">
         <v>2088.254281480102</v>
@@ -5782,22 +5782,22 @@
         <v>2088.254281480102</v>
       </c>
       <c r="T20" t="n">
-        <v>2088.254281480102</v>
+        <v>1866.047797426961</v>
       </c>
       <c r="U20" t="n">
-        <v>2088.254281480102</v>
+        <v>1608.987305686471</v>
       </c>
       <c r="V20" t="n">
-        <v>2088.254281480102</v>
+        <v>1608.987305686471</v>
       </c>
       <c r="W20" t="n">
-        <v>2088.254281480102</v>
+        <v>1225.22700482164</v>
       </c>
       <c r="X20" t="n">
-        <v>2088.254281480102</v>
+        <v>1225.22700482164</v>
       </c>
       <c r="Y20" t="n">
-        <v>2088.254281480102</v>
+        <v>1225.22700482164</v>
       </c>
     </row>
     <row r="21">
@@ -5825,10 +5825,10 @@
         <v>133.2608899736458</v>
       </c>
       <c r="H21" t="n">
-        <v>62.51367700936186</v>
+        <v>62.51367700936187</v>
       </c>
       <c r="I21" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J21" t="n">
         <v>234.5779431922353</v>
@@ -5837,22 +5837,22 @@
         <v>690.384199457534</v>
       </c>
       <c r="L21" t="n">
-        <v>690.384199457534</v>
+        <v>1192.007362767163</v>
       </c>
       <c r="M21" t="n">
-        <v>1207.227134123859</v>
+        <v>1708.850297433488</v>
       </c>
       <c r="N21" t="n">
-        <v>1207.227134123859</v>
+        <v>1708.850297433488</v>
       </c>
       <c r="O21" t="n">
-        <v>1207.227134123859</v>
+        <v>1708.850297433488</v>
       </c>
       <c r="P21" t="n">
-        <v>1724.070068790184</v>
+        <v>1708.850297433488</v>
       </c>
       <c r="Q21" t="n">
-        <v>2073.914533474168</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R21" t="n">
         <v>2088.254281480102</v>
@@ -5886,34 +5886,34 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1131.098935930739</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="C22" t="n">
-        <v>960.0055634924552</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D22" t="n">
-        <v>800.5109188153651</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E22" t="n">
-        <v>639.6001036836846</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F22" t="n">
-        <v>474.9689777942758</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G22" t="n">
-        <v>307.7185867198192</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H22" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I22" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J22" t="n">
-        <v>55.84763503481255</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K22" t="n">
-        <v>210.3999627570505</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L22" t="n">
         <v>470.2970630371111</v>
@@ -5934,28 +5934,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R22" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S22" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T22" t="n">
-        <v>1246.342524902554</v>
+        <v>1331.615243227154</v>
       </c>
       <c r="U22" t="n">
-        <v>1246.342524902554</v>
+        <v>1048.817095773278</v>
       </c>
       <c r="V22" t="n">
-        <v>1246.342524902554</v>
+        <v>774.9313507128002</v>
       </c>
       <c r="W22" t="n">
-        <v>1246.342524902554</v>
+        <v>495.8616862216745</v>
       </c>
       <c r="X22" t="n">
-        <v>1246.342524902554</v>
+        <v>257.5178240813579</v>
       </c>
       <c r="Y22" t="n">
-        <v>1246.342524902554</v>
+        <v>41.76508562960205</v>
       </c>
     </row>
     <row r="23">
@@ -5965,52 +5965,52 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>902.9139097323131</v>
+        <v>1691.724233752687</v>
       </c>
       <c r="C23" t="n">
-        <v>902.9139097323131</v>
+        <v>1281.599643065957</v>
       </c>
       <c r="D23" t="n">
-        <v>902.9139097323131</v>
+        <v>877.1357131590178</v>
       </c>
       <c r="E23" t="n">
-        <v>488.5736942492098</v>
+        <v>462.7954976759145</v>
       </c>
       <c r="F23" t="n">
-        <v>67.54328220289733</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G23" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H23" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I23" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J23" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K23" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="L23" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="M23" t="n">
-        <v>558.6080202959272</v>
+        <v>537.7254774811266</v>
       </c>
       <c r="N23" t="n">
-        <v>692.8507596625946</v>
+        <v>1054.568412147452</v>
       </c>
       <c r="O23" t="n">
-        <v>1209.69369432892</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="P23" t="n">
-        <v>1726.536628995245</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q23" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R23" t="n">
         <v>2088.254281480102</v>
@@ -6028,13 +6028,13 @@
         <v>2088.254281480102</v>
       </c>
       <c r="W23" t="n">
-        <v>1704.49398061527</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="X23" t="n">
-        <v>1303.850582784223</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Y23" t="n">
-        <v>902.9139097323131</v>
+        <v>2088.254281480102</v>
       </c>
     </row>
     <row r="24">
@@ -6044,52 +6044,52 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>720.5959275161365</v>
+        <v>720.5959275161366</v>
       </c>
       <c r="C24" t="n">
-        <v>586.6008562650821</v>
+        <v>586.6008562650824</v>
       </c>
       <c r="D24" t="n">
-        <v>469.7036984844746</v>
+        <v>469.7036984844747</v>
       </c>
       <c r="E24" t="n">
-        <v>349.2108824768026</v>
+        <v>349.2108824768027</v>
       </c>
       <c r="F24" t="n">
-        <v>240.2510026593071</v>
+        <v>240.2510026593072</v>
       </c>
       <c r="G24" t="n">
-        <v>133.2608899736458</v>
+        <v>133.260889973646</v>
       </c>
       <c r="H24" t="n">
-        <v>62.51367700936186</v>
+        <v>62.51367700936203</v>
       </c>
       <c r="I24" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J24" t="n">
-        <v>41.76508562960203</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K24" t="n">
-        <v>41.76508562960203</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="L24" t="n">
-        <v>41.76508562960203</v>
+        <v>751.4208778585605</v>
       </c>
       <c r="M24" t="n">
-        <v>558.6080202959272</v>
+        <v>751.4208778585605</v>
       </c>
       <c r="N24" t="n">
-        <v>1075.450954962252</v>
+        <v>751.4208778585605</v>
       </c>
       <c r="O24" t="n">
-        <v>1592.293889628578</v>
+        <v>1268.263812524886</v>
       </c>
       <c r="P24" t="n">
-        <v>2088.254281480102</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="Q24" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R24" t="n">
         <v>2088.254281480102</v>
@@ -6104,16 +6104,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V24" t="n">
-        <v>1409.860069912671</v>
+        <v>1409.860069912672</v>
       </c>
       <c r="W24" t="n">
-        <v>1196.626901649</v>
+        <v>1196.626901649001</v>
       </c>
       <c r="X24" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y24" t="n">
-        <v>860.8989601517231</v>
+        <v>860.8989601517233</v>
       </c>
     </row>
     <row r="25">
@@ -6123,34 +6123,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>972.3368091250823</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="C25" t="n">
-        <v>801.2434366867988</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D25" t="n">
-        <v>641.7487920097087</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E25" t="n">
-        <v>480.8379768780282</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F25" t="n">
-        <v>316.2068509886195</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G25" t="n">
-        <v>148.9564599141629</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H25" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I25" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J25" t="n">
-        <v>55.84763503481255</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K25" t="n">
-        <v>210.3999627570505</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L25" t="n">
         <v>470.2970630371111</v>
@@ -6174,25 +6174,25 @@
         <v>1571.163982250452</v>
       </c>
       <c r="S25" t="n">
-        <v>1384.772214130362</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T25" t="n">
-        <v>1384.772214130362</v>
+        <v>1331.615243227154</v>
       </c>
       <c r="U25" t="n">
-        <v>1384.772214130362</v>
+        <v>1048.817095773278</v>
       </c>
       <c r="V25" t="n">
-        <v>1384.772214130362</v>
+        <v>774.9313507128002</v>
       </c>
       <c r="W25" t="n">
-        <v>1384.772214130362</v>
+        <v>495.8616862216745</v>
       </c>
       <c r="X25" t="n">
-        <v>1384.772214130362</v>
+        <v>257.5178240813579</v>
       </c>
       <c r="Y25" t="n">
-        <v>1160.036515519127</v>
+        <v>41.76508562960205</v>
       </c>
     </row>
     <row r="26">
@@ -6202,43 +6202,43 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>856.3536062232714</v>
+        <v>1192.914471946194</v>
       </c>
       <c r="C26" t="n">
-        <v>446.2290155365415</v>
+        <v>1192.914471946194</v>
       </c>
       <c r="D26" t="n">
-        <v>41.76508562960203</v>
+        <v>1192.914471946194</v>
       </c>
       <c r="E26" t="n">
-        <v>41.76508562960203</v>
+        <v>1192.914471946194</v>
       </c>
       <c r="F26" t="n">
-        <v>41.76508562960203</v>
+        <v>771.8840598998818</v>
       </c>
       <c r="G26" t="n">
-        <v>41.76508562960203</v>
+        <v>363.1557757927139</v>
       </c>
       <c r="H26" t="n">
-        <v>41.76508562960203</v>
+        <v>52.24727842043194</v>
       </c>
       <c r="I26" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J26" t="n">
-        <v>41.76508562960203</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K26" t="n">
-        <v>41.76508562960203</v>
+        <v>497.1688317915616</v>
       </c>
       <c r="L26" t="n">
-        <v>558.6080202959272</v>
+        <v>1014.011766457887</v>
       </c>
       <c r="M26" t="n">
-        <v>1075.450954962252</v>
+        <v>1530.854701124212</v>
       </c>
       <c r="N26" t="n">
-        <v>1592.293889628578</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="O26" t="n">
         <v>2047.697635790537</v>
@@ -6253,25 +6253,25 @@
         <v>2088.254281480102</v>
       </c>
       <c r="S26" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T26" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="U26" t="n">
-        <v>1831.193789739612</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="V26" t="n">
-        <v>1831.193789739612</v>
+        <v>1603.135651610684</v>
       </c>
       <c r="W26" t="n">
-        <v>1447.433488874781</v>
+        <v>1603.135651610684</v>
       </c>
       <c r="X26" t="n">
-        <v>1447.433488874781</v>
+        <v>1603.135651610684</v>
       </c>
       <c r="Y26" t="n">
-        <v>1266.574785887761</v>
+        <v>1603.135651610684</v>
       </c>
     </row>
     <row r="27">
@@ -6281,49 +6281,49 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>720.5959275161365</v>
+        <v>720.5959275161366</v>
       </c>
       <c r="C27" t="n">
-        <v>586.6008562650821</v>
+        <v>586.6008562650824</v>
       </c>
       <c r="D27" t="n">
-        <v>469.7036984844746</v>
+        <v>469.7036984844747</v>
       </c>
       <c r="E27" t="n">
-        <v>349.2108824768026</v>
+        <v>349.2108824768027</v>
       </c>
       <c r="F27" t="n">
-        <v>240.2510026593071</v>
+        <v>240.2510026593072</v>
       </c>
       <c r="G27" t="n">
-        <v>133.2608899736458</v>
+        <v>133.260889973646</v>
       </c>
       <c r="H27" t="n">
-        <v>62.51367700936187</v>
+        <v>62.51367700936203</v>
       </c>
       <c r="I27" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J27" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K27" t="n">
-        <v>497.5713418949007</v>
+        <v>158.3214934345131</v>
       </c>
       <c r="L27" t="n">
-        <v>1014.414276561226</v>
+        <v>158.3214934345131</v>
       </c>
       <c r="M27" t="n">
-        <v>1014.414276561226</v>
+        <v>675.1644281008383</v>
       </c>
       <c r="N27" t="n">
-        <v>1014.414276561226</v>
+        <v>675.1644281008383</v>
       </c>
       <c r="O27" t="n">
-        <v>1192.007362767163</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="P27" t="n">
-        <v>1708.850297433488</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="Q27" t="n">
         <v>2058.694762117472</v>
@@ -6341,16 +6341,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V27" t="n">
-        <v>1409.860069912671</v>
+        <v>1409.860069912672</v>
       </c>
       <c r="W27" t="n">
-        <v>1196.626901649</v>
+        <v>1196.626901649001</v>
       </c>
       <c r="X27" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y27" t="n">
-        <v>860.8989601517231</v>
+        <v>860.8989601517233</v>
       </c>
     </row>
     <row r="28">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1648.189235160388</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="C28" t="n">
-        <v>1477.095862722104</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D28" t="n">
-        <v>1317.601218045014</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E28" t="n">
-        <v>1156.690402913334</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F28" t="n">
-        <v>992.0592770239252</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G28" t="n">
-        <v>824.8088859494686</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H28" t="n">
-        <v>675.2014307549252</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I28" t="n">
-        <v>558.8553848592514</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J28" t="n">
-        <v>572.937934264462</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K28" t="n">
-        <v>727.4902619867</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L28" t="n">
-        <v>987.3873622667606</v>
+        <v>470.2970630371111</v>
       </c>
       <c r="M28" t="n">
-        <v>1276.651418707254</v>
+        <v>759.5611194776044</v>
       </c>
       <c r="N28" t="n">
-        <v>1557.490201101504</v>
+        <v>1040.399901871855</v>
       </c>
       <c r="O28" t="n">
-        <v>1817.050811427978</v>
+        <v>1299.960512198329</v>
       </c>
       <c r="P28" t="n">
-        <v>2022.726251677591</v>
+        <v>1505.635952447941</v>
       </c>
       <c r="Q28" t="n">
-        <v>2088.254281480102</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="R28" t="n">
-        <v>2088.254281480102</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="S28" t="n">
-        <v>1901.862513360012</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="T28" t="n">
-        <v>1901.862513360012</v>
+        <v>1246.342524902554</v>
       </c>
       <c r="U28" t="n">
-        <v>1901.862513360012</v>
+        <v>963.5443774486778</v>
       </c>
       <c r="V28" t="n">
-        <v>1901.862513360012</v>
+        <v>689.6586323881997</v>
       </c>
       <c r="W28" t="n">
-        <v>1901.862513360012</v>
+        <v>410.5889678970741</v>
       </c>
       <c r="X28" t="n">
-        <v>1901.862513360012</v>
+        <v>172.2451057567575</v>
       </c>
       <c r="Y28" t="n">
-        <v>1835.888941554432</v>
+        <v>41.76508562960205</v>
       </c>
     </row>
     <row r="29">
@@ -6439,52 +6439,52 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>876.4530309326549</v>
+        <v>352.673583001884</v>
       </c>
       <c r="C29" t="n">
-        <v>466.328440245925</v>
+        <v>352.673583001884</v>
       </c>
       <c r="D29" t="n">
-        <v>61.8645103389855</v>
+        <v>352.673583001884</v>
       </c>
       <c r="E29" t="n">
-        <v>41.76508562960203</v>
+        <v>352.673583001884</v>
       </c>
       <c r="F29" t="n">
-        <v>41.76508562960203</v>
+        <v>352.673583001884</v>
       </c>
       <c r="G29" t="n">
-        <v>41.76508562960203</v>
+        <v>352.673583001884</v>
       </c>
       <c r="H29" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I29" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J29" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K29" t="n">
-        <v>41.76508562960203</v>
+        <v>537.7254774811266</v>
       </c>
       <c r="L29" t="n">
-        <v>558.6080202959272</v>
+        <v>1054.568412147452</v>
       </c>
       <c r="M29" t="n">
-        <v>1075.450954962252</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="N29" t="n">
-        <v>1592.293889628578</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="O29" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="P29" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q29" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R29" t="n">
         <v>2088.254281480102</v>
@@ -6493,22 +6493,22 @@
         <v>2088.254281480102</v>
       </c>
       <c r="T29" t="n">
-        <v>2088.254281480102</v>
+        <v>1866.047797426961</v>
       </c>
       <c r="U29" t="n">
-        <v>2088.254281480102</v>
+        <v>1866.047797426961</v>
       </c>
       <c r="V29" t="n">
-        <v>2088.254281480102</v>
+        <v>1516.210242763442</v>
       </c>
       <c r="W29" t="n">
-        <v>2088.254281480102</v>
+        <v>1154.253653884841</v>
       </c>
       <c r="X29" t="n">
-        <v>1687.610883649054</v>
+        <v>753.6102560537939</v>
       </c>
       <c r="Y29" t="n">
-        <v>1286.674210597144</v>
+        <v>352.673583001884</v>
       </c>
     </row>
     <row r="30">
@@ -6536,34 +6536,34 @@
         <v>133.2608899736458</v>
       </c>
       <c r="H30" t="n">
-        <v>62.51367700936186</v>
+        <v>62.51367700936187</v>
       </c>
       <c r="I30" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J30" t="n">
-        <v>41.76508562960203</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K30" t="n">
-        <v>41.76508562960203</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L30" t="n">
-        <v>558.6080202959272</v>
+        <v>1192.007362767163</v>
       </c>
       <c r="M30" t="n">
-        <v>558.6080202959272</v>
+        <v>1192.007362767163</v>
       </c>
       <c r="N30" t="n">
-        <v>1075.450954962252</v>
+        <v>1192.007362767163</v>
       </c>
       <c r="O30" t="n">
-        <v>1592.293889628578</v>
+        <v>1192.007362767163</v>
       </c>
       <c r="P30" t="n">
-        <v>2088.254281480102</v>
+        <v>1708.850297433488</v>
       </c>
       <c r="Q30" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R30" t="n">
         <v>2088.254281480102</v>
@@ -6597,34 +6597,34 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>862.4253276531883</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="C31" t="n">
-        <v>862.4253276531883</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D31" t="n">
-        <v>800.5109188153651</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E31" t="n">
-        <v>639.6001036836846</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F31" t="n">
-        <v>474.9689777942758</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G31" t="n">
-        <v>307.7185867198192</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H31" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I31" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J31" t="n">
-        <v>55.84763503481255</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K31" t="n">
-        <v>210.3999627570505</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L31" t="n">
         <v>470.2970630371111</v>
@@ -6648,25 +6648,25 @@
         <v>1571.163982250452</v>
       </c>
       <c r="S31" t="n">
-        <v>1384.772214130362</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T31" t="n">
-        <v>1145.223475107064</v>
+        <v>1331.615243227154</v>
       </c>
       <c r="U31" t="n">
-        <v>862.4253276531883</v>
+        <v>1048.817095773278</v>
       </c>
       <c r="V31" t="n">
-        <v>862.4253276531883</v>
+        <v>774.9313507128002</v>
       </c>
       <c r="W31" t="n">
-        <v>862.4253276531883</v>
+        <v>495.8616862216745</v>
       </c>
       <c r="X31" t="n">
-        <v>862.4253276531883</v>
+        <v>257.5178240813579</v>
       </c>
       <c r="Y31" t="n">
-        <v>862.4253276531883</v>
+        <v>41.76508562960205</v>
       </c>
     </row>
     <row r="32">
@@ -6676,49 +6676,49 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1691.724233752687</v>
+        <v>1320.545542556572</v>
       </c>
       <c r="C32" t="n">
-        <v>1281.599643065957</v>
+        <v>910.4209518698425</v>
       </c>
       <c r="D32" t="n">
-        <v>877.1357131590178</v>
+        <v>910.4209518698425</v>
       </c>
       <c r="E32" t="n">
-        <v>462.7954976759145</v>
+        <v>496.0807363867392</v>
       </c>
       <c r="F32" t="n">
-        <v>41.76508562960203</v>
+        <v>75.05032434042676</v>
       </c>
       <c r="G32" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H32" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I32" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J32" t="n">
-        <v>41.76508562960203</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K32" t="n">
-        <v>497.1688317915614</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="L32" t="n">
-        <v>497.1688317915614</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="M32" t="n">
-        <v>1014.011766457887</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="N32" t="n">
-        <v>1014.011766457887</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="O32" t="n">
-        <v>1530.854701124212</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="P32" t="n">
-        <v>2047.697635790537</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="Q32" t="n">
         <v>2047.697635790537</v>
@@ -6727,25 +6727,25 @@
         <v>2088.254281480102</v>
       </c>
       <c r="S32" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T32" t="n">
-        <v>2088.254281480102</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="U32" t="n">
-        <v>2088.254281480102</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="V32" t="n">
-        <v>2088.254281480102</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="W32" t="n">
-        <v>2088.254281480102</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="X32" t="n">
-        <v>2088.254281480102</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="Y32" t="n">
-        <v>2088.254281480102</v>
+        <v>1730.766722221062</v>
       </c>
     </row>
     <row r="33">
@@ -6773,34 +6773,34 @@
         <v>133.2608899736458</v>
       </c>
       <c r="H33" t="n">
-        <v>62.51367700936186</v>
+        <v>62.51367700936187</v>
       </c>
       <c r="I33" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J33" t="n">
-        <v>41.76508562960203</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K33" t="n">
-        <v>41.76508562960203</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L33" t="n">
-        <v>41.76508562960203</v>
+        <v>1192.007362767163</v>
       </c>
       <c r="M33" t="n">
-        <v>558.6080202959272</v>
+        <v>1192.007362767163</v>
       </c>
       <c r="N33" t="n">
-        <v>1075.450954962252</v>
+        <v>1192.007362767163</v>
       </c>
       <c r="O33" t="n">
-        <v>1592.293889628578</v>
+        <v>1192.007362767163</v>
       </c>
       <c r="P33" t="n">
-        <v>2088.254281480102</v>
+        <v>1708.850297433488</v>
       </c>
       <c r="Q33" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R33" t="n">
         <v>2088.254281480102</v>
@@ -6834,34 +6834,34 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="C34" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D34" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E34" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F34" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G34" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H34" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I34" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J34" t="n">
-        <v>55.84763503481255</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K34" t="n">
-        <v>210.3999627570505</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L34" t="n">
         <v>470.2970630371111</v>
@@ -6903,7 +6903,7 @@
         <v>266.5007842408373</v>
       </c>
       <c r="Y34" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
     </row>
     <row r="35">
@@ -6925,58 +6925,58 @@
         <v>462.7954976759145</v>
       </c>
       <c r="F35" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G35" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H35" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I35" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J35" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K35" t="n">
-        <v>41.76508562960203</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="L35" t="n">
-        <v>497.1688317915614</v>
+        <v>1054.568412147452</v>
       </c>
       <c r="M35" t="n">
-        <v>1014.011766457887</v>
+        <v>1054.568412147452</v>
       </c>
       <c r="N35" t="n">
-        <v>1530.854701124212</v>
+        <v>1054.568412147452</v>
       </c>
       <c r="O35" t="n">
-        <v>2047.697635790537</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="P35" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q35" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R35" t="n">
         <v>2088.254281480102</v>
       </c>
       <c r="S35" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T35" t="n">
-        <v>2088.254281480102</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="U35" t="n">
-        <v>2088.254281480102</v>
+        <v>1697.481483510237</v>
       </c>
       <c r="V35" t="n">
-        <v>2088.254281480102</v>
+        <v>1697.481483510237</v>
       </c>
       <c r="W35" t="n">
-        <v>2088.254281480102</v>
+        <v>1697.481483510237</v>
       </c>
       <c r="X35" t="n">
         <v>1697.481483510237</v>
@@ -6992,52 +6992,52 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>720.5959275161365</v>
+        <v>720.5959275161366</v>
       </c>
       <c r="C36" t="n">
-        <v>586.6008562650821</v>
+        <v>586.6008562650824</v>
       </c>
       <c r="D36" t="n">
-        <v>469.7036984844746</v>
+        <v>469.7036984844747</v>
       </c>
       <c r="E36" t="n">
-        <v>349.2108824768026</v>
+        <v>349.2108824768027</v>
       </c>
       <c r="F36" t="n">
-        <v>240.2510026593071</v>
+        <v>240.2510026593072</v>
       </c>
       <c r="G36" t="n">
-        <v>133.2608899736458</v>
+        <v>133.260889973646</v>
       </c>
       <c r="H36" t="n">
-        <v>62.51367700936186</v>
+        <v>62.51367700936203</v>
       </c>
       <c r="I36" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J36" t="n">
-        <v>41.76508562960203</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K36" t="n">
-        <v>41.76508562960203</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L36" t="n">
-        <v>41.76508562960203</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="M36" t="n">
-        <v>558.6080202959272</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="N36" t="n">
-        <v>1075.450954962252</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="O36" t="n">
-        <v>1592.293889628578</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="P36" t="n">
-        <v>2088.254281480102</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="Q36" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R36" t="n">
         <v>2088.254281480102</v>
@@ -7052,16 +7052,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V36" t="n">
-        <v>1409.860069912671</v>
+        <v>1409.860069912672</v>
       </c>
       <c r="W36" t="n">
-        <v>1196.626901649</v>
+        <v>1196.626901649001</v>
       </c>
       <c r="X36" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y36" t="n">
-        <v>860.8989601517231</v>
+        <v>860.8989601517233</v>
       </c>
     </row>
     <row r="37">
@@ -7071,34 +7071,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>367.429305553252</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="C37" t="n">
-        <v>196.3359331149685</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D37" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E37" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F37" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G37" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H37" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I37" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J37" t="n">
-        <v>55.84763503481255</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K37" t="n">
-        <v>210.3999627570505</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L37" t="n">
         <v>470.2970630371111</v>
@@ -7125,22 +7125,22 @@
         <v>1571.163982250452</v>
       </c>
       <c r="T37" t="n">
-        <v>1571.163982250452</v>
+        <v>1331.615243227154</v>
       </c>
       <c r="U37" t="n">
-        <v>1571.163982250452</v>
+        <v>1048.817095773278</v>
       </c>
       <c r="V37" t="n">
-        <v>1297.278237189974</v>
+        <v>774.9313507128002</v>
       </c>
       <c r="W37" t="n">
-        <v>1018.208572698848</v>
+        <v>495.8616862216745</v>
       </c>
       <c r="X37" t="n">
-        <v>779.8647105585317</v>
+        <v>257.5178240813579</v>
       </c>
       <c r="Y37" t="n">
-        <v>555.1290119472964</v>
+        <v>41.76508562960205</v>
       </c>
     </row>
     <row r="38">
@@ -7150,52 +7150,52 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1286.674210597144</v>
+        <v>474.4527771062106</v>
       </c>
       <c r="C38" t="n">
-        <v>876.5496199104144</v>
+        <v>474.4527771062106</v>
       </c>
       <c r="D38" t="n">
-        <v>472.085690003475</v>
+        <v>352.673583001884</v>
       </c>
       <c r="E38" t="n">
-        <v>472.085690003475</v>
+        <v>352.673583001884</v>
       </c>
       <c r="F38" t="n">
-        <v>472.085690003475</v>
+        <v>352.673583001884</v>
       </c>
       <c r="G38" t="n">
-        <v>63.35740589630711</v>
+        <v>352.673583001884</v>
       </c>
       <c r="H38" t="n">
-        <v>63.35740589630711</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I38" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J38" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K38" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="L38" t="n">
-        <v>216.5644706858343</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="M38" t="n">
-        <v>733.4074053521595</v>
+        <v>176.0078249962696</v>
       </c>
       <c r="N38" t="n">
-        <v>733.4074053521595</v>
+        <v>692.8507596625949</v>
       </c>
       <c r="O38" t="n">
-        <v>1250.250340018485</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="P38" t="n">
-        <v>1767.09327468481</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="Q38" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="R38" t="n">
         <v>2088.254281480102</v>
@@ -7204,22 +7204,22 @@
         <v>2088.254281480102</v>
       </c>
       <c r="T38" t="n">
-        <v>2088.254281480102</v>
+        <v>1866.047797426961</v>
       </c>
       <c r="U38" t="n">
-        <v>2088.254281480102</v>
+        <v>1608.987305686471</v>
       </c>
       <c r="V38" t="n">
-        <v>2088.254281480102</v>
+        <v>1259.149751022952</v>
       </c>
       <c r="W38" t="n">
-        <v>2088.254281480102</v>
+        <v>875.3894501581206</v>
       </c>
       <c r="X38" t="n">
-        <v>1687.610883649054</v>
+        <v>875.3894501581206</v>
       </c>
       <c r="Y38" t="n">
-        <v>1286.674210597144</v>
+        <v>474.4527771062106</v>
       </c>
     </row>
     <row r="39">
@@ -7247,31 +7247,31 @@
         <v>133.2608899736458</v>
       </c>
       <c r="H39" t="n">
-        <v>62.51367700936186</v>
+        <v>62.51367700936187</v>
       </c>
       <c r="I39" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J39" t="n">
-        <v>41.76508562960203</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K39" t="n">
-        <v>497.5713418949007</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L39" t="n">
-        <v>1014.414276561226</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="M39" t="n">
-        <v>1531.257211227551</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="N39" t="n">
-        <v>2048.100145893876</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="O39" t="n">
-        <v>2088.254281480102</v>
+        <v>1221.566882129793</v>
       </c>
       <c r="P39" t="n">
-        <v>2088.254281480102</v>
+        <v>1738.409816796118</v>
       </c>
       <c r="Q39" t="n">
         <v>2088.254281480102</v>
@@ -7308,34 +7308,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="C40" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D40" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E40" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F40" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G40" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H40" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I40" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J40" t="n">
-        <v>55.84763503481255</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K40" t="n">
-        <v>210.3999627570505</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L40" t="n">
         <v>470.2970630371111</v>
@@ -7356,28 +7356,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R40" t="n">
-        <v>1541.803011918786</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S40" t="n">
-        <v>1355.411243798696</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T40" t="n">
-        <v>1115.862504775398</v>
+        <v>1331.615243227154</v>
       </c>
       <c r="U40" t="n">
-        <v>833.0643573215223</v>
+        <v>1048.817095773278</v>
       </c>
       <c r="V40" t="n">
-        <v>559.1786122610442</v>
+        <v>774.9313507128002</v>
       </c>
       <c r="W40" t="n">
-        <v>280.1089477699186</v>
+        <v>495.8616862216745</v>
       </c>
       <c r="X40" t="n">
-        <v>41.76508562960203</v>
+        <v>257.5178240813579</v>
       </c>
       <c r="Y40" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
     </row>
     <row r="41">
@@ -7387,52 +7387,52 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>553.0763550687938</v>
+        <v>1608.987305686471</v>
       </c>
       <c r="C41" t="n">
-        <v>553.0763550687938</v>
+        <v>1608.987305686471</v>
       </c>
       <c r="D41" t="n">
-        <v>553.0763550687938</v>
+        <v>1608.987305686471</v>
       </c>
       <c r="E41" t="n">
-        <v>553.0763550687938</v>
+        <v>1194.647090203368</v>
       </c>
       <c r="F41" t="n">
-        <v>553.0763550687938</v>
+        <v>773.6166781570555</v>
       </c>
       <c r="G41" t="n">
-        <v>439.0253456848109</v>
+        <v>364.8883940498877</v>
       </c>
       <c r="H41" t="n">
-        <v>128.1168483125289</v>
+        <v>53.97989667760567</v>
       </c>
       <c r="I41" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J41" t="n">
-        <v>41.76508562960203</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K41" t="n">
-        <v>41.76508562960203</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="L41" t="n">
-        <v>41.76508562960203</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="M41" t="n">
-        <v>176.0078249962694</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="N41" t="n">
-        <v>692.8507596625946</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="O41" t="n">
-        <v>1209.69369432892</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="P41" t="n">
-        <v>1726.536628995245</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q41" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R41" t="n">
         <v>2088.254281480102</v>
@@ -7441,22 +7441,22 @@
         <v>2088.254281480102</v>
       </c>
       <c r="T41" t="n">
-        <v>2088.254281480102</v>
+        <v>1866.047797426961</v>
       </c>
       <c r="U41" t="n">
-        <v>2088.254281480102</v>
+        <v>1608.987305686471</v>
       </c>
       <c r="V41" t="n">
-        <v>1738.416726816582</v>
+        <v>1608.987305686471</v>
       </c>
       <c r="W41" t="n">
-        <v>1354.656425951751</v>
+        <v>1608.987305686471</v>
       </c>
       <c r="X41" t="n">
-        <v>954.0130281207037</v>
+        <v>1608.987305686471</v>
       </c>
       <c r="Y41" t="n">
-        <v>553.0763550687938</v>
+        <v>1608.987305686471</v>
       </c>
     </row>
     <row r="42">
@@ -7487,31 +7487,31 @@
         <v>62.51367700936187</v>
       </c>
       <c r="I42" t="n">
-        <v>41.76508562960204</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J42" t="n">
-        <v>234.5779431922353</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K42" t="n">
-        <v>537.7254774811263</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="L42" t="n">
-        <v>537.7254774811263</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="M42" t="n">
-        <v>1054.568412147451</v>
+        <v>675.1644281008379</v>
       </c>
       <c r="N42" t="n">
-        <v>1571.411346813777</v>
+        <v>675.1644281008379</v>
       </c>
       <c r="O42" t="n">
-        <v>2088.254281480102</v>
+        <v>1192.007362767163</v>
       </c>
       <c r="P42" t="n">
-        <v>2088.254281480102</v>
+        <v>1708.850297433488</v>
       </c>
       <c r="Q42" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R42" t="n">
         <v>2088.254281480102</v>
@@ -7545,34 +7545,34 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>201.259730306692</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="C43" t="n">
-        <v>201.259730306692</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D43" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E43" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F43" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G43" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H43" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I43" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J43" t="n">
-        <v>55.84763503481255</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K43" t="n">
-        <v>210.3999627570505</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L43" t="n">
         <v>470.2970630371111</v>
@@ -7599,22 +7599,22 @@
         <v>1571.163982250452</v>
       </c>
       <c r="T43" t="n">
-        <v>1500.092848063724</v>
+        <v>1331.615243227154</v>
       </c>
       <c r="U43" t="n">
-        <v>1217.294700609848</v>
+        <v>1048.817095773278</v>
       </c>
       <c r="V43" t="n">
-        <v>943.4089555493696</v>
+        <v>774.9313507128002</v>
       </c>
       <c r="W43" t="n">
-        <v>664.3392910582439</v>
+        <v>495.8616862216745</v>
       </c>
       <c r="X43" t="n">
-        <v>425.9954289179273</v>
+        <v>257.5178240813579</v>
       </c>
       <c r="Y43" t="n">
-        <v>201.259730306692</v>
+        <v>41.76508562960205</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>339.4649771211734</v>
+        <v>1259.149751022952</v>
       </c>
       <c r="C44" t="n">
-        <v>339.4649771211734</v>
+        <v>1259.149751022952</v>
       </c>
       <c r="D44" t="n">
-        <v>339.4649771211734</v>
+        <v>1259.149751022952</v>
       </c>
       <c r="E44" t="n">
-        <v>339.4649771211734</v>
+        <v>1259.149751022952</v>
       </c>
       <c r="F44" t="n">
-        <v>339.4649771211734</v>
+        <v>838.1193389766395</v>
       </c>
       <c r="G44" t="n">
-        <v>339.4649771211734</v>
+        <v>429.3910548694716</v>
       </c>
       <c r="H44" t="n">
-        <v>41.76508562960203</v>
+        <v>118.4825574971896</v>
       </c>
       <c r="I44" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J44" t="n">
         <v>295.9505570973564</v>
       </c>
       <c r="K44" t="n">
-        <v>812.7934917636815</v>
+        <v>692.8507596625949</v>
       </c>
       <c r="L44" t="n">
-        <v>1329.636426430007</v>
+        <v>692.8507596625949</v>
       </c>
       <c r="M44" t="n">
-        <v>1329.636426430007</v>
+        <v>692.8507596625949</v>
       </c>
       <c r="N44" t="n">
-        <v>1767.09327468481</v>
+        <v>692.8507596625949</v>
       </c>
       <c r="O44" t="n">
-        <v>1767.09327468481</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="P44" t="n">
-        <v>1767.09327468481</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="Q44" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="R44" t="n">
         <v>2088.254281480102</v>
       </c>
       <c r="S44" t="n">
-        <v>1952.973206274203</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="T44" t="n">
-        <v>1730.766722221061</v>
+        <v>1866.047797426961</v>
       </c>
       <c r="U44" t="n">
-        <v>1473.706230480572</v>
+        <v>1608.987305686471</v>
       </c>
       <c r="V44" t="n">
-        <v>1123.868675817052</v>
+        <v>1259.149751022952</v>
       </c>
       <c r="W44" t="n">
-        <v>740.1083749522209</v>
+        <v>1259.149751022952</v>
       </c>
       <c r="X44" t="n">
-        <v>339.4649771211734</v>
+        <v>1259.149751022952</v>
       </c>
       <c r="Y44" t="n">
-        <v>339.4649771211734</v>
+        <v>1259.149751022952</v>
       </c>
     </row>
     <row r="45">
@@ -7724,31 +7724,31 @@
         <v>62.51367700936187</v>
       </c>
       <c r="I45" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J45" t="n">
-        <v>234.5779431922353</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K45" t="n">
-        <v>690.384199457534</v>
+        <v>497.5713418949007</v>
       </c>
       <c r="L45" t="n">
-        <v>1192.007362767163</v>
+        <v>1014.414276561226</v>
       </c>
       <c r="M45" t="n">
-        <v>1192.007362767163</v>
+        <v>1014.414276561226</v>
       </c>
       <c r="N45" t="n">
-        <v>1192.007362767163</v>
+        <v>1054.568412147451</v>
       </c>
       <c r="O45" t="n">
-        <v>1192.007362767163</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="P45" t="n">
-        <v>1708.850297433488</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q45" t="n">
-        <v>2058.694762117472</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R45" t="n">
         <v>2088.254281480102</v>
@@ -7782,34 +7782,34 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>272.3308644934205</v>
+        <v>410.5889678970741</v>
       </c>
       <c r="C46" t="n">
-        <v>272.3308644934205</v>
+        <v>410.5889678970741</v>
       </c>
       <c r="D46" t="n">
-        <v>272.3308644934205</v>
+        <v>251.0943232199841</v>
       </c>
       <c r="E46" t="n">
-        <v>272.3308644934205</v>
+        <v>251.0943232199841</v>
       </c>
       <c r="F46" t="n">
-        <v>272.3308644934205</v>
+        <v>86.46319733057538</v>
       </c>
       <c r="G46" t="n">
-        <v>272.3308644934205</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H46" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I46" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J46" t="n">
-        <v>55.84763503481255</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K46" t="n">
-        <v>210.3999627570505</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L46" t="n">
         <v>470.2970630371111</v>
@@ -7830,28 +7830,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R46" t="n">
-        <v>1571.163982250452</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="S46" t="n">
-        <v>1571.163982250452</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="T46" t="n">
-        <v>1571.163982250452</v>
+        <v>1246.342524902554</v>
       </c>
       <c r="U46" t="n">
-        <v>1288.365834796576</v>
+        <v>963.5443774486778</v>
       </c>
       <c r="V46" t="n">
-        <v>1014.480089736098</v>
+        <v>689.6586323881997</v>
       </c>
       <c r="W46" t="n">
-        <v>735.4104252449724</v>
+        <v>410.5889678970741</v>
       </c>
       <c r="X46" t="n">
-        <v>497.0665631046558</v>
+        <v>410.5889678970741</v>
       </c>
       <c r="Y46" t="n">
-        <v>272.3308644934205</v>
+        <v>410.5889678970741</v>
       </c>
     </row>
   </sheetData>
@@ -7981,25 +7981,25 @@
         <v>330.076592815888</v>
       </c>
       <c r="K2" t="n">
-        <v>611.1999600432425</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L2" t="n">
-        <v>95.48539806284482</v>
+        <v>617.5489684328704</v>
       </c>
       <c r="M2" t="n">
         <v>93.29022445704545</v>
       </c>
       <c r="N2" t="n">
-        <v>296.1630732760184</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O2" t="n">
-        <v>615.2533459958086</v>
+        <v>494.099071146226</v>
       </c>
       <c r="P2" t="n">
-        <v>615.7129336509096</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q2" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R2" t="n">
         <v>128.2784515920617</v>
@@ -8060,28 +8060,28 @@
         <v>246.129700984478</v>
       </c>
       <c r="K3" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L3" t="n">
         <v>56.11452381084905</v>
       </c>
       <c r="M3" t="n">
-        <v>579.6278541084429</v>
+        <v>72.04887768380563</v>
       </c>
       <c r="N3" t="n">
-        <v>329.5449236222965</v>
+        <v>575.2569637637755</v>
       </c>
       <c r="O3" t="n">
-        <v>579.8150493700255</v>
+        <v>57.751479</v>
       </c>
       <c r="P3" t="n">
-        <v>576.3232053728292</v>
+        <v>576.3232053728293</v>
       </c>
       <c r="Q3" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R3" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8218,19 +8218,19 @@
         <v>330.076592815888</v>
       </c>
       <c r="K5" t="n">
-        <v>611.1999600432425</v>
+        <v>611.1999600432426</v>
       </c>
       <c r="L5" t="n">
-        <v>298.7361805822439</v>
+        <v>617.5489684328704</v>
       </c>
       <c r="M5" t="n">
-        <v>93.29022445704545</v>
+        <v>615.3537948270711</v>
       </c>
       <c r="N5" t="n">
-        <v>614.9758611266448</v>
+        <v>296.1630732760186</v>
       </c>
       <c r="O5" t="n">
-        <v>615.2533459958086</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P5" t="n">
         <v>93.64936328088416</v>
@@ -8300,22 +8300,22 @@
         <v>516.2361426485535</v>
       </c>
       <c r="L6" t="n">
-        <v>578.1780941808745</v>
+        <v>562.8045877599699</v>
       </c>
       <c r="M6" t="n">
-        <v>395.5690244730511</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N6" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O6" t="n">
-        <v>579.8150493700255</v>
+        <v>57.751479</v>
       </c>
       <c r="P6" t="n">
-        <v>54.25963500280375</v>
+        <v>576.3232053728293</v>
       </c>
       <c r="Q6" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R6" t="n">
         <v>88.85829947169823</v>
@@ -8452,28 +8452,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>73.32359133330795</v>
+        <v>249.8886267436438</v>
       </c>
       <c r="K8" t="n">
-        <v>89.13638967321712</v>
+        <v>611.1999600432426</v>
       </c>
       <c r="L8" t="n">
-        <v>617.5489684328703</v>
+        <v>617.5489684328704</v>
       </c>
       <c r="M8" t="n">
-        <v>615.3537948270709</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N8" t="n">
-        <v>614.9758611266448</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O8" t="n">
-        <v>594.1598684051006</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P8" t="n">
-        <v>93.64936328088416</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q8" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R8" t="n">
         <v>87.31214281472352</v>
@@ -8531,31 +8531,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J9" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K9" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L9" t="n">
-        <v>578.1780941808745</v>
+        <v>562.8045877599694</v>
       </c>
       <c r="M9" t="n">
-        <v>579.6278541084429</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N9" t="n">
-        <v>554.1634861730674</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O9" t="n">
-        <v>579.8150493700255</v>
+        <v>57.751479</v>
       </c>
       <c r="P9" t="n">
-        <v>54.25963500280375</v>
+        <v>576.3232053728293</v>
       </c>
       <c r="Q9" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R9" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8689,22 +8689,22 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>330.076592815888</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K11" t="n">
         <v>89.13638967321712</v>
       </c>
       <c r="L11" t="n">
-        <v>617.5489684328703</v>
+        <v>617.5489684328704</v>
       </c>
       <c r="M11" t="n">
-        <v>615.3537948270709</v>
+        <v>594.2603172363632</v>
       </c>
       <c r="N11" t="n">
-        <v>614.9758611266448</v>
+        <v>614.9758611266449</v>
       </c>
       <c r="O11" t="n">
-        <v>337.4068669225205</v>
+        <v>615.2533459958087</v>
       </c>
       <c r="P11" t="n">
         <v>93.64936328088416</v>
@@ -8768,28 +8768,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J12" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K12" t="n">
-        <v>55.82578278461539</v>
+        <v>500.8626362276483</v>
       </c>
       <c r="L12" t="n">
-        <v>578.1780941808745</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M12" t="n">
-        <v>528.6762761514419</v>
+        <v>579.627854108443</v>
       </c>
       <c r="N12" t="n">
-        <v>575.2569637637754</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O12" t="n">
-        <v>579.8150493700255</v>
+        <v>57.751479</v>
       </c>
       <c r="P12" t="n">
-        <v>54.25963500280375</v>
+        <v>576.3232053728293</v>
       </c>
       <c r="Q12" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R12" t="n">
         <v>88.85829947169823</v>
@@ -8926,28 +8926,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K14" t="n">
         <v>89.13638967321712</v>
       </c>
       <c r="L14" t="n">
-        <v>617.5489684328703</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M14" t="n">
-        <v>615.3537948270709</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N14" t="n">
-        <v>614.9758611266448</v>
+        <v>614.9758611266449</v>
       </c>
       <c r="O14" t="n">
-        <v>553.1935596277623</v>
+        <v>615.2533459958087</v>
       </c>
       <c r="P14" t="n">
-        <v>93.64936328088416</v>
+        <v>494.5586588013271</v>
       </c>
       <c r="Q14" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R14" t="n">
         <v>128.2784515920617</v>
@@ -9011,22 +9011,22 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L15" t="n">
-        <v>527.2265162238735</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M15" t="n">
-        <v>579.6278541084429</v>
+        <v>579.627854108443</v>
       </c>
       <c r="N15" t="n">
-        <v>575.2569637637754</v>
+        <v>170.9271386512354</v>
       </c>
       <c r="O15" t="n">
-        <v>579.8150493700255</v>
+        <v>579.8150493700256</v>
       </c>
       <c r="P15" t="n">
-        <v>54.25963500280375</v>
+        <v>576.3232053728293</v>
       </c>
       <c r="Q15" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R15" t="n">
         <v>88.85829947169823</v>
@@ -9166,19 +9166,19 @@
         <v>73.32359133330795</v>
       </c>
       <c r="K17" t="n">
-        <v>89.13638967321712</v>
+        <v>590.1064824525349</v>
       </c>
       <c r="L17" t="n">
-        <v>617.5489684328703</v>
+        <v>617.5489684328704</v>
       </c>
       <c r="M17" t="n">
-        <v>615.3537948270709</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N17" t="n">
-        <v>614.9758611266448</v>
+        <v>614.9758611266449</v>
       </c>
       <c r="O17" t="n">
-        <v>594.1598684051006</v>
+        <v>615.2533459958087</v>
       </c>
       <c r="P17" t="n">
         <v>93.64936328088416</v>
@@ -9242,31 +9242,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J18" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K18" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L18" t="n">
-        <v>578.1780941808745</v>
+        <v>562.8045877599699</v>
       </c>
       <c r="M18" t="n">
-        <v>57.56428373841742</v>
+        <v>579.627854108443</v>
       </c>
       <c r="N18" t="n">
-        <v>93.75312630912927</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O18" t="n">
-        <v>579.8150493700255</v>
+        <v>57.751479</v>
       </c>
       <c r="P18" t="n">
-        <v>576.3232053728292</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q18" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R18" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9400,31 +9400,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K20" t="n">
-        <v>89.13638967321712</v>
+        <v>490.0456851936601</v>
       </c>
       <c r="L20" t="n">
-        <v>617.5489684328703</v>
+        <v>617.5489684328704</v>
       </c>
       <c r="M20" t="n">
-        <v>594.2603172363629</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N20" t="n">
-        <v>614.9758611266448</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O20" t="n">
-        <v>615.2533459958086</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P20" t="n">
-        <v>93.64936328088416</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q20" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R20" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9485,10 +9485,10 @@
         <v>516.2361426485535</v>
       </c>
       <c r="L21" t="n">
-        <v>56.11452381084905</v>
+        <v>562.8045877599694</v>
       </c>
       <c r="M21" t="n">
-        <v>579.6278541084429</v>
+        <v>579.627854108443</v>
       </c>
       <c r="N21" t="n">
         <v>53.19339339374999</v>
@@ -9497,13 +9497,13 @@
         <v>57.751479</v>
       </c>
       <c r="P21" t="n">
-        <v>576.3232053728292</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q21" t="n">
         <v>410.0708656603775</v>
       </c>
       <c r="R21" t="n">
-        <v>73.48479305079316</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9646,22 +9646,22 @@
         <v>95.48539806284482</v>
       </c>
       <c r="M23" t="n">
-        <v>615.3537948270709</v>
+        <v>594.2603172363632</v>
       </c>
       <c r="N23" t="n">
-        <v>228.5110173896167</v>
+        <v>614.9758611266449</v>
       </c>
       <c r="O23" t="n">
-        <v>615.2533459958086</v>
+        <v>615.2533459958087</v>
       </c>
       <c r="P23" t="n">
-        <v>615.7129336509096</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q23" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R23" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9716,31 +9716,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J24" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K24" t="n">
         <v>55.82578278461539</v>
       </c>
       <c r="L24" t="n">
-        <v>56.11452381084905</v>
+        <v>578.1780941808746</v>
       </c>
       <c r="M24" t="n">
-        <v>579.6278541084429</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N24" t="n">
-        <v>575.2569637637754</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O24" t="n">
-        <v>579.8150493700255</v>
+        <v>579.8150493700256</v>
       </c>
       <c r="P24" t="n">
-        <v>555.2297277821212</v>
+        <v>499.2964884458369</v>
       </c>
       <c r="Q24" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R24" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9874,22 +9874,22 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K26" t="n">
-        <v>89.13638967321712</v>
+        <v>292.3871721926164</v>
       </c>
       <c r="L26" t="n">
-        <v>617.5489684328703</v>
+        <v>617.5489684328704</v>
       </c>
       <c r="M26" t="n">
-        <v>615.3537948270709</v>
+        <v>615.3537948270711</v>
       </c>
       <c r="N26" t="n">
-        <v>614.9758611266448</v>
+        <v>614.9758611266449</v>
       </c>
       <c r="O26" t="n">
-        <v>553.1935596277623</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P26" t="n">
         <v>93.64936328088416</v>
@@ -9956,22 +9956,22 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K27" t="n">
-        <v>516.2361426485535</v>
+        <v>173.5595280421012</v>
       </c>
       <c r="L27" t="n">
-        <v>578.1780941808745</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M27" t="n">
-        <v>57.56428373841742</v>
+        <v>579.627854108443</v>
       </c>
       <c r="N27" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O27" t="n">
-        <v>237.1384347635729</v>
+        <v>579.8150493700256</v>
       </c>
       <c r="P27" t="n">
-        <v>576.3232053728292</v>
+        <v>576.3232053728293</v>
       </c>
       <c r="Q27" t="n">
         <v>410.0708656603775</v>
@@ -10114,19 +10114,19 @@
         <v>73.32359133330795</v>
       </c>
       <c r="K29" t="n">
-        <v>89.13638967321712</v>
+        <v>590.1064824525349</v>
       </c>
       <c r="L29" t="n">
-        <v>617.5489684328703</v>
+        <v>617.5489684328704</v>
       </c>
       <c r="M29" t="n">
-        <v>615.3537948270709</v>
+        <v>615.3537948270711</v>
       </c>
       <c r="N29" t="n">
-        <v>614.9758611266448</v>
+        <v>614.9758611266449</v>
       </c>
       <c r="O29" t="n">
-        <v>553.1935596277623</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P29" t="n">
         <v>93.64936328088416</v>
@@ -10135,7 +10135,7 @@
         <v>90.03380439915205</v>
       </c>
       <c r="R29" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10190,31 +10190,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J30" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K30" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L30" t="n">
-        <v>578.1780941808745</v>
+        <v>562.8045877599694</v>
       </c>
       <c r="M30" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N30" t="n">
-        <v>575.2569637637754</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O30" t="n">
-        <v>579.8150493700255</v>
+        <v>57.751479</v>
       </c>
       <c r="P30" t="n">
-        <v>555.2297277821212</v>
+        <v>576.3232053728293</v>
       </c>
       <c r="Q30" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R30" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10348,28 +10348,28 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K32" t="n">
-        <v>549.1401736751963</v>
+        <v>611.1999600432426</v>
       </c>
       <c r="L32" t="n">
-        <v>95.48539806284482</v>
+        <v>617.5489684328704</v>
       </c>
       <c r="M32" t="n">
-        <v>615.3537948270709</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N32" t="n">
         <v>92.91229075661933</v>
       </c>
       <c r="O32" t="n">
-        <v>615.2533459958086</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P32" t="n">
-        <v>615.7129336509096</v>
+        <v>494.5586588013271</v>
       </c>
       <c r="Q32" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R32" t="n">
         <v>128.2784515920617</v>
@@ -10427,31 +10427,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J33" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K33" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L33" t="n">
-        <v>56.11452381084905</v>
+        <v>562.8045877599694</v>
       </c>
       <c r="M33" t="n">
-        <v>579.6278541084429</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N33" t="n">
-        <v>575.2569637637754</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O33" t="n">
-        <v>579.8150493700255</v>
+        <v>57.751479</v>
       </c>
       <c r="P33" t="n">
-        <v>555.2297277821212</v>
+        <v>576.3232053728293</v>
       </c>
       <c r="Q33" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R33" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10588,28 +10588,28 @@
         <v>73.32359133330795</v>
       </c>
       <c r="K35" t="n">
-        <v>89.13638967321712</v>
+        <v>611.1999600432426</v>
       </c>
       <c r="L35" t="n">
-        <v>555.489182064824</v>
+        <v>596.4554908421626</v>
       </c>
       <c r="M35" t="n">
-        <v>615.3537948270709</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N35" t="n">
-        <v>614.9758611266448</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O35" t="n">
-        <v>615.2533459958086</v>
+        <v>615.2533459958087</v>
       </c>
       <c r="P35" t="n">
-        <v>93.64936328088416</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q35" t="n">
         <v>90.03380439915205</v>
       </c>
       <c r="R35" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10664,31 +10664,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J36" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K36" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L36" t="n">
-        <v>56.11452381084905</v>
+        <v>562.8045877599699</v>
       </c>
       <c r="M36" t="n">
-        <v>579.6278541084429</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N36" t="n">
-        <v>575.2569637637754</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O36" t="n">
-        <v>579.8150493700255</v>
+        <v>57.751479</v>
       </c>
       <c r="P36" t="n">
-        <v>555.2297277821212</v>
+        <v>576.3232053728293</v>
       </c>
       <c r="Q36" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R36" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10828,25 +10828,25 @@
         <v>89.13638967321712</v>
       </c>
       <c r="L38" t="n">
-        <v>272.0504334731805</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M38" t="n">
-        <v>615.3537948270709</v>
+        <v>228.888951090043</v>
       </c>
       <c r="N38" t="n">
-        <v>92.91229075661933</v>
+        <v>614.9758611266449</v>
       </c>
       <c r="O38" t="n">
-        <v>615.2533459958086</v>
+        <v>615.2533459958087</v>
       </c>
       <c r="P38" t="n">
-        <v>615.7129336509096</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q38" t="n">
         <v>414.4388617681339</v>
       </c>
       <c r="R38" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10901,28 +10901,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J39" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K39" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L39" t="n">
-        <v>578.1780941808745</v>
+        <v>578.1780941808746</v>
       </c>
       <c r="M39" t="n">
-        <v>579.6278541084429</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N39" t="n">
-        <v>575.2569637637754</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O39" t="n">
-        <v>98.31121191537929</v>
+        <v>72.23607294538775</v>
       </c>
       <c r="P39" t="n">
-        <v>54.25963500280375</v>
+        <v>576.3232053728293</v>
       </c>
       <c r="Q39" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R39" t="n">
         <v>59.00019910540541</v>
@@ -11059,31 +11059,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K41" t="n">
-        <v>89.13638967321712</v>
+        <v>611.1999600432426</v>
       </c>
       <c r="L41" t="n">
-        <v>95.48539806284482</v>
+        <v>617.5489684328704</v>
       </c>
       <c r="M41" t="n">
-        <v>228.8889510900428</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N41" t="n">
-        <v>614.9758611266448</v>
+        <v>337.1293820533569</v>
       </c>
       <c r="O41" t="n">
-        <v>615.2533459958086</v>
+        <v>615.2533459958087</v>
       </c>
       <c r="P41" t="n">
-        <v>615.7129336509096</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q41" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R41" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11138,31 +11138,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J42" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K42" t="n">
-        <v>362.0354133794548</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L42" t="n">
-        <v>56.11452381084905</v>
+        <v>578.1780941808746</v>
       </c>
       <c r="M42" t="n">
-        <v>579.6278541084429</v>
+        <v>175.2980289959029</v>
       </c>
       <c r="N42" t="n">
-        <v>575.2569637637754</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O42" t="n">
-        <v>579.8150493700255</v>
+        <v>579.8150493700256</v>
       </c>
       <c r="P42" t="n">
-        <v>54.25963500280375</v>
+        <v>576.3232053728293</v>
       </c>
       <c r="Q42" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R42" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11299,28 +11299,28 @@
         <v>330.076592815888</v>
       </c>
       <c r="K44" t="n">
-        <v>611.1999600432425</v>
+        <v>490.0456851936601</v>
       </c>
       <c r="L44" t="n">
-        <v>617.5489684328703</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M44" t="n">
         <v>93.29022445704545</v>
       </c>
       <c r="N44" t="n">
-        <v>534.7878950544003</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O44" t="n">
-        <v>93.18977562578313</v>
+        <v>615.2533459958087</v>
       </c>
       <c r="P44" t="n">
-        <v>93.64936328088416</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q44" t="n">
         <v>414.4388617681339</v>
       </c>
       <c r="R44" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11375,31 +11375,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J45" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K45" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L45" t="n">
-        <v>562.8045877599694</v>
+        <v>578.1780941808746</v>
       </c>
       <c r="M45" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N45" t="n">
-        <v>53.19339339374999</v>
+        <v>93.75312630912927</v>
       </c>
       <c r="O45" t="n">
-        <v>57.751479</v>
+        <v>579.8150493700256</v>
       </c>
       <c r="P45" t="n">
-        <v>576.3232053728292</v>
+        <v>576.3232053728293</v>
       </c>
       <c r="Q45" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R45" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -22546,28 +22546,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>410.1968133282722</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>342.0182906175189</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22600,22 +22600,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>254.489886823085</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W2" t="n">
-        <v>48.91460418151496</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X2" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y2" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22704,28 +22704,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>21.3052010834611</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22755,19 +22755,19 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S4" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>237.1532516330649</v>
+        <v>90.17736389674178</v>
       </c>
       <c r="U4" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>235.9604235189134</v>
@@ -22783,7 +22783,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>334.0142532041598</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -22798,7 +22798,7 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H5" t="n">
         <v>307.7994123985592</v>
@@ -22834,10 +22834,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>254.489886823085</v>
@@ -22849,7 +22849,7 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X5" t="n">
-        <v>384.7425708038065</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -22989,10 +22989,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -23007,10 +23007,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>55.3526305130049</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>222.4883416251229</v>
+        <v>8.89313055788466</v>
       </c>
     </row>
     <row r="8">
@@ -23020,28 +23020,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>353.2532503571993</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>410.481526939095</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23071,10 +23071,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>254.489886823085</v>
@@ -23089,7 +23089,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="9">
@@ -23181,22 +23181,22 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H10" t="n">
-        <v>41.99192010088267</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I10" t="n">
         <v>115.1825854367171</v>
@@ -23232,19 +23232,19 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>279.9701659793371</v>
       </c>
       <c r="V10" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>276.2789678462144</v>
+        <v>99.27352434754053</v>
       </c>
       <c r="X10" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -23257,13 +23257,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>410.1968133282722</v>
@@ -23272,10 +23272,10 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H11" t="n">
-        <v>29.41399319559872</v>
+        <v>235.6946977348744</v>
       </c>
       <c r="I11" t="n">
         <v>85.48824505609757</v>
@@ -23311,7 +23311,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>254.489886823085</v>
@@ -23323,7 +23323,7 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X11" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23436,7 +23436,7 @@
         <v>148.1113806425979</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,7 +23466,7 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23478,13 +23478,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>8.893130557884604</v>
       </c>
       <c r="X13" t="n">
-        <v>86.11522480836777</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23497,22 +23497,22 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C14" t="n">
-        <v>12.07625401595567</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>57.97796730492848</v>
       </c>
       <c r="H14" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>85.48824505609757</v>
@@ -23545,16 +23545,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>379.9226978561831</v>
@@ -23706,7 +23706,7 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T16" t="n">
-        <v>8.893130557884689</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>8.89313055788466</v>
       </c>
     </row>
     <row r="17">
@@ -23731,10 +23731,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>17.7759312759303</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D17" t="n">
         <v>400.41929060787</v>
@@ -23746,13 +23746,13 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H17" t="n">
         <v>307.7994123985592</v>
       </c>
       <c r="I17" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23785,7 +23785,7 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T17" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>254.489886823085</v>
@@ -23794,10 +23794,10 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W17" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>396.636963852737</v>
+        <v>289.1439112075983</v>
       </c>
       <c r="Y17" t="n">
         <v>396.9273063213908</v>
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>169.3824387139007</v>
@@ -23940,10 +23940,10 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S19" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23952,13 +23952,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>142.0904386938126</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>8.893130557884632</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23968,28 +23968,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>13.55422061770417</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>404.6410012660961</v>
       </c>
       <c r="H20" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>85.48824505609757</v>
+        <v>48.67727870866089</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24022,16 +24022,16 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T20" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W20" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>396.636963852737</v>
@@ -24126,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>71.73155624800719</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S22" t="n">
         <v>184.5278504388888</v>
@@ -24183,19 +24183,19 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>222.4883416251229</v>
+        <v>8.89313055788466</v>
       </c>
     </row>
     <row r="23">
@@ -24205,13 +24205,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>406.1189678678446</v>
+        <v>13.55422061770378</v>
       </c>
       <c r="C23" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -24220,7 +24220,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>379.1205866585338</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H23" t="n">
         <v>307.7994123985592</v>
@@ -24268,13 +24268,13 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="24">
@@ -24363,25 +24363,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H25" t="n">
-        <v>41.99192010088267</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I25" t="n">
         <v>115.1825854367171</v>
@@ -24414,25 +24414,25 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T25" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>8.89313055788466</v>
       </c>
     </row>
     <row r="26">
@@ -24445,25 +24445,25 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E26" t="n">
         <v>410.1968133282722</v>
       </c>
       <c r="F26" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>85.48824505609757</v>
+        <v>75.11087419317597</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24493,25 +24493,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>219.9844192126098</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V26" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X26" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y26" t="n">
-        <v>217.8771903642412</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="27">
@@ -24600,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,28 +24648,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T28" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>157.1745055375988</v>
+        <v>93.31312169923908</v>
       </c>
     </row>
     <row r="29">
@@ -24679,16 +24679,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E29" t="n">
-        <v>390.2983828659826</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F29" t="n">
         <v>416.8201079258493</v>
@@ -24697,7 +24697,7 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H29" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>85.48824505609757</v>
@@ -24733,16 +24733,16 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T29" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>254.489886823085</v>
       </c>
       <c r="V29" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>379.9226978561831</v>
+        <v>21.58567486636883</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -24843,22 +24843,22 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D31" t="n">
-        <v>96.60443348087411</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,7 +24888,7 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24897,16 +24897,16 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>222.4883416251229</v>
+        <v>8.89313055788466</v>
       </c>
     </row>
     <row r="32">
@@ -24916,13 +24916,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>13.55422061770423</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -24931,7 +24931,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>404.6410012660961</v>
+        <v>371.6886149423797</v>
       </c>
       <c r="H32" t="n">
         <v>307.7994123985592</v>
@@ -24967,10 +24967,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>254.489886823085</v>
@@ -25204,13 +25204,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>254.489886823085</v>
+        <v>221.5375004993686</v>
       </c>
       <c r="V35" t="n">
         <v>346.3391791168841</v>
@@ -25219,7 +25219,7 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X35" t="n">
-        <v>9.771893862571119</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y35" t="n">
         <v>396.9273063213908</v>
@@ -25311,13 +25311,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D37" t="n">
-        <v>4.874559219806287</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E37" t="n">
         <v>159.3017069803637</v>
@@ -25365,10 +25365,10 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T37" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>8.89313055788466</v>
       </c>
     </row>
     <row r="38">
@@ -25393,10 +25393,10 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>279.8578884445867</v>
       </c>
       <c r="E38" t="n">
         <v>410.1968133282722</v>
@@ -25405,13 +25405,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H38" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>64.11184799205954</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25444,19 +25444,19 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T38" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>55.35263051300471</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>222.4883416251229</v>
+        <v>8.89313055788466</v>
       </c>
     </row>
     <row r="41">
@@ -25636,19 +25636,19 @@
         <v>400.41929060787</v>
       </c>
       <c r="E41" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>291.7305019759531</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>73.39558211857398</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25681,22 +25681,22 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T41" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="42">
@@ -25791,7 +25791,7 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E43" t="n">
         <v>159.3017069803637</v>
@@ -25839,7 +25839,7 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T43" t="n">
-        <v>166.7928287882038</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>8.89313055788466</v>
       </c>
     </row>
     <row r="44">
@@ -25876,16 +25876,16 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F44" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>13.07651982190356</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>85.48824505609757</v>
+        <v>9.537947907185853</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,7 +25915,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -25927,10 +25927,10 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y44" t="n">
         <v>396.9273063213908</v>
@@ -26028,22 +26028,22 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D46" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F46" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.577887163712</v>
+        <v>121.3267565797484</v>
       </c>
       <c r="H46" t="n">
-        <v>35.03384500413473</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T46" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26088,10 +26088,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
   </sheetData>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>542526.014035587</v>
+        <v>542526.0140355868</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>542526.014035587</v>
+        <v>542526.0140355868</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>542526.0140355868</v>
+        <v>542526.0140355871</v>
       </c>
     </row>
     <row r="5">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>542526.0140355868</v>
+        <v>542526.0140355871</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>542526.0140355871</v>
+        <v>542526.0140355868</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>542526.014035587</v>
+        <v>542526.0140355871</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>542526.014035587</v>
+        <v>542526.0140355871</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>542526.0140355868</v>
+        <v>542526.0140355871</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>542526.0140355868</v>
+        <v>542526.0140355871</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>542526.014035587</v>
+        <v>542526.0140355868</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>542526.0140355868</v>
+        <v>542526.014035587</v>
       </c>
     </row>
   </sheetData>
@@ -26316,46 +26316,46 @@
         <v>142694.2606395788</v>
       </c>
       <c r="C2" t="n">
-        <v>142694.2606395789</v>
+        <v>142694.2606395788</v>
       </c>
       <c r="D2" t="n">
-        <v>142694.2606395789</v>
+        <v>142694.2606395788</v>
       </c>
       <c r="E2" t="n">
-        <v>142694.2606395789</v>
+        <v>142694.2606395788</v>
       </c>
       <c r="F2" t="n">
-        <v>142694.2606395789</v>
+        <v>142694.2606395788</v>
       </c>
       <c r="G2" t="n">
         <v>142694.2606395789</v>
       </c>
       <c r="H2" t="n">
-        <v>142694.2606395789</v>
+        <v>142694.2606395788</v>
       </c>
       <c r="I2" t="n">
         <v>142694.2606395789</v>
       </c>
       <c r="J2" t="n">
+        <v>142694.2606395788</v>
+      </c>
+      <c r="K2" t="n">
+        <v>142694.2606395788</v>
+      </c>
+      <c r="L2" t="n">
+        <v>142694.2606395788</v>
+      </c>
+      <c r="M2" t="n">
+        <v>142694.2606395788</v>
+      </c>
+      <c r="N2" t="n">
+        <v>142694.2606395788</v>
+      </c>
+      <c r="O2" t="n">
+        <v>142694.2606395788</v>
+      </c>
+      <c r="P2" t="n">
         <v>142694.2606395789</v>
-      </c>
-      <c r="K2" t="n">
-        <v>142694.2606395789</v>
-      </c>
-      <c r="L2" t="n">
-        <v>142694.2606395789</v>
-      </c>
-      <c r="M2" t="n">
-        <v>142694.2606395789</v>
-      </c>
-      <c r="N2" t="n">
-        <v>142694.2606395789</v>
-      </c>
-      <c r="O2" t="n">
-        <v>142694.2606395789</v>
-      </c>
-      <c r="P2" t="n">
-        <v>142694.2606395788</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>174955.509893114</v>
+        <v>174955.5098931141</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>136594.8008058949</v>
+        <v>136594.800805895</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26435,13 +26435,13 @@
         <v>19747.62995624142</v>
       </c>
       <c r="H4" t="n">
-        <v>19747.62995624141</v>
+        <v>19747.62995624142</v>
       </c>
       <c r="I4" t="n">
         <v>19747.62995624142</v>
       </c>
       <c r="J4" t="n">
-        <v>19747.62995624141</v>
+        <v>19747.62995624142</v>
       </c>
       <c r="K4" t="n">
         <v>19747.62995624142</v>
@@ -26469,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>65369.06507849754</v>
+        <v>65369.06507849755</v>
       </c>
       <c r="C5" t="n">
-        <v>65369.06507849754</v>
+        <v>65369.06507849755</v>
       </c>
       <c r="D5" t="n">
-        <v>65369.06507849754</v>
+        <v>65369.06507849755</v>
       </c>
       <c r="E5" t="n">
         <v>31741.46507849755</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-117377.9442882742</v>
+        <v>-118055.4731476683</v>
       </c>
       <c r="C6" t="n">
-        <v>57577.5656048399</v>
+        <v>56900.03674544579</v>
       </c>
       <c r="D6" t="n">
-        <v>57577.56560483995</v>
+        <v>56900.03674544576</v>
       </c>
       <c r="E6" t="n">
-        <v>91205.16560483996</v>
+        <v>90527.63674544581</v>
       </c>
       <c r="F6" t="n">
-        <v>91205.1656048399</v>
+        <v>90527.63674544578</v>
       </c>
       <c r="G6" t="n">
-        <v>91205.16560483993</v>
+        <v>90527.63674544584</v>
       </c>
       <c r="H6" t="n">
-        <v>91205.16560483995</v>
+        <v>90527.63674544578</v>
       </c>
       <c r="I6" t="n">
-        <v>91205.16560483995</v>
+        <v>90527.63674544584</v>
       </c>
       <c r="J6" t="n">
-        <v>-45389.635201055</v>
+        <v>-46067.16406044916</v>
       </c>
       <c r="K6" t="n">
-        <v>91205.16560483996</v>
+        <v>90527.63674544581</v>
       </c>
       <c r="L6" t="n">
-        <v>91205.1656048399</v>
+        <v>90527.63674544581</v>
       </c>
       <c r="M6" t="n">
-        <v>91205.16560483993</v>
+        <v>90527.63674544578</v>
       </c>
       <c r="N6" t="n">
-        <v>91205.16560483989</v>
+        <v>90527.63674544578</v>
       </c>
       <c r="O6" t="n">
-        <v>91205.1656048399</v>
+        <v>90527.63674544581</v>
       </c>
       <c r="P6" t="n">
-        <v>91205.16560483987</v>
+        <v>90527.63674544584</v>
       </c>
     </row>
   </sheetData>
@@ -26789,49 +26789,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="C4" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="D4" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="E4" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="F4" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="G4" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="H4" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="I4" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="J4" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="K4" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L4" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M4" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N4" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O4" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P4" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
     </row>
   </sheetData>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -34701,25 +34701,25 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K2" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>203.2507825193991</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>522.0635703700254</v>
+        <v>400.9092955204429</v>
       </c>
       <c r="P2" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R2" t="n">
         <v>40.9663087773382</v>
@@ -34780,28 +34780,28 @@
         <v>194.760462184478</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>522.0635703700254</v>
+        <v>14.48459394538821</v>
       </c>
       <c r="N3" t="n">
-        <v>276.3515302285465</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O3" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R3" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34938,19 +34938,19 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K5" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L5" t="n">
-        <v>203.2507825193991</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N5" t="n">
-        <v>522.0635703700254</v>
+        <v>203.2507825193993</v>
       </c>
       <c r="O5" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -35020,22 +35020,22 @@
         <v>460.4103598639381</v>
       </c>
       <c r="L6" t="n">
-        <v>522.0635703700254</v>
+        <v>506.6900639491208</v>
       </c>
       <c r="M6" t="n">
-        <v>338.0047407346337</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R6" t="n">
         <v>29.85810036629282</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>176.5650354103358</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L8" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M8" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>500.9700927793174</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,31 +35251,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L9" t="n">
-        <v>522.0635703700254</v>
+        <v>506.6900639491204</v>
       </c>
       <c r="M9" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>500.9700927793174</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35409,22 +35409,22 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>256.7530014825801</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M11" t="n">
-        <v>522.0635703700254</v>
+        <v>500.9700927793178</v>
       </c>
       <c r="N11" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O11" t="n">
-        <v>244.2170912967374</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>445.0368534430329</v>
       </c>
       <c r="L12" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>471.1119924130245</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N12" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R12" t="n">
         <v>29.85810036629282</v>
@@ -35646,28 +35646,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O14" t="n">
-        <v>460.0037840019792</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>400.9092955204429</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R14" t="n">
         <v>40.9663087773382</v>
@@ -35731,22 +35731,22 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>471.1119924130245</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N15" t="n">
-        <v>522.0635703700254</v>
+        <v>117.7337452574854</v>
       </c>
       <c r="O15" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R15" t="n">
         <v>29.85810036629282</v>
@@ -35886,19 +35886,19 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>500.9700927793178</v>
       </c>
       <c r="L17" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M17" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O17" t="n">
-        <v>500.9700927793174</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -35962,31 +35962,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K18" t="n">
         <v>460.4103598639381</v>
       </c>
       <c r="L18" t="n">
-        <v>522.0635703700254</v>
+        <v>506.6900639491208</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N18" t="n">
-        <v>40.55973291537929</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>400.909295520443</v>
       </c>
       <c r="L20" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M20" t="n">
-        <v>500.9700927793174</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36205,10 +36205,10 @@
         <v>460.4103598639381</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>506.6900639491204</v>
       </c>
       <c r="M21" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -36217,13 +36217,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>353.3782471555388</v>
       </c>
       <c r="R21" t="n">
-        <v>14.48459394538775</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36366,22 +36366,22 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>522.0635703700254</v>
+        <v>500.9700927793178</v>
       </c>
       <c r="N23" t="n">
-        <v>135.5987266329973</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O23" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P23" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q23" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,31 +36436,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M24" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P24" t="n">
-        <v>500.9700927793174</v>
+        <v>445.0368534430332</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36594,22 +36594,22 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>203.2507825193993</v>
       </c>
       <c r="L26" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M26" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N26" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O26" t="n">
-        <v>460.0037840019792</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
@@ -36676,22 +36676,22 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>460.4103598639381</v>
+        <v>117.7337452574859</v>
       </c>
       <c r="L27" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>179.3869557635729</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P27" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q27" t="n">
         <v>353.3782471555388</v>
@@ -36834,19 +36834,19 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>500.9700927793178</v>
       </c>
       <c r="L29" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M29" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N29" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O29" t="n">
-        <v>460.0037840019792</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -36855,7 +36855,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,31 +36910,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L30" t="n">
-        <v>522.0635703700254</v>
+        <v>506.6900639491204</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>500.9700927793174</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37068,28 +37068,28 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K32" t="n">
-        <v>460.0037840019792</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M32" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>522.0635703700254</v>
+        <v>400.9092955204429</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R32" t="n">
         <v>40.9663087773382</v>
@@ -37147,31 +37147,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>506.6900639491204</v>
       </c>
       <c r="M33" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>500.9700927793174</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37308,28 +37308,28 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L35" t="n">
-        <v>460.0037840019792</v>
+        <v>500.9700927793178</v>
       </c>
       <c r="M35" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,31 +37384,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>506.6900639491208</v>
       </c>
       <c r="M36" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>500.9700927793174</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37548,25 +37548,25 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>176.5650354103356</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>522.0635703700254</v>
+        <v>135.5987266329975</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O38" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P38" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q38" t="n">
         <v>324.4050573689818</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K39" t="n">
         <v>460.4103598639381</v>
       </c>
       <c r="L39" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M39" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>40.55973291537929</v>
+        <v>14.48459394538775</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M41" t="n">
-        <v>135.5987266329973</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>522.0635703700254</v>
+        <v>244.2170912967376</v>
       </c>
       <c r="O41" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P41" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,31 +37858,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>306.2096305948394</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M42" t="n">
-        <v>522.0635703700254</v>
+        <v>117.7337452574854</v>
       </c>
       <c r="N42" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38019,28 +38019,28 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K44" t="n">
-        <v>522.0635703700254</v>
+        <v>400.909295520443</v>
       </c>
       <c r="L44" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>441.875604297781</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q44" t="n">
         <v>324.4050573689818</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,31 +38095,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>460.4103598639381</v>
       </c>
       <c r="L45" t="n">
-        <v>506.6900639491204</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>40.55973291537929</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P45" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q45" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
